--- a/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6226 +458,6244 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29587</v>
+        <v>29646</v>
       </c>
       <c r="B2" t="n">
-        <v>20060000000</v>
+        <v>21120000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29618</v>
+        <v>29677</v>
       </c>
       <c r="B3" t="n">
-        <v>20770000000</v>
+        <v>21340000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29646</v>
+        <v>29707</v>
       </c>
       <c r="B4" t="n">
-        <v>21120000000</v>
+        <v>21580000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29677</v>
+        <v>29738</v>
       </c>
       <c r="B5" t="n">
-        <v>21340000000</v>
+        <v>22040000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29707</v>
+        <v>29768</v>
       </c>
       <c r="B6" t="n">
-        <v>21580000000</v>
+        <v>22780000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29738</v>
+        <v>29799</v>
       </c>
       <c r="B7" t="n">
-        <v>22040000000</v>
+        <v>23100000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29768</v>
+        <v>29830</v>
       </c>
       <c r="B8" t="n">
-        <v>22780000000</v>
+        <v>23590000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29799</v>
+        <v>29860</v>
       </c>
       <c r="B9" t="n">
-        <v>23100000000</v>
+        <v>24250000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29830</v>
+        <v>29891</v>
       </c>
       <c r="B10" t="n">
-        <v>23590000000</v>
+        <v>24640000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>29860</v>
+        <v>29921</v>
       </c>
       <c r="B11" t="n">
-        <v>24250000000</v>
+        <v>25610000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="B12" t="n">
-        <v>24640000000</v>
+        <v>26270000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B13" t="n">
-        <v>25610000000</v>
+        <v>26500000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B14" t="n">
-        <v>26270000000</v>
+        <v>26680000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B15" t="n">
-        <v>26500000000</v>
+        <v>27590000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B16" t="n">
-        <v>26680000000</v>
+        <v>27940000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B17" t="n">
-        <v>27590000000</v>
+        <v>28650000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B18" t="n">
-        <v>27940000000</v>
+        <v>29310000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B19" t="n">
-        <v>28650000000</v>
+        <v>30190000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B20" t="n">
-        <v>29310000000</v>
+        <v>31450000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B21" t="n">
-        <v>30190000000</v>
+        <v>31910000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B22" t="n">
-        <v>31450000000</v>
+        <v>33970000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B23" t="n">
-        <v>31910000000</v>
+        <v>37080000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B24" t="n">
-        <v>33970000000</v>
+        <v>37040000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B25" t="n">
-        <v>37080000000</v>
+        <v>37860000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B26" t="n">
-        <v>37040000000</v>
+        <v>38280000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B27" t="n">
-        <v>37860000000</v>
+        <v>38870000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B28" t="n">
-        <v>38280000000</v>
+        <v>39610000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B29" t="n">
-        <v>38870000000</v>
+        <v>40670000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B30" t="n">
-        <v>39610000000</v>
+        <v>41460000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B31" t="n">
-        <v>40670000000</v>
+        <v>42460000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B32" t="n">
-        <v>41460000000</v>
+        <v>44420000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B33" t="n">
-        <v>42460000000</v>
+        <v>45140000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B34" t="n">
-        <v>44420000000</v>
+        <v>45690000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B35" t="n">
-        <v>45140000000</v>
+        <v>47220000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B36" t="n">
-        <v>45690000000</v>
+        <v>47110000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B37" t="n">
-        <v>47220000000</v>
+        <v>47010000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B38" t="n">
-        <v>47110000000</v>
+        <v>48800000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B39" t="n">
-        <v>47010000000</v>
+        <v>49550000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B40" t="n">
-        <v>48800000000</v>
+        <v>49830000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B41" t="n">
-        <v>49550000000</v>
+        <v>50500000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B42" t="n">
-        <v>49830000000</v>
+        <v>51150000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B43" t="n">
-        <v>50500000000</v>
+        <v>51340000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B44" t="n">
-        <v>51150000000</v>
+        <v>52250000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B45" t="n">
-        <v>51340000000</v>
+        <v>52320000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B46" t="n">
-        <v>52250000000</v>
+        <v>53020000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B47" t="n">
-        <v>52320000000</v>
+        <v>54980000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B48" t="n">
-        <v>53020000000</v>
+        <v>56590000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B49" t="n">
-        <v>54980000000</v>
+        <v>59360000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B50" t="n">
-        <v>56590000000</v>
+        <v>61900000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B51" t="n">
-        <v>59360000000</v>
+        <v>63320000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B52" t="n">
-        <v>61900000000</v>
+        <v>66090000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B53" t="n">
-        <v>63320000000</v>
+        <v>69030000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B54" t="n">
-        <v>66090000000</v>
+        <v>70050000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B55" t="n">
-        <v>69030000000</v>
+        <v>73970000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B56" t="n">
-        <v>70050000000</v>
+        <v>75470000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B57" t="n">
-        <v>73970000000</v>
+        <v>78030000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B58" t="n">
-        <v>75470000000</v>
+        <v>80920000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31352</v>
+        <v>31472</v>
       </c>
       <c r="B59" t="n">
-        <v>78030000000</v>
+        <v>78860000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31382</v>
+        <v>31564</v>
       </c>
       <c r="B60" t="n">
-        <v>80920000000</v>
+        <v>85180000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31472</v>
+        <v>31594</v>
       </c>
       <c r="B61" t="n">
-        <v>78860000000</v>
+        <v>87710000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B62" t="n">
-        <v>85180000000</v>
+        <v>96900000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B63" t="n">
-        <v>87710000000</v>
+        <v>98740000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B64" t="n">
-        <v>96900000000</v>
+        <v>99830000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B65" t="n">
-        <v>98740000000</v>
+        <v>101880000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B66" t="n">
-        <v>99830000000</v>
+        <v>104550000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B67" t="n">
-        <v>101880000000</v>
+        <v>107790000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B68" t="n">
-        <v>104550000000</v>
+        <v>117670000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B69" t="n">
-        <v>107790000000</v>
+        <v>121450000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B70" t="n">
-        <v>117670000000</v>
+        <v>126860000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B71" t="n">
-        <v>121450000000</v>
+        <v>133570000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B72" t="n">
-        <v>126860000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B73" t="n">
-        <v>133570000000</v>
+        <v>162600000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B74" t="n">
-        <v>137500000000</v>
+        <v>139230000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B75" t="n">
-        <v>162600000000</v>
+        <v>143420000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B76" t="n">
-        <v>139230000000</v>
+        <v>148010000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B77" t="n">
-        <v>143420000000</v>
+        <v>147600000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B78" t="n">
-        <v>148010000000</v>
+        <v>155120000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B79" t="n">
-        <v>147600000000</v>
+        <v>163040000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B80" t="n">
-        <v>155120000000</v>
+        <v>212160000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B81" t="n">
-        <v>163040000000</v>
+        <v>298980000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B82" t="n">
-        <v>212160000000</v>
+        <v>316350000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B83" t="n">
-        <v>298980000000</v>
+        <v>314340000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B84" t="n">
-        <v>316350000000</v>
+        <v>395600000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B85" t="n">
-        <v>314340000000</v>
+        <v>463110000000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B86" t="n">
-        <v>395600000000</v>
+        <v>460020000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B87" t="n">
-        <v>463110000000</v>
+        <v>510860000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B88" t="n">
-        <v>460020000000</v>
+        <v>510940000000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B89" t="n">
-        <v>510860000000</v>
+        <v>530500000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B90" t="n">
-        <v>510940000000</v>
+        <v>547820000000.0001</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B91" t="n">
-        <v>530500000000</v>
+        <v>555840000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B92" t="n">
-        <v>547820000000.0001</v>
+        <v>602240000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B93" t="n">
-        <v>555840000000</v>
+        <v>674900000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B94" t="n">
-        <v>602240000000</v>
+        <v>705730000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B95" t="n">
-        <v>674900000000</v>
+        <v>727370000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B96" t="n">
-        <v>705730000000</v>
+        <v>759570000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B97" t="n">
-        <v>727370000000</v>
+        <v>785070000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B98" t="n">
-        <v>759570000000</v>
+        <v>816340000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B99" t="n">
-        <v>785070000000</v>
+        <v>837430000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B100" t="n">
-        <v>816340000000</v>
+        <v>906160000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B101" t="n">
-        <v>837430000000</v>
+        <v>939290000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B102" t="n">
-        <v>906160000000</v>
+        <v>948040000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B103" t="n">
-        <v>939290000000</v>
+        <v>946560000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B104" t="n">
-        <v>948040000000</v>
+        <v>964770000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B105" t="n">
-        <v>946560000000</v>
+        <v>986240000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B106" t="n">
-        <v>964770000000</v>
+        <v>982530000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B107" t="n">
-        <v>986240000000</v>
+        <v>966580000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B108" t="n">
-        <v>982530000000</v>
+        <v>994070000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B109" t="n">
-        <v>966580000000</v>
+        <v>1048170000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B110" t="n">
-        <v>994070000000</v>
+        <v>1088390000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B111" t="n">
-        <v>1048170000000</v>
+        <v>1109630000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B112" t="n">
-        <v>1088390000000</v>
+        <v>1289630000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B113" t="n">
-        <v>1109630000000</v>
+        <v>1289590000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B114" t="n">
-        <v>1289630000000</v>
+        <v>1268860000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B115" t="n">
-        <v>1289590000000</v>
+        <v>1276910000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B116" t="n">
-        <v>1268860000000</v>
+        <v>1314350000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B117" t="n">
-        <v>1276910000000</v>
+        <v>1386070000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B118" t="n">
-        <v>1314350000000</v>
+        <v>1377310000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B119" t="n">
-        <v>1386070000000</v>
+        <v>1472340000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B120" t="n">
-        <v>1377310000000</v>
+        <v>1632090000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B121" t="n">
-        <v>1472340000000</v>
+        <v>1866380000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B122" t="n">
-        <v>1632090000000</v>
+        <v>1811410000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B123" t="n">
-        <v>1866380000000</v>
+        <v>1813160000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B124" t="n">
-        <v>1811410000000</v>
+        <v>1917710000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B125" t="n">
-        <v>1813160000000</v>
+        <v>1995110000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B126" t="n">
-        <v>1917710000000</v>
+        <v>2151010000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B127" t="n">
-        <v>1995110000000</v>
+        <v>2118590000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B128" t="n">
-        <v>2151010000000</v>
+        <v>2026430000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B129" t="n">
-        <v>2118590000000</v>
+        <v>2038100000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B130" t="n">
-        <v>2026430000000</v>
+        <v>2078100000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B131" t="n">
-        <v>2038100000000</v>
+        <v>2154030000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B132" t="n">
-        <v>2078100000000</v>
+        <v>2238570000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B133" t="n">
-        <v>2154030000000</v>
+        <v>2286870000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B134" t="n">
-        <v>2238570000000</v>
+        <v>2317800000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B135" t="n">
-        <v>2286870000000</v>
+        <v>2390240000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B136" t="n">
-        <v>2317800000000</v>
+        <v>4297230000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B137" t="n">
-        <v>2390240000000</v>
+        <v>4458340000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B138" t="n">
-        <v>4297230000000</v>
+        <v>4393060000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B139" t="n">
-        <v>4458340000000</v>
+        <v>4154130000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B140" t="n">
-        <v>4393060000000</v>
+        <v>4276030000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B141" t="n">
-        <v>4154130000000</v>
+        <v>4229970000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B142" t="n">
-        <v>4276030000000</v>
+        <v>4120690000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B143" t="n">
-        <v>4229970000000</v>
+        <v>4263490000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B144" t="n">
-        <v>4120690000000</v>
+        <v>4378050000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B145" t="n">
-        <v>4263490000000</v>
+        <v>4298740000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B146" t="n">
-        <v>4378050000000</v>
+        <v>4512800000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B147" t="n">
-        <v>4298740000000</v>
+        <v>4706140000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B148" t="n">
-        <v>4512800000000</v>
+        <v>4943670000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B149" t="n">
-        <v>4706140000000</v>
+        <v>5018800000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B150" t="n">
-        <v>4943670000000</v>
+        <v>5308800000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B151" t="n">
-        <v>5018800000000</v>
+        <v>5805200000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B152" t="n">
-        <v>5308800000000</v>
+        <v>6206980000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B153" t="n">
-        <v>5805200000000</v>
+        <v>6679510000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B154" t="n">
-        <v>6206980000000</v>
+        <v>6956560000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B155" t="n">
-        <v>6679510000000</v>
+        <v>6985400000000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B156" t="n">
-        <v>6956560000000</v>
+        <v>7236740000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B157" t="n">
-        <v>6985400000000</v>
+        <v>7445730000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B158" t="n">
-        <v>7236740000000</v>
+        <v>7697120000000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B159" t="n">
-        <v>7445730000000</v>
+        <v>8151070000000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B160" t="n">
-        <v>7697120000000</v>
+        <v>8431450000000.001</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B161" t="n">
-        <v>8151070000000</v>
+        <v>8707299999999.999</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B162" t="n">
-        <v>8431450000000.001</v>
+        <v>8586660000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B163" t="n">
-        <v>8707299999999.999</v>
+        <v>8695770000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B164" t="n">
-        <v>8586660000000</v>
+        <v>8872560000000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B165" t="n">
-        <v>8695770000000</v>
+        <v>8959920000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B166" t="n">
-        <v>8872560000000</v>
+        <v>8992800000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B167" t="n">
-        <v>8959920000000</v>
+        <v>8391760000000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B168" t="n">
-        <v>8992800000000</v>
+        <v>8629740000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B169" t="n">
-        <v>8391760000000</v>
+        <v>8596629999999.999</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B170" t="n">
-        <v>8629740000000</v>
+        <v>8368100000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B171" t="n">
-        <v>8596629999999.999</v>
+        <v>8119720000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B172" t="n">
-        <v>8368100000000</v>
+        <v>8511600000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B173" t="n">
-        <v>8119720000000</v>
+        <v>9176130000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B174" t="n">
-        <v>8511600000000</v>
+        <v>9663210000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B175" t="n">
-        <v>9176130000000</v>
+        <v>10092140000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B176" t="n">
-        <v>9663210000000</v>
+        <v>10366110000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B177" t="n">
-        <v>10092140000000</v>
+        <v>10512680000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B178" t="n">
-        <v>10366110000000</v>
+        <v>10490000000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B179" t="n">
-        <v>10512680000000</v>
+        <v>10924100000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B180" t="n">
-        <v>10490000000000</v>
+        <v>11336120000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B181" t="n">
-        <v>10924100000000</v>
+        <v>11719140000000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B182" t="n">
-        <v>11336120000000</v>
+        <v>11986070000000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B183" t="n">
-        <v>11719140000000</v>
+        <v>12386110000000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B184" t="n">
-        <v>11986070000000</v>
+        <v>13273470000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B185" t="n">
-        <v>12386110000000</v>
+        <v>13572010000000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B186" t="n">
-        <v>13273470000000</v>
+        <v>14001710000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B187" t="n">
-        <v>13572010000000</v>
+        <v>14327790000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B188" t="n">
-        <v>14001710000000</v>
+        <v>14657840000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B189" t="n">
-        <v>14327790000000</v>
+        <v>15119370000000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B190" t="n">
-        <v>14657840000000</v>
+        <v>15307460000000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B191" t="n">
-        <v>15119370000000</v>
+        <v>15441260000000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B192" t="n">
-        <v>15307460000000</v>
+        <v>15543320000000</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B193" t="n">
-        <v>15441260000000</v>
+        <v>15473590000000</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B194" t="n">
-        <v>15543320000000</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
+        <v>15405510000000</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.553450903550847e-05</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1009592534.291616</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B195" t="n">
-        <v>15473590000000</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+        <v>14875010000000</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.566317626526478e-05</v>
+      </c>
+      <c r="D195" t="n">
+        <v>976740403.5775763</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B196" t="n">
-        <v>15405510000000</v>
+        <v>14650810000000</v>
       </c>
       <c r="C196" t="n">
-        <v>6.553450903550847e-05</v>
+        <v>6.574923547401215e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>1009592534.291616</v>
+        <v>963279556.575012</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B197" t="n">
-        <v>14875010000000</v>
+        <v>14549800000000</v>
       </c>
       <c r="C197" t="n">
-        <v>6.566317626526478e-05</v>
+        <v>6.581392806383931e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>976740403.5775763</v>
+        <v>957579490.5432491</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B198" t="n">
-        <v>14650810000000</v>
+        <v>14529860000000</v>
       </c>
       <c r="C198" t="n">
-        <v>6.574923547401215e-05</v>
+        <v>6.592203241347731e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>963279556.575012</v>
+        <v>957837901.8832874</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B199" t="n">
-        <v>14549800000000</v>
+        <v>14771350000000</v>
       </c>
       <c r="C199" t="n">
-        <v>6.581392806383931e-05</v>
+        <v>6.600877192982268e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>957579490.5432491</v>
+        <v>975038673.2455863</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B200" t="n">
-        <v>14529860000000</v>
+        <v>14513120000000</v>
       </c>
       <c r="C200" t="n">
-        <v>6.592203241347731e-05</v>
+        <v>6.60957400087935e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>957837901.8832874</v>
+        <v>959255406.2364211</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B201" t="n">
-        <v>14771350000000</v>
+        <v>13900660000000</v>
       </c>
       <c r="C201" t="n">
-        <v>6.600877192982268e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>975038673.2455863</v>
+        <v>920593764.5762368</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B202" t="n">
-        <v>14513120000000</v>
+        <v>14086370000000</v>
       </c>
       <c r="C202" t="n">
-        <v>6.60957400087935e-05</v>
+        <v>6.57621638155112e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>959255406.2364211</v>
+        <v>926350171.5059025</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B203" t="n">
-        <v>13900660000000</v>
+        <v>14507300000000</v>
       </c>
       <c r="C203" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>920593764.5762368</v>
+        <v>962675771.604968</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B204" t="n">
-        <v>14086370000000</v>
+        <v>14959510000000</v>
       </c>
       <c r="C204" t="n">
-        <v>6.57621638155112e-05</v>
+        <v>6.641820520798443e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>926350171.5059025</v>
+        <v>993583804.9908953</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B205" t="n">
-        <v>14507300000000</v>
+        <v>15372520000000</v>
       </c>
       <c r="C205" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>962675771.604968</v>
+        <v>1023474567.57336</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B206" t="n">
-        <v>14959510000000</v>
+        <v>15386490000000</v>
       </c>
       <c r="C206" t="n">
-        <v>6.641820520798443e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>993583804.9908953</v>
+        <v>1025084880.477995</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B207" t="n">
-        <v>15372520000000</v>
+        <v>15545300000000</v>
       </c>
       <c r="C207" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1023474567.57336</v>
+        <v>1031555401.2346</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B208" t="n">
-        <v>15386490000000</v>
+        <v>16461650000000</v>
       </c>
       <c r="C208" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.682384701114667e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>1025084880.477995</v>
+        <v>1100030781.151042</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B209" t="n">
-        <v>15545300000000</v>
+        <v>16905730000000</v>
       </c>
       <c r="C209" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>1031555401.2346</v>
+        <v>1129299762.539145</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B210" t="n">
-        <v>16461650000000</v>
+        <v>16554250000000</v>
       </c>
       <c r="C210" t="n">
-        <v>6.682384701114667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1100030781.151042</v>
+        <v>1105085218.452186</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B211" t="n">
-        <v>16905730000000</v>
+        <v>16542340000000</v>
       </c>
       <c r="C211" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>1129299762.539145</v>
+        <v>1101724602.27923</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B212" t="n">
-        <v>16554250000000</v>
+        <v>16544890000000</v>
       </c>
       <c r="C212" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.675582228313177e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>1105085218.452186</v>
+        <v>1104467736.533964</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B213" t="n">
-        <v>16542340000000</v>
+        <v>16790140000000</v>
       </c>
       <c r="C213" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>1101724602.27923</v>
+        <v>1121578371.061114</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B214" t="n">
-        <v>16544890000000</v>
+        <v>16821930000000</v>
       </c>
       <c r="C214" t="n">
-        <v>6.675582228313177e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>1104467736.533964</v>
+        <v>1123701937.417084</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B215" t="n">
-        <v>16790140000000</v>
+        <v>17085340000000</v>
       </c>
       <c r="C215" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>1121578371.061114</v>
+        <v>1141297678.651</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B216" t="n">
-        <v>16821930000000</v>
+        <v>17367330000000</v>
       </c>
       <c r="C216" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>1123701937.417084</v>
+        <v>1160134560.586202</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B217" t="n">
-        <v>17085340000000</v>
+        <v>17760410000000</v>
       </c>
       <c r="C217" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>1141297678.651</v>
+        <v>1186392234.798371</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B218" t="n">
-        <v>17367330000000</v>
+        <v>18218130000000</v>
       </c>
       <c r="C218" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>1160134560.586202</v>
+        <v>1216967849.534287</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B219" t="n">
-        <v>17760410000000</v>
+        <v>18925270000000</v>
       </c>
       <c r="C219" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>1186392234.798371</v>
+        <v>1264204675.987917</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B220" t="n">
-        <v>18218130000000</v>
+        <v>19439920000000</v>
       </c>
       <c r="C220" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D220" t="n">
-        <v>1216967849.534287</v>
+        <v>1299448349.988501</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B221" t="n">
-        <v>18925270000000</v>
+        <v>19691480000000</v>
       </c>
       <c r="C221" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D221" t="n">
-        <v>1264204675.987917</v>
+        <v>1316263708.638285</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B222" t="n">
-        <v>19439920000000</v>
+        <v>20239650000000</v>
       </c>
       <c r="C222" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D222" t="n">
-        <v>1299448349.988501</v>
+        <v>1352905762.824372</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B223" t="n">
-        <v>19691480000000</v>
+        <v>20368740000000</v>
       </c>
       <c r="C223" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D223" t="n">
-        <v>1316263708.638285</v>
+        <v>1361534696.86834</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B224" t="n">
-        <v>20239650000000</v>
+        <v>20557380000000</v>
       </c>
       <c r="C224" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>1352905762.824372</v>
+        <v>1374144210.525898</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B225" t="n">
-        <v>20368740000000</v>
+        <v>20999490000000</v>
       </c>
       <c r="C225" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D225" t="n">
-        <v>1361534696.86834</v>
+        <v>1400896828.457574</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B226" t="n">
-        <v>20557380000000</v>
+        <v>20770370000000</v>
       </c>
       <c r="C226" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>1374144210.525898</v>
+        <v>1385612005.762537</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B227" t="n">
-        <v>20999490000000</v>
+        <v>20225160000000</v>
       </c>
       <c r="C227" t="n">
         <v>6.671099290780748e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>1400896828.457574</v>
+        <v>1349240505.319272</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B228" t="n">
-        <v>20770370000000</v>
+        <v>20553180000000</v>
       </c>
       <c r="C228" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D228" t="n">
-        <v>1385612005.762537</v>
+        <v>1365674874.172475</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B229" t="n">
-        <v>20225160000000</v>
+        <v>20714510000000</v>
       </c>
       <c r="C229" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>1349240505.319272</v>
+        <v>1376394593.819276</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B230" t="n">
-        <v>20553180000000</v>
+        <v>20726210000000</v>
       </c>
       <c r="C230" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>1365674874.172475</v>
+        <v>1377172011.037819</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B231" t="n">
-        <v>20714510000000</v>
+        <v>20235110000000</v>
       </c>
       <c r="C231" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>1376394593.819276</v>
+        <v>1344540421.633839</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B232" t="n">
-        <v>20726210000000</v>
+        <v>19033140000000</v>
       </c>
       <c r="C232" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>1377172011.037819</v>
+        <v>1264674423.841328</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B233" t="n">
-        <v>20235110000000</v>
+        <v>19160840000000</v>
       </c>
       <c r="C233" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D233" t="n">
-        <v>1344540421.633839</v>
+        <v>1273159567.329188</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B234" t="n">
-        <v>19033140000000</v>
+        <v>19492530000000</v>
       </c>
       <c r="C234" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D234" t="n">
-        <v>1264674423.841328</v>
+        <v>1295199013.245308</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B235" t="n">
-        <v>19160840000000</v>
+        <v>19661540000000</v>
       </c>
       <c r="C235" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>1273159567.329188</v>
+        <v>1306429037.527871</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B236" t="n">
-        <v>19492530000000</v>
+        <v>19193810000000</v>
       </c>
       <c r="C236" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D236" t="n">
-        <v>1295199013.245308</v>
+        <v>1277041735.18975</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B237" t="n">
-        <v>19661540000000</v>
+        <v>18451720000000</v>
       </c>
       <c r="C237" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>1306429037.527871</v>
+        <v>1227667488.9475</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B238" t="n">
-        <v>19193810000000</v>
+        <v>17581800000000</v>
       </c>
       <c r="C238" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>1277041735.18975</v>
+        <v>1169788196.286154</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B239" t="n">
-        <v>18451720000000</v>
+        <v>17167240000000</v>
       </c>
       <c r="C239" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D239" t="n">
-        <v>1227667488.9475</v>
+        <v>1142205844.385189</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B240" t="n">
-        <v>17581800000000</v>
+        <v>17217820000000</v>
       </c>
       <c r="C240" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.751906684610056e-05</v>
       </c>
       <c r="D240" t="n">
-        <v>1169788196.286154</v>
+        <v>1162531139.524127</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B241" t="n">
-        <v>17167240000000</v>
+        <v>17088960000000</v>
       </c>
       <c r="C241" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D241" t="n">
-        <v>1142205844.385189</v>
+        <v>1139264000</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B242" t="n">
-        <v>17217820000000</v>
+        <v>16213400000000</v>
       </c>
       <c r="C242" t="n">
-        <v>6.751906684610056e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>1162531139.524127</v>
+        <v>1077314216.335769</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B243" t="n">
-        <v>17088960000000</v>
+        <v>16008060000000</v>
       </c>
       <c r="C243" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D243" t="n">
-        <v>1139264000</v>
+        <v>1063670211.920755</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B244" t="n">
-        <v>16213400000000</v>
+        <v>16367250000000</v>
       </c>
       <c r="C244" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D244" t="n">
-        <v>1077314216.335769</v>
+        <v>1086817174.057048</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B245" t="n">
-        <v>16008060000000</v>
+        <v>16681350000000</v>
       </c>
       <c r="C245" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>1063670211.920755</v>
+        <v>1106941435.185219</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B246" t="n">
-        <v>16367250000000</v>
+        <v>17460680000000</v>
       </c>
       <c r="C246" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D246" t="n">
-        <v>1086817174.057048</v>
+        <v>1157890434.016234</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B247" t="n">
-        <v>16681350000000</v>
+        <v>17350220000000</v>
       </c>
       <c r="C247" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D247" t="n">
-        <v>1106941435.185219</v>
+        <v>1150565371.227074</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B248" t="n">
-        <v>17460680000000</v>
+        <v>17183870000000</v>
       </c>
       <c r="C248" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D248" t="n">
-        <v>1157890434.016234</v>
+        <v>1139157553.133173</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B249" t="n">
-        <v>17350220000000</v>
+        <v>16800510000000</v>
       </c>
       <c r="C249" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>1150565371.227074</v>
+        <v>1114111810.971514</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B250" t="n">
-        <v>17183870000000</v>
+        <v>16460310000000</v>
       </c>
       <c r="C250" t="n">
         <v>6.629225856184744e-05</v>
       </c>
       <c r="D250" t="n">
-        <v>1139157553.133173</v>
+        <v>1091191126.528163</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B251" t="n">
-        <v>16800510000000</v>
+        <v>15836230000000</v>
       </c>
       <c r="C251" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>1114111810.971514</v>
+        <v>1050166386.869292</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B252" t="n">
-        <v>16460310000000</v>
+        <v>16331330000000</v>
       </c>
       <c r="C252" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>1091191126.528163</v>
+        <v>1082998530.513265</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B253" t="n">
-        <v>15836230000000</v>
+        <v>16560930000000</v>
       </c>
       <c r="C253" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.633608815429102e-05</v>
       </c>
       <c r="D253" t="n">
-        <v>1050166386.869292</v>
+        <v>1098587312.397043</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B254" t="n">
-        <v>16331330000000</v>
+        <v>17116440000000</v>
       </c>
       <c r="C254" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D254" t="n">
-        <v>1082998530.513265</v>
+        <v>1135813148.148183</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B255" t="n">
-        <v>16560930000000</v>
+        <v>17600960000000</v>
       </c>
       <c r="C255" t="n">
-        <v>6.633608815429102e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D255" t="n">
-        <v>1098587312.397043</v>
+        <v>1167964938.271641</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B256" t="n">
-        <v>17116440000000</v>
+        <v>18140210000000</v>
       </c>
       <c r="C256" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>1135813148.148183</v>
+        <v>1202952899.316959</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B257" t="n">
-        <v>17600960000000</v>
+        <v>19021940000000</v>
       </c>
       <c r="C257" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D257" t="n">
-        <v>1167964938.271641</v>
+        <v>1271508758.604987</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B258" t="n">
-        <v>18140210000000</v>
+        <v>20582830000000</v>
       </c>
       <c r="C258" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>1202952899.316959</v>
+        <v>1373101026.152607</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B259" t="n">
-        <v>19021940000000</v>
+        <v>20934590000000</v>
       </c>
       <c r="C259" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>1271508758.604987</v>
+        <v>1399358558.738193</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B260" t="n">
-        <v>20582830000000</v>
+        <v>21549030000000</v>
       </c>
       <c r="C260" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D260" t="n">
-        <v>1373101026.152607</v>
+        <v>1440430386.408623</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B261" t="n">
-        <v>20934590000000</v>
+        <v>21575930000000</v>
       </c>
       <c r="C261" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>1399358558.738193</v>
+        <v>1442228498.778153</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B262" t="n">
-        <v>21549030000000</v>
+        <v>22200920000000</v>
       </c>
       <c r="C262" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D262" t="n">
-        <v>1440430386.408623</v>
+        <v>1477606836.926636</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B263" t="n">
-        <v>21575930000000</v>
+        <v>22763720000000</v>
       </c>
       <c r="C263" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D263" t="n">
-        <v>1442228498.778153</v>
+        <v>1515064614.704417</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B264" t="n">
-        <v>22200920000000</v>
+        <v>23226450000000</v>
       </c>
       <c r="C264" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.718000223189676e-05</v>
       </c>
       <c r="D264" t="n">
-        <v>1477606836.926636</v>
+        <v>1560352962.839038</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B265" t="n">
-        <v>22763720000000</v>
+        <v>24061610000000</v>
       </c>
       <c r="C265" t="n">
         <v>6.655610834716019e-05</v>
       </c>
       <c r="D265" t="n">
-        <v>1515064614.704417</v>
+        <v>1601447122.167113</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B266" t="n">
-        <v>23226450000000</v>
+        <v>24346290000000</v>
       </c>
       <c r="C266" t="n">
-        <v>6.718000223189676e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D266" t="n">
-        <v>1560352962.839038</v>
+        <v>1614503919.365403</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B267" t="n">
-        <v>24061610000000</v>
+        <v>24800170000000</v>
       </c>
       <c r="C267" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.691119261977329e-05</v>
       </c>
       <c r="D267" t="n">
-        <v>1601447122.167113</v>
+        <v>1659408951.873123</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B268" t="n">
-        <v>24346290000000</v>
+        <v>25511190000000</v>
       </c>
       <c r="C268" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D268" t="n">
-        <v>1614503919.365403</v>
+        <v>1690077735.226378</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B269" t="n">
-        <v>24800170000000</v>
+        <v>25840040000000</v>
       </c>
       <c r="C269" t="n">
-        <v>6.691119261977329e-05</v>
+        <v>6.618293755494739e-05</v>
       </c>
       <c r="D269" t="n">
-        <v>1659408951.873123</v>
+        <v>1710169753.737343</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B270" t="n">
-        <v>25511190000000</v>
+        <v>26234380000000</v>
       </c>
       <c r="C270" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D270" t="n">
-        <v>1690077735.226378</v>
+        <v>1739711033.267136</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B271" t="n">
-        <v>25840040000000</v>
+        <v>26321180000000</v>
       </c>
       <c r="C271" t="n">
-        <v>6.618293755494739e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D271" t="n">
-        <v>1710169753.737343</v>
+        <v>1743162855.88517</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B272" t="n">
-        <v>26234380000000</v>
+        <v>26458570000000</v>
       </c>
       <c r="C272" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D272" t="n">
-        <v>1739711033.267136</v>
+        <v>1752840226.697719</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B273" t="n">
-        <v>26321180000000</v>
+        <v>26313170000000</v>
       </c>
       <c r="C273" t="n">
         <v>6.622662266225035e-05</v>
       </c>
       <c r="D273" t="n">
-        <v>1743162855.88517</v>
+        <v>1742632380.637646</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B274" t="n">
-        <v>26458570000000</v>
+        <v>26249910000000</v>
       </c>
       <c r="C274" t="n">
         <v>6.624848684935425e-05</v>
       </c>
       <c r="D274" t="n">
-        <v>1752840226.697719</v>
+        <v>1739016817.431733</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B275" t="n">
-        <v>26313170000000</v>
+        <v>26467610000000</v>
       </c>
       <c r="C275" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D275" t="n">
-        <v>1742632380.637646</v>
+        <v>1754018188.022635</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B276" t="n">
-        <v>26249910000000</v>
+        <v>26506600000000</v>
       </c>
       <c r="C276" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D276" t="n">
-        <v>1739016817.431733</v>
+        <v>1757182380.795465</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B277" t="n">
-        <v>26467610000000</v>
+        <v>26607700000000</v>
       </c>
       <c r="C277" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D277" t="n">
-        <v>1754018188.022635</v>
+        <v>1763884528.136068</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B278" t="n">
-        <v>26506600000000</v>
+        <v>26722350000000</v>
       </c>
       <c r="C278" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D278" t="n">
-        <v>1757182380.795465</v>
+        <v>1770899900.924438</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B279" t="n">
-        <v>26607700000000</v>
+        <v>26612570000000</v>
       </c>
       <c r="C279" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D279" t="n">
-        <v>1763884528.136068</v>
+        <v>1764790387.750501</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B280" t="n">
-        <v>26722350000000</v>
+        <v>25233460000000</v>
       </c>
       <c r="C280" t="n">
         <v>6.627036547775318e-05</v>
       </c>
       <c r="D280" t="n">
-        <v>1770899900.924438</v>
+        <v>1672230616.468266</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B281" t="n">
-        <v>26612570000000</v>
+        <v>24956870000000</v>
       </c>
       <c r="C281" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D281" t="n">
-        <v>1764790387.750501</v>
+        <v>1653900896.080774</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B282" t="n">
-        <v>25233460000000</v>
+        <v>25977980000000</v>
       </c>
       <c r="C282" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D282" t="n">
-        <v>1672230616.468266</v>
+        <v>1722708081.075024</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B283" t="n">
-        <v>24956870000000</v>
+        <v>26065820000000</v>
       </c>
       <c r="C283" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D283" t="n">
-        <v>1653900896.080774</v>
+        <v>1728533117.426643</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B284" t="n">
-        <v>25977980000000</v>
+        <v>23085570000000</v>
       </c>
       <c r="C284" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D284" t="n">
-        <v>1722708081.075024</v>
+        <v>1530394575.487628</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B285" t="n">
-        <v>26065820000000</v>
+        <v>17969100000000</v>
       </c>
       <c r="C285" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D285" t="n">
-        <v>1728533117.426643</v>
+        <v>1191605882.35287</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B286" t="n">
-        <v>23085570000000</v>
+        <v>18948790000000</v>
       </c>
       <c r="C286" t="n">
         <v>6.629225856184744e-05</v>
       </c>
       <c r="D286" t="n">
-        <v>1530394575.487628</v>
+        <v>1256158086.114149</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B287" t="n">
-        <v>17969100000000</v>
+        <v>20547460000000</v>
       </c>
       <c r="C287" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D287" t="n">
-        <v>1191605882.35287</v>
+        <v>1366199571.460541</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B288" t="n">
-        <v>18948790000000</v>
+        <v>21781700000000</v>
       </c>
       <c r="C288" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D288" t="n">
-        <v>1256158086.114149</v>
+        <v>1451149114.652369</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B289" t="n">
-        <v>20547460000000</v>
+        <v>22896430000000</v>
       </c>
       <c r="C289" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D289" t="n">
-        <v>1366199571.460541</v>
+        <v>1524402882.105452</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B290" t="n">
-        <v>21781700000000</v>
+        <v>23253720000000</v>
       </c>
       <c r="C290" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D290" t="n">
-        <v>1451149114.652369</v>
+        <v>1552827447.587189</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B291" t="n">
-        <v>22896430000000</v>
+        <v>23524610000000</v>
       </c>
       <c r="C291" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D291" t="n">
-        <v>1524402882.105452</v>
+        <v>1570394235.972785</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B292" t="n">
-        <v>23253720000000</v>
+        <v>23811020000000</v>
       </c>
       <c r="C292" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D292" t="n">
-        <v>1552827447.587189</v>
+        <v>1589513643.823753</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B293" t="n">
-        <v>23524610000000</v>
+        <v>24124680000000</v>
       </c>
       <c r="C293" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D293" t="n">
-        <v>1570394235.972785</v>
+        <v>1611524340.879268</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B294" t="n">
-        <v>23811020000000</v>
+        <v>24464500000000</v>
       </c>
       <c r="C294" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D294" t="n">
-        <v>1589513643.823753</v>
+        <v>1628802145.542726</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B295" t="n">
-        <v>24124680000000</v>
+        <v>24893160000000</v>
       </c>
       <c r="C295" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D295" t="n">
-        <v>1611524340.879268</v>
+        <v>1662305304.492335</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B296" t="n">
-        <v>24464500000000</v>
+        <v>25225730000000</v>
       </c>
       <c r="C296" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D296" t="n">
-        <v>1628802145.542726</v>
+        <v>1679483461.62323</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B297" t="n">
-        <v>24893160000000</v>
+        <v>25401630000000</v>
       </c>
       <c r="C297" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D297" t="n">
-        <v>1662305304.492335</v>
+        <v>1694567958.77675</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B298" t="n">
-        <v>25225730000000</v>
+        <v>25603820000000</v>
       </c>
       <c r="C298" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D298" t="n">
-        <v>1679483461.62323</v>
+        <v>1704656009.732051</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B299" t="n">
-        <v>25401630000000</v>
+        <v>25847660000000</v>
       </c>
       <c r="C299" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D299" t="n">
-        <v>1694567958.77675</v>
+        <v>1725470317.143805</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B300" t="n">
-        <v>25603820000000</v>
+        <v>26223500000000</v>
       </c>
       <c r="C300" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D300" t="n">
-        <v>1704656009.732051</v>
+        <v>1745913182.923815</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B301" t="n">
-        <v>25847660000000</v>
+        <v>23982370000000</v>
       </c>
       <c r="C301" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D301" t="n">
-        <v>1725470317.143805</v>
+        <v>1599356014.179223</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B302" t="n">
-        <v>26223500000000</v>
+        <v>23284920000000</v>
       </c>
       <c r="C302" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D302" t="n">
-        <v>1745913182.923815</v>
+        <v>1550267843.397197</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B303" t="n">
-        <v>23982370000000</v>
+        <v>23987690000000</v>
       </c>
       <c r="C303" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D303" t="n">
-        <v>1599356014.179223</v>
+        <v>1591775725.308691</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B304" t="n">
-        <v>23284920000000</v>
+        <v>24614720000000</v>
       </c>
       <c r="C304" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D304" t="n">
-        <v>1550267843.397197</v>
+        <v>1633384197.530915</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B305" t="n">
-        <v>23987690000000</v>
+        <v>24175580000000</v>
       </c>
       <c r="C305" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D305" t="n">
-        <v>1591775725.308691</v>
+        <v>1609566374.695572</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B306" t="n">
-        <v>24614720000000</v>
+        <v>23477280000000</v>
       </c>
       <c r="C306" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D306" t="n">
-        <v>1633384197.530915</v>
+        <v>1557905925.925974</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B307" t="n">
-        <v>24175580000000</v>
+        <v>23219250000000</v>
       </c>
       <c r="C307" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D307" t="n">
-        <v>1609566374.695572</v>
+        <v>1541293251.736291</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B308" t="n">
-        <v>23477280000000</v>
+        <v>23462820000000</v>
       </c>
       <c r="C308" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D308" t="n">
-        <v>1557905925.925974</v>
+        <v>1557976796.823485</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B309" t="n">
-        <v>23219250000000</v>
+        <v>23705520000000</v>
       </c>
       <c r="C309" t="n">
         <v>6.637997574152013e-05</v>
       </c>
       <c r="D309" t="n">
-        <v>1541293251.736291</v>
+        <v>1573571842.54012</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B310" t="n">
-        <v>23462820000000</v>
+        <v>24071860000000</v>
       </c>
       <c r="C310" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D310" t="n">
-        <v>1557976796.823485</v>
+        <v>1597889482.853269</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B311" t="n">
-        <v>23705520000000</v>
+        <v>24464060000000</v>
       </c>
       <c r="C311" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D311" t="n">
-        <v>1573571842.54012</v>
+        <v>1624461076.549943</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B312" t="n">
-        <v>24071860000000</v>
+        <v>24575480000000</v>
       </c>
       <c r="C312" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D312" t="n">
-        <v>1597889482.853269</v>
+        <v>1629702463.097502</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B313" t="n">
-        <v>24464060000000</v>
+        <v>24822990000000</v>
       </c>
       <c r="C313" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D313" t="n">
-        <v>1624461076.549943</v>
+        <v>1657068083.832637</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B314" t="n">
-        <v>24575480000000</v>
+        <v>24961820000000</v>
       </c>
       <c r="C314" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D314" t="n">
-        <v>1629702463.097502</v>
+        <v>1654228934.389889</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B315" t="n">
-        <v>24822990000000</v>
+        <v>25030240000000</v>
       </c>
       <c r="C315" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D315" t="n">
-        <v>1657068083.832637</v>
+        <v>1660957283.950669</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B316" t="n">
-        <v>24961820000000</v>
+        <v>24923710000000</v>
       </c>
       <c r="C316" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D316" t="n">
-        <v>1654228934.389889</v>
+        <v>1653888163.580298</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B317" t="n">
-        <v>25030240000000</v>
+        <v>24524980000000</v>
       </c>
       <c r="C317" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D317" t="n">
-        <v>1660957283.950669</v>
+        <v>1626353597.70865</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B318" t="n">
-        <v>24923710000000</v>
+        <v>24830670000000</v>
       </c>
       <c r="C318" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D318" t="n">
-        <v>1653888163.580298</v>
+        <v>1647714212.963014</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B319" t="n">
-        <v>24524980000000</v>
+        <v>24957840000000</v>
       </c>
       <c r="C319" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D319" t="n">
-        <v>1626353597.70865</v>
+        <v>1656152962.963014</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B320" t="n">
-        <v>24830670000000</v>
+        <v>25479600000000</v>
       </c>
       <c r="C320" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D320" t="n">
-        <v>1647714212.963014</v>
+        <v>1690775925.925978</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B321" t="n">
-        <v>24957840000000</v>
+        <v>25878110000000</v>
       </c>
       <c r="C321" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D321" t="n">
-        <v>1656152962.963014</v>
+        <v>1717220262.345732</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B322" t="n">
-        <v>25479600000000</v>
+        <v>26908910000000</v>
       </c>
       <c r="C322" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D322" t="n">
-        <v>1690775925.925978</v>
+        <v>1785622114.197586</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B323" t="n">
-        <v>25878110000000</v>
+        <v>27793650000000</v>
       </c>
       <c r="C323" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.702293475840972e-05</v>
       </c>
       <c r="D323" t="n">
-        <v>1717220262.345732</v>
+        <v>1862811990.648074</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B324" t="n">
-        <v>26908910000000</v>
+        <v>29097550000000</v>
       </c>
       <c r="C324" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D324" t="n">
-        <v>1785622114.197586</v>
+        <v>1937262231.806771</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B325" t="n">
-        <v>27793650000000</v>
+        <v>30564230000000</v>
       </c>
       <c r="C325" t="n">
-        <v>6.702293475840972e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D325" t="n">
-        <v>1862811990.648074</v>
+        <v>2043045354.207684</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B326" t="n">
-        <v>29097550000000</v>
+        <v>32084790000000</v>
       </c>
       <c r="C326" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D326" t="n">
-        <v>1937262231.806771</v>
+        <v>2147547651.767582</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B327" t="n">
-        <v>30564230000000</v>
+        <v>33356930000000</v>
       </c>
       <c r="C327" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D327" t="n">
-        <v>2043045354.207684</v>
+        <v>2228237001.776019</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B328" t="n">
-        <v>32084790000000</v>
+        <v>34821360000000</v>
       </c>
       <c r="C328" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D328" t="n">
-        <v>2147547651.767582</v>
+        <v>2329162079.999503</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B329" t="n">
-        <v>33356930000000</v>
+        <v>35985470000000</v>
       </c>
       <c r="C329" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D329" t="n">
-        <v>2228237001.776019</v>
+        <v>2403823007.102298</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B330" t="n">
-        <v>34821360000000</v>
+        <v>37324710000000</v>
       </c>
       <c r="C330" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D330" t="n">
-        <v>2329162079.999503</v>
+        <v>2493284001.332239</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B331" t="n">
-        <v>35985470000000</v>
+        <v>38308190000000</v>
       </c>
       <c r="C331" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D331" t="n">
-        <v>2403823007.102298</v>
+        <v>2558980290.724178</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B332" t="n">
-        <v>37324710000000</v>
+        <v>39541860000000</v>
       </c>
       <c r="C332" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D332" t="n">
-        <v>2493284001.332239</v>
+        <v>2641389227.697126</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B333" t="n">
-        <v>38308190000000</v>
+        <v>40487280000000</v>
       </c>
       <c r="C333" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D333" t="n">
-        <v>2558980290.724178</v>
+        <v>2704543115.846278</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B334" t="n">
-        <v>39541860000000</v>
+        <v>41862090000000</v>
       </c>
       <c r="C334" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D334" t="n">
-        <v>2641389227.697126</v>
+        <v>2796380179.761083</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B335" t="n">
-        <v>40487280000000</v>
+        <v>42442800000000</v>
       </c>
       <c r="C335" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D335" t="n">
-        <v>2704543115.846278</v>
+        <v>2833285163.007834</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B336" t="n">
-        <v>41862090000000</v>
+        <v>43826040000000</v>
       </c>
       <c r="C336" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D336" t="n">
-        <v>2796380179.761083</v>
+        <v>2927571691.079361</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B337" t="n">
-        <v>42442800000000</v>
+        <v>45386060000000</v>
       </c>
       <c r="C337" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D337" t="n">
-        <v>2833285163.007834</v>
+        <v>3031780750.111791</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B338" t="n">
-        <v>43826040000000</v>
+        <v>46600160000000</v>
       </c>
       <c r="C338" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>2927571691.079361</v>
+        <v>3112882414.559216</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B339" t="n">
-        <v>45386060000000</v>
+        <v>47584650000000</v>
       </c>
       <c r="C339" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D339" t="n">
-        <v>3031780750.111791</v>
+        <v>3178646171.77184</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B340" t="n">
-        <v>46600160000000</v>
+        <v>48778830000000</v>
       </c>
       <c r="C340" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D340" t="n">
-        <v>3112882414.559216</v>
+        <v>3256249241.517558</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B341" t="n">
-        <v>47584650000000</v>
+        <v>50035990000000</v>
       </c>
       <c r="C341" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D341" t="n">
-        <v>3178646171.77184</v>
+        <v>3342395248.558391</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B342" t="n">
-        <v>48778830000000</v>
+        <v>51489410000000</v>
       </c>
       <c r="C342" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D342" t="n">
-        <v>3256249241.517558</v>
+        <v>3439483446.516695</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B343" t="n">
-        <v>50035990000000</v>
+        <v>52420350000000</v>
       </c>
       <c r="C343" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D343" t="n">
-        <v>3342395248.558391</v>
+        <v>3504002964.689141</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B344" t="n">
-        <v>51489410000000</v>
+        <v>53396860000000</v>
       </c>
       <c r="C344" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D344" t="n">
-        <v>3439483446.516695</v>
+        <v>3566900767.866043</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B345" t="n">
-        <v>52420350000000</v>
+        <v>54615810000000</v>
       </c>
       <c r="C345" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D345" t="n">
-        <v>3504002964.689141</v>
+        <v>3650757008.659782</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B346" t="n">
-        <v>53396860000000</v>
+        <v>55356080000000</v>
       </c>
       <c r="C346" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D346" t="n">
-        <v>3566900767.866043</v>
+        <v>3707650218.06842</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B347" t="n">
-        <v>54615810000000</v>
+        <v>56432090000000</v>
       </c>
       <c r="C347" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D347" t="n">
-        <v>3650757008.659782</v>
+        <v>3767145506.764934</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B348" t="n">
-        <v>55356080000000</v>
+        <v>57319560000000</v>
       </c>
       <c r="C348" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D348" t="n">
-        <v>3707650218.06842</v>
+        <v>3831487355.095437</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B349" t="n">
-        <v>56432090000000</v>
+        <v>57796560000000</v>
       </c>
       <c r="C349" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D349" t="n">
-        <v>3767145506.764934</v>
+        <v>3863372098.599758</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B350" t="n">
-        <v>57319560000000</v>
+        <v>58468430000000</v>
       </c>
       <c r="C350" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D350" t="n">
-        <v>3831487355.095437</v>
+        <v>3903082153.471546</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B351" t="n">
-        <v>57796560000000</v>
+        <v>59276770000000</v>
       </c>
       <c r="C351" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D351" t="n">
-        <v>3863372098.599758</v>
+        <v>3957043195.831281</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B352" t="n">
-        <v>58468430000000</v>
+        <v>59265310000000</v>
       </c>
       <c r="C352" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D352" t="n">
-        <v>3903082153.471546</v>
+        <v>3964190735.55471</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B353" t="n">
-        <v>59276770000000</v>
+        <v>59253590000000</v>
       </c>
       <c r="C353" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D353" t="n">
-        <v>3957043195.831281</v>
+        <v>3968698395.638506</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B354" t="n">
-        <v>59265310000000</v>
+        <v>59401860000000</v>
       </c>
       <c r="C354" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D354" t="n">
-        <v>3964190735.55471</v>
+        <v>3973324413.332486</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B355" t="n">
-        <v>59253590000000</v>
+        <v>55963380000000</v>
       </c>
       <c r="C355" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D355" t="n">
-        <v>3968698395.638506</v>
+        <v>3743328306.665868</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B356" t="n">
-        <v>59401860000000</v>
+        <v>55824410000000</v>
       </c>
       <c r="C356" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D356" t="n">
-        <v>3973324413.332486</v>
+        <v>3731545061.069263</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B357" t="n">
-        <v>55963380000000</v>
+        <v>55989420000000</v>
       </c>
       <c r="C357" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D357" t="n">
-        <v>3743328306.665868</v>
+        <v>3745070093.332534</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B358" t="n">
-        <v>55824410000000</v>
+        <v>56497980000000</v>
       </c>
       <c r="C358" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D358" t="n">
-        <v>3731545061.069263</v>
+        <v>3779087106.66586</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B359" t="n">
-        <v>55989420000000</v>
+        <v>56103250000000</v>
       </c>
       <c r="C359" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D359" t="n">
-        <v>3745070093.332534</v>
+        <v>3727831843.267898</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B360" t="n">
-        <v>56497980000000</v>
+        <v>55196860000000</v>
       </c>
       <c r="C360" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D360" t="n">
-        <v>3779087106.66586</v>
+        <v>3660333743.115006</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B361" t="n">
-        <v>56103250000000</v>
+        <v>55541890000000</v>
       </c>
       <c r="C361" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D361" t="n">
-        <v>3727831843.267898</v>
+        <v>3680781349.625165</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B362" t="n">
-        <v>55196860000000</v>
+        <v>56307070000000</v>
       </c>
       <c r="C362" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D362" t="n">
-        <v>3660333743.115006</v>
+        <v>3753804666.666667</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B363" t="n">
-        <v>55541890000000</v>
+        <v>56805410000000</v>
       </c>
       <c r="C363" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D363" t="n">
-        <v>3680781349.625165</v>
+        <v>3787027333.333333</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B364" t="n">
-        <v>56307070000000</v>
+        <v>57133730000000</v>
       </c>
       <c r="C364" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D364" t="n">
-        <v>3753804666.666667</v>
+        <v>3813983750.277917</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B365" t="n">
-        <v>56805410000000</v>
+        <v>57917370000000</v>
       </c>
       <c r="C365" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D365" t="n">
-        <v>3787027333.333333</v>
+        <v>3874028526.66584</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B366" t="n">
-        <v>57133730000000</v>
+        <v>58643000000000</v>
       </c>
       <c r="C366" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D366" t="n">
-        <v>3813983750.277917</v>
+        <v>3912132757.092554</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B367" t="n">
-        <v>57917370000000</v>
+        <v>58932610000000</v>
       </c>
       <c r="C367" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D367" t="n">
-        <v>3874028526.66584</v>
+        <v>3941936802.221381</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B368" t="n">
-        <v>58643000000000</v>
+        <v>59485810000000</v>
       </c>
       <c r="C368" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D368" t="n">
-        <v>3912132757.092554</v>
+        <v>3978939735.554707</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B369" t="n">
-        <v>58932610000000</v>
+        <v>60356990000000</v>
       </c>
       <c r="C369" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D369" t="n">
-        <v>3941936802.221381</v>
+        <v>4031836216.157337</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B370" t="n">
-        <v>59485810000000</v>
+        <v>60999030000000</v>
       </c>
       <c r="C370" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D370" t="n">
-        <v>3978939735.554707</v>
+        <v>4072013313.373994</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B371" t="n">
-        <v>60356990000000</v>
+        <v>61421480000000</v>
       </c>
       <c r="C371" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D371" t="n">
-        <v>4031836216.157337</v>
+        <v>4111155321.324825</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B372" t="n">
-        <v>60999030000000</v>
+        <v>61807340000000</v>
       </c>
       <c r="C372" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D372" t="n">
-        <v>4072013313.373994</v>
+        <v>4128719338.660692</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B373" t="n">
-        <v>61421480000000</v>
+        <v>62091550000000</v>
       </c>
       <c r="C373" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D373" t="n">
-        <v>4111155321.324825</v>
+        <v>4153234788.888003</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B374" t="n">
-        <v>61807340000000</v>
+        <v>62758720000000</v>
       </c>
       <c r="C374" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D374" t="n">
-        <v>4128719338.660692</v>
+        <v>4197861048.887993</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B375" t="n">
-        <v>62091550000000</v>
+        <v>63023640000000</v>
       </c>
       <c r="C375" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D375" t="n">
-        <v>4153234788.888003</v>
+        <v>4215581253.332434</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B376" t="n">
-        <v>62758720000000</v>
+        <v>63784670000000</v>
       </c>
       <c r="C376" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D376" t="n">
-        <v>4197861048.887993</v>
+        <v>4266485704.443534</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B377" t="n">
-        <v>63023640000000</v>
+        <v>64331000000000</v>
       </c>
       <c r="C377" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D377" t="n">
-        <v>4215581253.332434</v>
+        <v>4303029111.110193</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B378" t="n">
-        <v>63784670000000</v>
+        <v>65077030000000</v>
       </c>
       <c r="C378" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D378" t="n">
-        <v>4266485704.443534</v>
+        <v>4352930228.88796</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B379" t="n">
-        <v>64331000000000</v>
+        <v>65240180000000</v>
       </c>
       <c r="C379" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D379" t="n">
-        <v>4303029111.110193</v>
+        <v>4360935860.536093</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B380" t="n">
-        <v>65077030000000</v>
+        <v>65755649999999.99</v>
       </c>
       <c r="C380" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D380" t="n">
-        <v>4352930228.88796</v>
+        <v>4398322366.665728</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B381" t="n">
-        <v>65240180000000</v>
+        <v>65970179999999.99</v>
       </c>
       <c r="C381" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D381" t="n">
-        <v>4360935860.536093</v>
+        <v>4412672039.999058</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B382" t="n">
-        <v>65755649999999.99</v>
+        <v>66217750000000</v>
       </c>
       <c r="C382" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D382" t="n">
-        <v>4398322366.665728</v>
+        <v>4429231722.221277</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B383" t="n">
-        <v>65970179999999.99</v>
+        <v>66577300000000</v>
       </c>
       <c r="C383" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D383" t="n">
-        <v>4412672039.999058</v>
+        <v>4423789690.950165</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B384" t="n">
-        <v>66217750000000</v>
+        <v>66638700000000</v>
       </c>
       <c r="C384" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D384" t="n">
-        <v>4429231722.221277</v>
+        <v>4436684074.319036</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B385" t="n">
-        <v>66577300000000</v>
+        <v>66594399999999.99</v>
       </c>
       <c r="C385" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D385" t="n">
-        <v>4423789690.950165</v>
+        <v>4430794518.124348</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B386" t="n">
-        <v>66638700000000</v>
+        <v>66964800000000</v>
       </c>
       <c r="C386" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D386" t="n">
-        <v>4436684074.319036</v>
+        <v>4455438726.78924</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B387" t="n">
-        <v>66594399999999.99</v>
+        <v>67073300000000</v>
       </c>
       <c r="C387" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D387" t="n">
-        <v>4430794518.124348</v>
+        <v>4462657670.202147</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B388" t="n">
-        <v>66964800000000</v>
+        <v>67415200000000</v>
       </c>
       <c r="C388" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D388" t="n">
-        <v>4455438726.78924</v>
+        <v>4497334929.078423</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B389" t="n">
-        <v>67073300000000</v>
+        <v>67910000000000</v>
       </c>
       <c r="C389" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D389" t="n">
-        <v>4462657670.202147</v>
+        <v>4527333333.333334</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B390" t="n">
-        <v>67415200000000</v>
+        <v>68749399999999.99</v>
       </c>
       <c r="C390" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D390" t="n">
-        <v>4497334929.078423</v>
+        <v>4595507306.238886</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B391" t="n">
-        <v>67910000000000</v>
+        <v>68948500000000</v>
       </c>
       <c r="C391" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D391" t="n">
-        <v>4527333333.333334</v>
+        <v>4608816011.546455</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B392" t="n">
-        <v>68749399999999.99</v>
+        <v>69422000000000</v>
       </c>
       <c r="C392" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D392" t="n">
-        <v>4595507306.238886</v>
+        <v>4634291860.723841</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B393" t="n">
-        <v>68948500000000</v>
+        <v>69851800000000</v>
       </c>
       <c r="C393" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D393" t="n">
-        <v>4608816011.546455</v>
+        <v>4662983322.245248</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B394" t="n">
-        <v>69422000000000</v>
+        <v>70190100000000.01</v>
       </c>
       <c r="C394" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D394" t="n">
-        <v>4634291860.723841</v>
+        <v>4676232868.525473</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B395" t="n">
-        <v>69851800000000</v>
+        <v>71150500000000</v>
       </c>
       <c r="C395" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D395" t="n">
-        <v>4662983322.245248</v>
+        <v>4727660154.526388</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B396" t="n">
-        <v>70190100000000.01</v>
+        <v>70691500000000</v>
       </c>
       <c r="C396" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D396" t="n">
-        <v>4676232868.525473</v>
+        <v>4706512165.449268</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B397" t="n">
-        <v>71150500000000</v>
+        <v>71280600000000</v>
       </c>
       <c r="C397" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D397" t="n">
-        <v>4727660154.526388</v>
+        <v>4736304768.212924</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B398" t="n">
-        <v>70691500000000</v>
+        <v>71571300000000</v>
       </c>
       <c r="C398" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D398" t="n">
-        <v>4706512165.449268</v>
+        <v>4752473262.740483</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B399" t="n">
-        <v>71280600000000</v>
+        <v>72207200000000</v>
       </c>
       <c r="C399" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D399" t="n">
-        <v>4736304768.212924</v>
+        <v>4797873554.084902</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B400" t="n">
-        <v>71571300000000</v>
+        <v>72090500000000</v>
       </c>
       <c r="C400" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D400" t="n">
-        <v>4752473262.740483</v>
+        <v>4790119315.674304</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B401" t="n">
-        <v>72207200000000</v>
+        <v>72460400000000</v>
       </c>
       <c r="C401" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D401" t="n">
-        <v>4797873554.084902</v>
+        <v>4808329012.345827</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B402" t="n">
-        <v>72090500000000</v>
+        <v>73400300000000</v>
       </c>
       <c r="C402" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D402" t="n">
-        <v>4790119315.674304</v>
+        <v>4877150176.601475</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B403" t="n">
-        <v>72460400000000</v>
+        <v>73368000000000</v>
       </c>
       <c r="C403" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D403" t="n">
-        <v>4808329012.345827</v>
+        <v>4881469496.019894</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B404" t="n">
-        <v>73400300000000</v>
+        <v>73881800000000</v>
       </c>
       <c r="C404" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D404" t="n">
-        <v>4877150176.601475</v>
+        <v>4912397128.342551</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B405" t="n">
-        <v>73368000000000</v>
+        <v>74538100000000</v>
       </c>
       <c r="C405" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D405" t="n">
-        <v>4881469496.019894</v>
+        <v>4972510660.461445</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B406" t="n">
-        <v>73881800000000</v>
+        <v>75394600000000</v>
       </c>
       <c r="C406" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D406" t="n">
-        <v>4912397128.342551</v>
+        <v>5026306666.666667</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B407" t="n">
-        <v>74538100000000</v>
+        <v>75768200000000</v>
       </c>
       <c r="C407" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D407" t="n">
-        <v>4972510660.461445</v>
+        <v>5051213333.333334</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B408" t="n">
-        <v>75394600000000</v>
+        <v>76270100000000</v>
       </c>
       <c r="C408" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D408" t="n">
-        <v>5026306666.666667</v>
+        <v>5084673333.333334</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B409" t="n">
-        <v>75768200000000</v>
+        <v>76486000000000</v>
       </c>
       <c r="C409" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D409" t="n">
-        <v>5051213333.333334</v>
+        <v>5105851851.85278</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B410" t="n">
-        <v>76270100000000</v>
+        <v>77001500000000</v>
       </c>
       <c r="C410" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D410" t="n">
-        <v>5084673333.333334</v>
+        <v>5140264249.280154</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B411" t="n">
-        <v>76486000000000</v>
+        <v>77702300000000</v>
       </c>
       <c r="C411" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D411" t="n">
-        <v>5105851851.85278</v>
+        <v>5178432923.725613</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B412" t="n">
-        <v>77001500000000</v>
+        <v>77842000000000</v>
       </c>
       <c r="C412" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D412" t="n">
-        <v>5140264249.280154</v>
+        <v>5187398600.777648</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B413" t="n">
-        <v>77702300000000</v>
+        <v>78010600000000</v>
       </c>
       <c r="C413" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.66312480630314e-05</v>
       </c>
       <c r="D413" t="n">
-        <v>5178432923.725613</v>
+        <v>5197943640.145917</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B414" t="n">
-        <v>77842000000000</v>
+        <v>78620200000000</v>
       </c>
       <c r="C414" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D414" t="n">
-        <v>5187398600.777648</v>
+        <v>5217081172.839667</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B415" t="n">
-        <v>78010600000000</v>
+        <v>78746000000000</v>
       </c>
       <c r="C415" t="n">
-        <v>6.66312480630314e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D415" t="n">
-        <v>5197943640.145917</v>
+        <v>5241027307.905476</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B416" t="n">
-        <v>78620200000000</v>
+        <v>78826400000000</v>
       </c>
       <c r="C416" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D416" t="n">
-        <v>5217081172.839667</v>
+        <v>5249860913.818933</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B417" t="n">
-        <v>78746000000000</v>
+        <v>79179500000000</v>
       </c>
       <c r="C417" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D417" t="n">
-        <v>5241027307.905476</v>
+        <v>5276880216.983695</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B418" t="n">
-        <v>78826400000000</v>
+        <v>79579600000000</v>
       </c>
       <c r="C418" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D418" t="n">
-        <v>5249860913.818933</v>
+        <v>5291243560.858681</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B419" t="n">
-        <v>79179500000000</v>
+        <v>79870500000000</v>
       </c>
       <c r="C419" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D419" t="n">
-        <v>5276880216.983695</v>
+        <v>5324700000</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B420" t="n">
-        <v>79579600000000</v>
+        <v>80272500000000</v>
       </c>
       <c r="C420" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D420" t="n">
-        <v>5291243560.858681</v>
+        <v>5350078052.346124</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B421" t="n">
-        <v>79870500000000</v>
+        <v>80371400000000</v>
       </c>
       <c r="C421" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D421" t="n">
-        <v>5324700000</v>
+        <v>5359874022.375769</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B422" t="n">
-        <v>80272500000000</v>
+        <v>81397500000000</v>
       </c>
       <c r="C422" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D422" t="n">
-        <v>5350078052.346124</v>
+        <v>5428303423.062578</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B423" t="n">
-        <v>80371400000000</v>
+        <v>81663900000000</v>
       </c>
       <c r="C423" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.66932553399133e-05</v>
       </c>
       <c r="D423" t="n">
-        <v>5359874022.375769</v>
+        <v>5446431334.753145</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B424" t="n">
-        <v>81397500000000</v>
+        <v>81156300000000</v>
       </c>
       <c r="C424" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D424" t="n">
-        <v>5428303423.062578</v>
+        <v>5405032923.997082</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B425" t="n">
-        <v>81663900000000</v>
+        <v>81593400000000</v>
       </c>
       <c r="C425" t="n">
-        <v>6.66932553399133e-05</v>
+        <v>6.661355287035969e-05</v>
       </c>
       <c r="D425" t="n">
-        <v>5446431334.753145</v>
+        <v>5435226264.772407</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B426" t="n">
-        <v>81156300000000</v>
+        <v>82428000000000</v>
       </c>
       <c r="C426" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D426" t="n">
-        <v>5405032923.997082</v>
+        <v>5493374958.487134</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B427" t="n">
-        <v>81593400000000</v>
+        <v>82377400000000</v>
       </c>
       <c r="C427" t="n">
-        <v>6.661355287035969e-05</v>
+        <v>6.665780848614462e-05</v>
       </c>
       <c r="D427" t="n">
-        <v>5435226264.772407</v>
+        <v>5491096952.78653</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B428" t="n">
-        <v>82428000000000</v>
+        <v>82874600000000</v>
       </c>
       <c r="C428" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.656935598017958e-05</v>
       </c>
       <c r="D428" t="n">
-        <v>5493374958.487134</v>
+        <v>5516908749.114991</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B429" t="n">
-        <v>82377400000000</v>
+        <v>82632700000000</v>
       </c>
       <c r="C429" t="n">
-        <v>6.665780848614462e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D429" t="n">
-        <v>5491096952.78653</v>
+        <v>5506285603.593776</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B430" t="n">
-        <v>82874600000000</v>
+        <v>82707600000000</v>
       </c>
       <c r="C430" t="n">
-        <v>6.656935598017958e-05</v>
+        <v>6.651198762567775e-05</v>
       </c>
       <c r="D430" t="n">
-        <v>5516908749.114991</v>
+        <v>5501046867.749505</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B431" t="n">
-        <v>82632700000000</v>
+        <v>82605300000000</v>
       </c>
       <c r="C431" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D431" t="n">
-        <v>5506285603.593776</v>
+        <v>5504459786.144528</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B432" t="n">
-        <v>82707600000000</v>
+        <v>83108700000000</v>
       </c>
       <c r="C432" t="n">
-        <v>6.651198762567775e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D432" t="n">
-        <v>5501046867.749505</v>
+        <v>5538372011.156564</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B433" t="n">
-        <v>82605300000000</v>
+        <v>83114600000000</v>
       </c>
       <c r="C433" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D433" t="n">
-        <v>5504459786.144528</v>
+        <v>5538397334.571608</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B434" t="n">
-        <v>83108700000000</v>
+        <v>83694400000000</v>
       </c>
       <c r="C434" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.673317813988263e-05</v>
       </c>
       <c r="D434" t="n">
-        <v>5538372011.156564</v>
+        <v>5585193304.510593</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B435" t="n">
-        <v>83114600000000</v>
+        <v>83441700000000</v>
       </c>
       <c r="C435" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D435" t="n">
-        <v>5538397334.571608</v>
+        <v>5560932514.116512</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B436" t="n">
-        <v>83694400000000</v>
+        <v>82880400000000</v>
       </c>
       <c r="C436" t="n">
-        <v>6.673317813988263e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D436" t="n">
-        <v>5585193304.510593</v>
+        <v>5522791259.87767</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B437" t="n">
-        <v>83441700000000</v>
+        <v>78447700000000</v>
       </c>
       <c r="C437" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D437" t="n">
-        <v>5560932514.116512</v>
+        <v>5227762508.854149</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B438" t="n">
-        <v>82880400000000</v>
+        <v>79166200000000</v>
       </c>
       <c r="C438" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D438" t="n">
-        <v>5522791259.87767</v>
+        <v>5275293041.994581</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B439" t="n">
-        <v>78447700000000</v>
+        <v>79712000000000</v>
       </c>
       <c r="C439" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D439" t="n">
-        <v>5227762508.854149</v>
+        <v>5312721314.380569</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B440" t="n">
-        <v>79166200000000</v>
+        <v>80568000000000</v>
       </c>
       <c r="C440" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D440" t="n">
-        <v>5275293041.994581</v>
+        <v>5353414569.537559</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B441" t="n">
-        <v>79712000000000</v>
+        <v>80882000000000</v>
       </c>
       <c r="C441" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D441" t="n">
-        <v>5312721314.380569</v>
+        <v>5390342521.865827</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B442" t="n">
-        <v>80568000000000</v>
+        <v>80700400000000</v>
       </c>
       <c r="C442" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D442" t="n">
-        <v>5353414569.537559</v>
+        <v>5380026666.666667</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B443" t="n">
-        <v>80882000000000</v>
+        <v>81058300000000</v>
       </c>
       <c r="C443" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D443" t="n">
-        <v>5390342521.865827</v>
+        <v>5403886666.666667</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B444" t="n">
-        <v>80700400000000</v>
+        <v>81369200000000</v>
       </c>
       <c r="C444" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D444" t="n">
-        <v>5380026666.666667</v>
+        <v>5422451558.623835</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B445" t="n">
-        <v>81058300000000</v>
+        <v>80767800000000</v>
       </c>
       <c r="C445" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D445" t="n">
-        <v>5403886666.666667</v>
+        <v>5373808090.184216</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B446" t="n">
-        <v>81369200000000</v>
+        <v>80216200000000</v>
       </c>
       <c r="C446" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D446" t="n">
-        <v>5422451558.623835</v>
+        <v>5337107913.349566</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B447" t="n">
-        <v>80767800000000</v>
+        <v>79452900000000</v>
       </c>
       <c r="C447" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D447" t="n">
-        <v>5373808090.184216</v>
+        <v>5294397489.538354</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B448" t="n">
-        <v>80216200000000</v>
+        <v>78473400000000</v>
       </c>
       <c r="C448" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D448" t="n">
-        <v>5337107913.349566</v>
+        <v>5221152387.266485</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B449" t="n">
-        <v>79452900000000</v>
+        <v>77705900000000</v>
       </c>
       <c r="C449" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D449" t="n">
-        <v>5294397489.538354</v>
+        <v>5177984968.230466</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B450" t="n">
-        <v>78473400000000</v>
+        <v>76828000000000</v>
       </c>
       <c r="C450" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D450" t="n">
-        <v>5221152387.266485</v>
+        <v>5119485510.613869</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B451" t="n">
-        <v>77705900000000</v>
+        <v>75056000000000</v>
       </c>
       <c r="C451" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D451" t="n">
-        <v>5177984968.230466</v>
+        <v>5010391661.123111</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B452" t="n">
-        <v>76828000000000</v>
+        <v>75726000000000</v>
       </c>
       <c r="C452" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D452" t="n">
-        <v>5119485510.613869</v>
+        <v>5046052998.603971</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B453" t="n">
-        <v>75056000000000</v>
+        <v>75982700000000</v>
       </c>
       <c r="C453" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D453" t="n">
-        <v>5010391661.123111</v>
+        <v>5063830997.455237</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B454" t="n">
-        <v>75726000000000</v>
+        <v>75295800000000</v>
       </c>
       <c r="C454" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D454" t="n">
-        <v>5046052998.603971</v>
+        <v>5018052872.801178</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B455" t="n">
-        <v>75982700000000</v>
+        <v>74212800000000</v>
       </c>
       <c r="C455" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D455" t="n">
-        <v>5063830997.455237</v>
+        <v>4945219897.720687</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B456" t="n">
-        <v>75295800000000</v>
+        <v>74039300000000</v>
       </c>
       <c r="C456" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D456" t="n">
-        <v>5018052872.801178</v>
+        <v>4933658608.397894</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B457" t="n">
-        <v>74212800000000</v>
+        <v>73728700000000</v>
       </c>
       <c r="C457" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D457" t="n">
-        <v>4945219897.720687</v>
+        <v>4912961568.261529</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B458" t="n">
-        <v>74039300000000</v>
+        <v>73142500000000</v>
       </c>
       <c r="C458" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D458" t="n">
-        <v>4933658608.397894</v>
+        <v>4873899736.555356</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B459" t="n">
-        <v>73728700000000</v>
+        <v>70440500000000</v>
       </c>
       <c r="C459" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D459" t="n">
-        <v>4912961568.261529</v>
+        <v>4694473707.518233</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B460" t="n">
-        <v>73142500000000</v>
+        <v>69005000000000</v>
       </c>
       <c r="C460" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D460" t="n">
-        <v>4873899736.555356</v>
+        <v>4598805490.97885</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B461" t="n">
-        <v>70440500000000</v>
+        <v>66054100000000.01</v>
       </c>
       <c r="C461" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D461" t="n">
-        <v>4694473707.518233</v>
+        <v>4402144160.302385</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B462" t="n">
-        <v>69005000000000</v>
+        <v>63483800000000</v>
       </c>
       <c r="C462" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D462" t="n">
-        <v>4598805490.97885</v>
+        <v>4230847736.08004</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B463" t="n">
-        <v>66054100000000.01</v>
+        <v>61543000000000</v>
       </c>
       <c r="C463" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D463" t="n">
-        <v>4402144160.302385</v>
+        <v>4091990943.23075</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B464" t="n">
-        <v>63483800000000</v>
+        <v>59676600000000</v>
       </c>
       <c r="C464" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D464" t="n">
-        <v>4230847736.08004</v>
+        <v>3967894102.055542</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B465" t="n">
-        <v>61543000000000</v>
+        <v>59697000000000</v>
       </c>
       <c r="C465" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D465" t="n">
-        <v>4091990943.23075</v>
+        <v>3978478246.430902</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B466" t="n">
-        <v>59676600000000</v>
+        <v>58242600000000</v>
       </c>
       <c r="C466" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D466" t="n">
-        <v>3967894102.055542</v>
+        <v>3881034867.502464</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B467" t="n">
-        <v>59697000000000</v>
+        <v>58466700000000</v>
       </c>
       <c r="C467" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D467" t="n">
-        <v>3978478246.430902</v>
+        <v>3896485486.55044</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B468" t="n">
-        <v>58242600000000</v>
+        <v>58829200000000</v>
       </c>
       <c r="C468" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D468" t="n">
-        <v>3881034867.502464</v>
+        <v>3920123353.477969</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B469" t="n">
-        <v>58466700000000</v>
+        <v>59170300000000</v>
       </c>
       <c r="C469" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D469" t="n">
-        <v>3896485486.55044</v>
+        <v>3939451515.150801</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B470" t="n">
-        <v>58829200000000</v>
+        <v>60614400000000</v>
       </c>
       <c r="C470" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D470" t="n">
-        <v>3920123353.477969</v>
+        <v>4039081357.507071</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B471" t="n">
-        <v>59170300000000</v>
+        <v>61723000000000</v>
       </c>
       <c r="C471" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D471" t="n">
-        <v>3939451515.150801</v>
+        <v>4113500055.35378</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B472" t="n">
-        <v>60614400000000</v>
+        <v>63409900000000</v>
       </c>
       <c r="C472" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D472" t="n">
-        <v>4039081357.507071</v>
+        <v>4225361382.301692</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B473" t="n">
-        <v>61723000000000</v>
+        <v>65311500000000</v>
       </c>
       <c r="C473" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D473" t="n">
-        <v>4113500055.35378</v>
+        <v>4352075778.706431</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B474" t="n">
-        <v>63409900000000</v>
+        <v>67510300000000</v>
       </c>
       <c r="C474" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D474" t="n">
-        <v>4225361382.301692</v>
+        <v>4498594297.224911</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B475" t="n">
-        <v>65311500000000</v>
+        <v>69303200000000</v>
       </c>
       <c r="C475" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D475" t="n">
-        <v>4352075778.706431</v>
+        <v>4618065395.938656</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B476" t="n">
-        <v>67510300000000</v>
+        <v>71601700000000</v>
       </c>
       <c r="C476" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D476" t="n">
-        <v>4498594297.224911</v>
+        <v>4771861330.677782</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B477" t="n">
-        <v>69303200000000</v>
+        <v>72300400000000</v>
       </c>
       <c r="C477" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D477" t="n">
-        <v>4618065395.938656</v>
+        <v>4818425860.734255</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B478" t="n">
-        <v>71601700000000</v>
+        <v>73248200000000</v>
       </c>
       <c r="C478" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D478" t="n">
-        <v>4771861330.677782</v>
+        <v>4880943127.22636</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B479" t="n">
-        <v>72300400000000</v>
+        <v>74312300000000</v>
       </c>
       <c r="C479" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.682206682206579e-05</v>
       </c>
       <c r="D479" t="n">
-        <v>4818425860.734255</v>
+        <v>4965701476.301399</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B480" t="n">
-        <v>73248200000000</v>
+        <v>75032100000000</v>
       </c>
       <c r="C480" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D480" t="n">
-        <v>4880943127.22636</v>
+        <v>4999814504.880133</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B481" t="n">
-        <v>74312300000000</v>
+        <v>74752200000000</v>
       </c>
       <c r="C481" t="n">
-        <v>6.682206682206579e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D481" t="n">
-        <v>4965701476.301399</v>
+        <v>4981163179.915006</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B482" t="n">
-        <v>75032100000000</v>
+        <v>75146500000000</v>
       </c>
       <c r="C482" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D482" t="n">
-        <v>4999814504.880133</v>
+        <v>5007437625.90911</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B483" t="n">
-        <v>74752200000000</v>
+        <v>75299900000000</v>
       </c>
       <c r="C483" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D483" t="n">
-        <v>4981163179.915006</v>
+        <v>5018326115.356254</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B484" t="n">
-        <v>75146500000000</v>
+        <v>75423200000000</v>
       </c>
       <c r="C484" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D484" t="n">
-        <v>5007437625.90911</v>
+        <v>5026543385.36622</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B485" t="n">
-        <v>75299900000000</v>
+        <v>75531400000000</v>
       </c>
       <c r="C485" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D485" t="n">
-        <v>5018326115.356254</v>
+        <v>5033085696.57391</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B486" t="n">
-        <v>75423200000000</v>
+        <v>79007900000000</v>
       </c>
       <c r="C486" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D486" t="n">
-        <v>5026543385.36622</v>
+        <v>5264744614.906407</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B487" t="n">
-        <v>75531400000000</v>
+        <v>75513400000000</v>
       </c>
       <c r="C487" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D487" t="n">
-        <v>5033085696.57391</v>
+        <v>5032554721.57789</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B488" t="n">
-        <v>79007900000000</v>
+        <v>73617900000000</v>
       </c>
       <c r="C488" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D488" t="n">
-        <v>5264744614.906407</v>
+        <v>4906230023.249502</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B489" t="n">
-        <v>75513400000000</v>
+        <v>71185600000000</v>
       </c>
       <c r="C489" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D489" t="n">
-        <v>5032554721.57789</v>
+        <v>4744130543.563858</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B490" t="n">
-        <v>73617900000000</v>
+        <v>77073100000000</v>
       </c>
       <c r="C490" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D490" t="n">
-        <v>4906230023.249502</v>
+        <v>5131387547.001945</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B491" t="n">
-        <v>71185600000000</v>
+        <v>79797700000000</v>
       </c>
       <c r="C491" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D491" t="n">
-        <v>4744130543.563858</v>
+        <v>5318079862.727092</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B492" t="n">
-        <v>77073100000000</v>
+        <v>74834600000000</v>
       </c>
       <c r="C492" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D492" t="n">
-        <v>5131387547.001945</v>
+        <v>4987316417.58142</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B493" t="n">
-        <v>79797700000000</v>
+        <v>79686600000000</v>
       </c>
       <c r="C493" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D493" t="n">
-        <v>5318079862.727092</v>
+        <v>5309970246.395625</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B494" t="n">
-        <v>74834600000000</v>
+        <v>76680600000000</v>
       </c>
       <c r="C494" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D494" t="n">
-        <v>4987316417.58142</v>
+        <v>5109663412.364995</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B495" t="n">
-        <v>79686600000000</v>
+        <v>93684900000000</v>
       </c>
       <c r="C495" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D495" t="n">
-        <v>5309970246.395625</v>
+        <v>6242756392.373994</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B496" t="n">
-        <v>76680600000000</v>
+        <v>109003000000000</v>
       </c>
       <c r="C496" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D496" t="n">
-        <v>5109663412.364995</v>
+        <v>7263488300.013582</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B497" t="n">
-        <v>93684900000000</v>
+        <v>107631000000000</v>
       </c>
       <c r="C497" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D497" t="n">
-        <v>6242756392.373994</v>
+        <v>7173016937.896451</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B498" t="n">
-        <v>109003000000000</v>
+        <v>116582000000000</v>
       </c>
       <c r="C498" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D498" t="n">
-        <v>7263488300.013582</v>
+        <v>7769552086.795106</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B499" t="n">
-        <v>107631000000000</v>
+        <v>112764000000000</v>
       </c>
       <c r="C499" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D499" t="n">
-        <v>7173016937.896451</v>
+        <v>7514105067.408526</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B500" t="n">
-        <v>116582000000000</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B500" t="inlineStr"/>
       <c r="C500" t="n">
-        <v>6.664452562827114e-05</v>
-      </c>
-      <c r="D500" t="n">
-        <v>7769552086.795106</v>
-      </c>
+        <v>6.666666666666667e-05</v>
+      </c>
+      <c r="D500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B501" t="n">
-        <v>112764000000000</v>
+        <v>103838000000000</v>
       </c>
       <c r="C501" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D501" t="n">
-        <v>7514105067.408526</v>
+        <v>6922533333.333334</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B502" t="n">
+        <v>108137000000000</v>
+      </c>
+      <c r="C502" t="n">
+        <v>6.666666666666667e-05</v>
+      </c>
+      <c r="D502" t="n">
+        <v>7209133333.333334</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D502"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6244 +458,6242 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29646</v>
+        <v>29707</v>
       </c>
       <c r="B2" t="n">
-        <v>21120000000</v>
+        <v>21580000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29677</v>
+        <v>29738</v>
       </c>
       <c r="B3" t="n">
-        <v>21340000000</v>
+        <v>22040000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29707</v>
+        <v>29768</v>
       </c>
       <c r="B4" t="n">
-        <v>21580000000</v>
+        <v>22780000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29738</v>
+        <v>29799</v>
       </c>
       <c r="B5" t="n">
-        <v>22040000000</v>
+        <v>23100000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29768</v>
+        <v>29830</v>
       </c>
       <c r="B6" t="n">
-        <v>22780000000</v>
+        <v>23590000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29799</v>
+        <v>29860</v>
       </c>
       <c r="B7" t="n">
-        <v>23100000000</v>
+        <v>24250000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29830</v>
+        <v>29891</v>
       </c>
       <c r="B8" t="n">
-        <v>23590000000</v>
+        <v>24640000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29860</v>
+        <v>29921</v>
       </c>
       <c r="B9" t="n">
-        <v>24250000000</v>
+        <v>25610000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29891</v>
+        <v>29952</v>
       </c>
       <c r="B10" t="n">
-        <v>24640000000</v>
+        <v>26270000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>29921</v>
+        <v>29983</v>
       </c>
       <c r="B11" t="n">
-        <v>25610000000</v>
+        <v>26500000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="B12" t="n">
-        <v>26270000000</v>
+        <v>26680000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>29983</v>
+        <v>30042</v>
       </c>
       <c r="B13" t="n">
-        <v>26500000000</v>
+        <v>27590000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="B14" t="n">
-        <v>26680000000</v>
+        <v>27940000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="B15" t="n">
-        <v>27590000000</v>
+        <v>28650000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="B16" t="n">
-        <v>27940000000</v>
+        <v>29310000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="B17" t="n">
-        <v>28650000000</v>
+        <v>30190000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="B18" t="n">
-        <v>29310000000</v>
+        <v>31450000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="B19" t="n">
-        <v>30190000000</v>
+        <v>31910000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="B20" t="n">
-        <v>31450000000</v>
+        <v>33970000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="B21" t="n">
-        <v>31910000000</v>
+        <v>37080000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="B22" t="n">
-        <v>33970000000</v>
+        <v>37040000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30286</v>
+        <v>30348</v>
       </c>
       <c r="B23" t="n">
-        <v>37080000000</v>
+        <v>37860000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30317</v>
+        <v>30376</v>
       </c>
       <c r="B24" t="n">
-        <v>37040000000</v>
+        <v>38280000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30348</v>
+        <v>30407</v>
       </c>
       <c r="B25" t="n">
-        <v>37860000000</v>
+        <v>38870000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30376</v>
+        <v>30437</v>
       </c>
       <c r="B26" t="n">
-        <v>38280000000</v>
+        <v>39610000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30407</v>
+        <v>30468</v>
       </c>
       <c r="B27" t="n">
-        <v>38870000000</v>
+        <v>40670000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30437</v>
+        <v>30498</v>
       </c>
       <c r="B28" t="n">
-        <v>39610000000</v>
+        <v>41460000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30468</v>
+        <v>30529</v>
       </c>
       <c r="B29" t="n">
-        <v>40670000000</v>
+        <v>42460000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30498</v>
+        <v>30560</v>
       </c>
       <c r="B30" t="n">
-        <v>41460000000</v>
+        <v>44420000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30529</v>
+        <v>30590</v>
       </c>
       <c r="B31" t="n">
-        <v>42460000000</v>
+        <v>45140000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30560</v>
+        <v>30621</v>
       </c>
       <c r="B32" t="n">
-        <v>44420000000</v>
+        <v>45690000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30590</v>
+        <v>30651</v>
       </c>
       <c r="B33" t="n">
-        <v>45140000000</v>
+        <v>47220000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30621</v>
+        <v>30682</v>
       </c>
       <c r="B34" t="n">
-        <v>45690000000</v>
+        <v>47110000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30651</v>
+        <v>30713</v>
       </c>
       <c r="B35" t="n">
-        <v>47220000000</v>
+        <v>47010000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30682</v>
+        <v>30742</v>
       </c>
       <c r="B36" t="n">
-        <v>47110000000</v>
+        <v>48800000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30713</v>
+        <v>30773</v>
       </c>
       <c r="B37" t="n">
-        <v>47010000000</v>
+        <v>49550000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30742</v>
+        <v>30803</v>
       </c>
       <c r="B38" t="n">
-        <v>48800000000</v>
+        <v>49830000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30773</v>
+        <v>30834</v>
       </c>
       <c r="B39" t="n">
-        <v>49550000000</v>
+        <v>50500000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30803</v>
+        <v>30864</v>
       </c>
       <c r="B40" t="n">
-        <v>49830000000</v>
+        <v>51150000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30834</v>
+        <v>30895</v>
       </c>
       <c r="B41" t="n">
-        <v>50500000000</v>
+        <v>51340000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30864</v>
+        <v>30926</v>
       </c>
       <c r="B42" t="n">
-        <v>51150000000</v>
+        <v>52250000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30895</v>
+        <v>30956</v>
       </c>
       <c r="B43" t="n">
-        <v>51340000000</v>
+        <v>52320000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>30926</v>
+        <v>30987</v>
       </c>
       <c r="B44" t="n">
-        <v>52250000000</v>
+        <v>53020000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>30956</v>
+        <v>31017</v>
       </c>
       <c r="B45" t="n">
-        <v>52320000000</v>
+        <v>54980000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>30987</v>
+        <v>31048</v>
       </c>
       <c r="B46" t="n">
-        <v>53020000000</v>
+        <v>56590000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31017</v>
+        <v>31079</v>
       </c>
       <c r="B47" t="n">
-        <v>54980000000</v>
+        <v>59360000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31048</v>
+        <v>31107</v>
       </c>
       <c r="B48" t="n">
-        <v>56590000000</v>
+        <v>61900000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31079</v>
+        <v>31138</v>
       </c>
       <c r="B49" t="n">
-        <v>59360000000</v>
+        <v>63320000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31107</v>
+        <v>31168</v>
       </c>
       <c r="B50" t="n">
-        <v>61900000000</v>
+        <v>66090000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31138</v>
+        <v>31199</v>
       </c>
       <c r="B51" t="n">
-        <v>63320000000</v>
+        <v>69030000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31168</v>
+        <v>31229</v>
       </c>
       <c r="B52" t="n">
-        <v>66090000000</v>
+        <v>70050000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B53" t="n">
-        <v>69030000000</v>
+        <v>73970000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B54" t="n">
-        <v>70050000000</v>
+        <v>75470000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31291</v>
+        <v>31352</v>
       </c>
       <c r="B55" t="n">
-        <v>73970000000</v>
+        <v>78030000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31321</v>
+        <v>31382</v>
       </c>
       <c r="B56" t="n">
-        <v>75470000000</v>
+        <v>80920000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31352</v>
+        <v>31472</v>
       </c>
       <c r="B57" t="n">
-        <v>78030000000</v>
+        <v>78860000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31382</v>
+        <v>31564</v>
       </c>
       <c r="B58" t="n">
-        <v>80920000000</v>
+        <v>85180000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31472</v>
+        <v>31594</v>
       </c>
       <c r="B59" t="n">
-        <v>78860000000</v>
+        <v>87710000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31564</v>
+        <v>31625</v>
       </c>
       <c r="B60" t="n">
-        <v>85180000000</v>
+        <v>96900000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31594</v>
+        <v>31656</v>
       </c>
       <c r="B61" t="n">
-        <v>87710000000</v>
+        <v>98740000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31625</v>
+        <v>31686</v>
       </c>
       <c r="B62" t="n">
-        <v>96900000000</v>
+        <v>99830000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31656</v>
+        <v>31717</v>
       </c>
       <c r="B63" t="n">
-        <v>98740000000</v>
+        <v>101880000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31686</v>
+        <v>31747</v>
       </c>
       <c r="B64" t="n">
-        <v>99830000000</v>
+        <v>104550000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31717</v>
+        <v>31778</v>
       </c>
       <c r="B65" t="n">
-        <v>101880000000</v>
+        <v>107790000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31747</v>
+        <v>31809</v>
       </c>
       <c r="B66" t="n">
-        <v>104550000000</v>
+        <v>117670000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31778</v>
+        <v>31837</v>
       </c>
       <c r="B67" t="n">
-        <v>107790000000</v>
+        <v>121450000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31809</v>
+        <v>31868</v>
       </c>
       <c r="B68" t="n">
-        <v>117670000000</v>
+        <v>126860000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31837</v>
+        <v>31898</v>
       </c>
       <c r="B69" t="n">
-        <v>121450000000</v>
+        <v>133570000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31868</v>
+        <v>31929</v>
       </c>
       <c r="B70" t="n">
-        <v>126860000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31898</v>
+        <v>31959</v>
       </c>
       <c r="B71" t="n">
-        <v>133570000000</v>
+        <v>162600000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31929</v>
+        <v>31990</v>
       </c>
       <c r="B72" t="n">
-        <v>137500000000</v>
+        <v>139230000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31959</v>
+        <v>32021</v>
       </c>
       <c r="B73" t="n">
-        <v>162600000000</v>
+        <v>143420000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31990</v>
+        <v>32051</v>
       </c>
       <c r="B74" t="n">
-        <v>139230000000</v>
+        <v>148010000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32021</v>
+        <v>32082</v>
       </c>
       <c r="B75" t="n">
-        <v>143420000000</v>
+        <v>147600000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32051</v>
+        <v>32112</v>
       </c>
       <c r="B76" t="n">
-        <v>148010000000</v>
+        <v>155120000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32082</v>
+        <v>32143</v>
       </c>
       <c r="B77" t="n">
-        <v>147600000000</v>
+        <v>163040000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32112</v>
+        <v>32174</v>
       </c>
       <c r="B78" t="n">
-        <v>155120000000</v>
+        <v>212160000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32143</v>
+        <v>32203</v>
       </c>
       <c r="B79" t="n">
-        <v>163040000000</v>
+        <v>298980000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32174</v>
+        <v>32234</v>
       </c>
       <c r="B80" t="n">
-        <v>212160000000</v>
+        <v>316350000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32203</v>
+        <v>32264</v>
       </c>
       <c r="B81" t="n">
-        <v>298980000000</v>
+        <v>314340000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32234</v>
+        <v>32295</v>
       </c>
       <c r="B82" t="n">
-        <v>316350000000</v>
+        <v>395600000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32264</v>
+        <v>32325</v>
       </c>
       <c r="B83" t="n">
-        <v>314340000000</v>
+        <v>463110000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32295</v>
+        <v>32356</v>
       </c>
       <c r="B84" t="n">
-        <v>395600000000</v>
+        <v>460020000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32325</v>
+        <v>32387</v>
       </c>
       <c r="B85" t="n">
-        <v>463110000000</v>
+        <v>510860000000</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32356</v>
+        <v>32417</v>
       </c>
       <c r="B86" t="n">
-        <v>460020000000</v>
+        <v>510940000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32387</v>
+        <v>32448</v>
       </c>
       <c r="B87" t="n">
-        <v>510860000000</v>
+        <v>530500000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32417</v>
+        <v>32478</v>
       </c>
       <c r="B88" t="n">
-        <v>510940000000</v>
+        <v>547820000000.0001</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32448</v>
+        <v>32509</v>
       </c>
       <c r="B89" t="n">
-        <v>530500000000</v>
+        <v>555840000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32478</v>
+        <v>32540</v>
       </c>
       <c r="B90" t="n">
-        <v>547820000000.0001</v>
+        <v>602240000000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32509</v>
+        <v>32568</v>
       </c>
       <c r="B91" t="n">
-        <v>555840000000</v>
+        <v>674900000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32540</v>
+        <v>32599</v>
       </c>
       <c r="B92" t="n">
-        <v>602240000000</v>
+        <v>705730000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32568</v>
+        <v>32629</v>
       </c>
       <c r="B93" t="n">
-        <v>674900000000</v>
+        <v>727370000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32599</v>
+        <v>32660</v>
       </c>
       <c r="B94" t="n">
-        <v>705730000000</v>
+        <v>759570000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32629</v>
+        <v>32690</v>
       </c>
       <c r="B95" t="n">
-        <v>727370000000</v>
+        <v>785070000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32660</v>
+        <v>32721</v>
       </c>
       <c r="B96" t="n">
-        <v>759570000000</v>
+        <v>816340000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32690</v>
+        <v>32752</v>
       </c>
       <c r="B97" t="n">
-        <v>785070000000</v>
+        <v>837430000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32721</v>
+        <v>32782</v>
       </c>
       <c r="B98" t="n">
-        <v>816340000000</v>
+        <v>906160000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32752</v>
+        <v>32813</v>
       </c>
       <c r="B99" t="n">
-        <v>837430000000</v>
+        <v>939290000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32782</v>
+        <v>32843</v>
       </c>
       <c r="B100" t="n">
-        <v>906160000000</v>
+        <v>948040000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32813</v>
+        <v>32874</v>
       </c>
       <c r="B101" t="n">
-        <v>939290000000</v>
+        <v>946560000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32843</v>
+        <v>32905</v>
       </c>
       <c r="B102" t="n">
-        <v>948040000000</v>
+        <v>964770000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32874</v>
+        <v>32933</v>
       </c>
       <c r="B103" t="n">
-        <v>946560000000</v>
+        <v>986240000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32905</v>
+        <v>32964</v>
       </c>
       <c r="B104" t="n">
-        <v>964770000000</v>
+        <v>982530000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32933</v>
+        <v>32994</v>
       </c>
       <c r="B105" t="n">
-        <v>986240000000</v>
+        <v>966580000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32964</v>
+        <v>33025</v>
       </c>
       <c r="B106" t="n">
-        <v>982530000000</v>
+        <v>994070000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32994</v>
+        <v>33055</v>
       </c>
       <c r="B107" t="n">
-        <v>966580000000</v>
+        <v>1048170000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33025</v>
+        <v>33086</v>
       </c>
       <c r="B108" t="n">
-        <v>994070000000</v>
+        <v>1088390000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33055</v>
+        <v>33117</v>
       </c>
       <c r="B109" t="n">
-        <v>1048170000000</v>
+        <v>1109630000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33086</v>
+        <v>33147</v>
       </c>
       <c r="B110" t="n">
-        <v>1088390000000</v>
+        <v>1289630000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33117</v>
+        <v>33178</v>
       </c>
       <c r="B111" t="n">
-        <v>1109630000000</v>
+        <v>1289590000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33147</v>
+        <v>33208</v>
       </c>
       <c r="B112" t="n">
-        <v>1289630000000</v>
+        <v>1268860000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33178</v>
+        <v>33239</v>
       </c>
       <c r="B113" t="n">
-        <v>1289590000000</v>
+        <v>1276910000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33208</v>
+        <v>33270</v>
       </c>
       <c r="B114" t="n">
-        <v>1268860000000</v>
+        <v>1314350000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33239</v>
+        <v>33298</v>
       </c>
       <c r="B115" t="n">
-        <v>1276910000000</v>
+        <v>1386070000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33270</v>
+        <v>33329</v>
       </c>
       <c r="B116" t="n">
-        <v>1314350000000</v>
+        <v>1377310000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33298</v>
+        <v>33359</v>
       </c>
       <c r="B117" t="n">
-        <v>1386070000000</v>
+        <v>1472340000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33329</v>
+        <v>33390</v>
       </c>
       <c r="B118" t="n">
-        <v>1377310000000</v>
+        <v>1632090000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33359</v>
+        <v>33420</v>
       </c>
       <c r="B119" t="n">
-        <v>1472340000000</v>
+        <v>1866380000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33390</v>
+        <v>33451</v>
       </c>
       <c r="B120" t="n">
-        <v>1632090000000</v>
+        <v>1811410000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33420</v>
+        <v>33482</v>
       </c>
       <c r="B121" t="n">
-        <v>1866380000000</v>
+        <v>1813160000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33451</v>
+        <v>33512</v>
       </c>
       <c r="B122" t="n">
-        <v>1811410000000</v>
+        <v>1917710000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33482</v>
+        <v>33543</v>
       </c>
       <c r="B123" t="n">
-        <v>1813160000000</v>
+        <v>1995110000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33512</v>
+        <v>33573</v>
       </c>
       <c r="B124" t="n">
-        <v>1917710000000</v>
+        <v>2151010000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33543</v>
+        <v>33604</v>
       </c>
       <c r="B125" t="n">
-        <v>1995110000000</v>
+        <v>2118590000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33573</v>
+        <v>33635</v>
       </c>
       <c r="B126" t="n">
-        <v>2151010000000</v>
+        <v>2026430000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33604</v>
+        <v>33664</v>
       </c>
       <c r="B127" t="n">
-        <v>2118590000000</v>
+        <v>2038100000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33635</v>
+        <v>33695</v>
       </c>
       <c r="B128" t="n">
-        <v>2026430000000</v>
+        <v>2078100000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33664</v>
+        <v>33725</v>
       </c>
       <c r="B129" t="n">
-        <v>2038100000000</v>
+        <v>2154030000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33695</v>
+        <v>33756</v>
       </c>
       <c r="B130" t="n">
-        <v>2078100000000</v>
+        <v>2238570000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33725</v>
+        <v>33786</v>
       </c>
       <c r="B131" t="n">
-        <v>2154030000000</v>
+        <v>2286870000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33756</v>
+        <v>33817</v>
       </c>
       <c r="B132" t="n">
-        <v>2238570000000</v>
+        <v>2317800000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33786</v>
+        <v>33848</v>
       </c>
       <c r="B133" t="n">
-        <v>2286870000000</v>
+        <v>2390240000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33817</v>
+        <v>33878</v>
       </c>
       <c r="B134" t="n">
-        <v>2317800000000</v>
+        <v>4297230000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33848</v>
+        <v>33909</v>
       </c>
       <c r="B135" t="n">
-        <v>2390240000000</v>
+        <v>4458340000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33878</v>
+        <v>33939</v>
       </c>
       <c r="B136" t="n">
-        <v>4297230000000</v>
+        <v>4393060000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33909</v>
+        <v>33970</v>
       </c>
       <c r="B137" t="n">
-        <v>4458340000000</v>
+        <v>4154130000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33939</v>
+        <v>34001</v>
       </c>
       <c r="B138" t="n">
-        <v>4393060000000</v>
+        <v>4276030000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33970</v>
+        <v>34029</v>
       </c>
       <c r="B139" t="n">
-        <v>4154130000000</v>
+        <v>4229970000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34001</v>
+        <v>34060</v>
       </c>
       <c r="B140" t="n">
-        <v>4276030000000</v>
+        <v>4120690000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34029</v>
+        <v>34090</v>
       </c>
       <c r="B141" t="n">
-        <v>4229970000000</v>
+        <v>4263490000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34060</v>
+        <v>34121</v>
       </c>
       <c r="B142" t="n">
-        <v>4120690000000</v>
+        <v>4378050000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34090</v>
+        <v>34151</v>
       </c>
       <c r="B143" t="n">
-        <v>4263490000000</v>
+        <v>4298740000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34121</v>
+        <v>34182</v>
       </c>
       <c r="B144" t="n">
-        <v>4378050000000</v>
+        <v>4512800000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34151</v>
+        <v>34213</v>
       </c>
       <c r="B145" t="n">
-        <v>4298740000000</v>
+        <v>4706140000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34182</v>
+        <v>34243</v>
       </c>
       <c r="B146" t="n">
-        <v>4512800000000</v>
+        <v>4943670000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34213</v>
+        <v>34274</v>
       </c>
       <c r="B147" t="n">
-        <v>4706140000000</v>
+        <v>5018800000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34243</v>
+        <v>34304</v>
       </c>
       <c r="B148" t="n">
-        <v>4943670000000</v>
+        <v>5308800000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34274</v>
+        <v>34335</v>
       </c>
       <c r="B149" t="n">
-        <v>5018800000000</v>
+        <v>5805200000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34304</v>
+        <v>34366</v>
       </c>
       <c r="B150" t="n">
-        <v>5308800000000</v>
+        <v>6206980000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34335</v>
+        <v>34394</v>
       </c>
       <c r="B151" t="n">
-        <v>5805200000000</v>
+        <v>6679510000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34366</v>
+        <v>34425</v>
       </c>
       <c r="B152" t="n">
-        <v>6206980000000</v>
+        <v>6956560000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34394</v>
+        <v>34455</v>
       </c>
       <c r="B153" t="n">
-        <v>6679510000000</v>
+        <v>6985400000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34425</v>
+        <v>34486</v>
       </c>
       <c r="B154" t="n">
-        <v>6956560000000</v>
+        <v>7236740000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34455</v>
+        <v>34516</v>
       </c>
       <c r="B155" t="n">
-        <v>6985400000000</v>
+        <v>7445730000000</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34486</v>
+        <v>34547</v>
       </c>
       <c r="B156" t="n">
-        <v>7236740000000</v>
+        <v>7697120000000</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34516</v>
+        <v>34578</v>
       </c>
       <c r="B157" t="n">
-        <v>7445730000000</v>
+        <v>8151070000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34547</v>
+        <v>34608</v>
       </c>
       <c r="B158" t="n">
-        <v>7697120000000</v>
+        <v>8431450000000.001</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34578</v>
+        <v>34639</v>
       </c>
       <c r="B159" t="n">
-        <v>8151070000000</v>
+        <v>8707299999999.999</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34608</v>
+        <v>34669</v>
       </c>
       <c r="B160" t="n">
-        <v>8431450000000.001</v>
+        <v>8586660000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34639</v>
+        <v>34700</v>
       </c>
       <c r="B161" t="n">
-        <v>8707299999999.999</v>
+        <v>8695770000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34669</v>
+        <v>34731</v>
       </c>
       <c r="B162" t="n">
-        <v>8586660000000</v>
+        <v>8872560000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34700</v>
+        <v>34759</v>
       </c>
       <c r="B163" t="n">
-        <v>8695770000000</v>
+        <v>8959920000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34731</v>
+        <v>34790</v>
       </c>
       <c r="B164" t="n">
-        <v>8872560000000</v>
+        <v>8992800000000</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34759</v>
+        <v>34820</v>
       </c>
       <c r="B165" t="n">
-        <v>8959920000000</v>
+        <v>8391760000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34790</v>
+        <v>34851</v>
       </c>
       <c r="B166" t="n">
-        <v>8992800000000</v>
+        <v>8629740000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34820</v>
+        <v>34881</v>
       </c>
       <c r="B167" t="n">
-        <v>8391760000000</v>
+        <v>8596629999999.999</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34851</v>
+        <v>34912</v>
       </c>
       <c r="B168" t="n">
-        <v>8629740000000</v>
+        <v>8368100000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34881</v>
+        <v>34943</v>
       </c>
       <c r="B169" t="n">
-        <v>8596629999999.999</v>
+        <v>8119720000000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34912</v>
+        <v>34973</v>
       </c>
       <c r="B170" t="n">
-        <v>8368100000000</v>
+        <v>8511600000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34943</v>
+        <v>35004</v>
       </c>
       <c r="B171" t="n">
-        <v>8119720000000</v>
+        <v>9176130000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34973</v>
+        <v>35034</v>
       </c>
       <c r="B172" t="n">
-        <v>8511600000000</v>
+        <v>9663210000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35004</v>
+        <v>35065</v>
       </c>
       <c r="B173" t="n">
-        <v>9176130000000</v>
+        <v>10092140000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35034</v>
+        <v>35096</v>
       </c>
       <c r="B174" t="n">
-        <v>9663210000000</v>
+        <v>10366110000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35065</v>
+        <v>35125</v>
       </c>
       <c r="B175" t="n">
-        <v>10092140000000</v>
+        <v>10512680000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35096</v>
+        <v>35156</v>
       </c>
       <c r="B176" t="n">
-        <v>10366110000000</v>
+        <v>10490000000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35125</v>
+        <v>35186</v>
       </c>
       <c r="B177" t="n">
-        <v>10512680000000</v>
+        <v>10924100000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35156</v>
+        <v>35217</v>
       </c>
       <c r="B178" t="n">
-        <v>10490000000000</v>
+        <v>11336120000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35186</v>
+        <v>35247</v>
       </c>
       <c r="B179" t="n">
-        <v>10924100000000</v>
+        <v>11719140000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35217</v>
+        <v>35278</v>
       </c>
       <c r="B180" t="n">
-        <v>11336120000000</v>
+        <v>11986070000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35247</v>
+        <v>35309</v>
       </c>
       <c r="B181" t="n">
-        <v>11719140000000</v>
+        <v>12386110000000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35278</v>
+        <v>35339</v>
       </c>
       <c r="B182" t="n">
-        <v>11986070000000</v>
+        <v>13273470000000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35309</v>
+        <v>35370</v>
       </c>
       <c r="B183" t="n">
-        <v>12386110000000</v>
+        <v>13572010000000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35339</v>
+        <v>35400</v>
       </c>
       <c r="B184" t="n">
-        <v>13273470000000</v>
+        <v>14001710000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35370</v>
+        <v>35431</v>
       </c>
       <c r="B185" t="n">
-        <v>13572010000000</v>
+        <v>14327790000000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35400</v>
+        <v>35462</v>
       </c>
       <c r="B186" t="n">
-        <v>14001710000000</v>
+        <v>14657840000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35431</v>
+        <v>35490</v>
       </c>
       <c r="B187" t="n">
-        <v>14327790000000</v>
+        <v>15119370000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35462</v>
+        <v>35521</v>
       </c>
       <c r="B188" t="n">
-        <v>14657840000000</v>
+        <v>15307460000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35490</v>
+        <v>35551</v>
       </c>
       <c r="B189" t="n">
-        <v>15119370000000</v>
+        <v>15441260000000</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35521</v>
+        <v>35582</v>
       </c>
       <c r="B190" t="n">
-        <v>15307460000000</v>
+        <v>15543320000000</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35551</v>
+        <v>35612</v>
       </c>
       <c r="B191" t="n">
-        <v>15441260000000</v>
+        <v>15473590000000</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35582</v>
+        <v>35643</v>
       </c>
       <c r="B192" t="n">
-        <v>15543320000000</v>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
+        <v>15405510000000</v>
+      </c>
+      <c r="C192" t="n">
+        <v>6.553450903550847e-05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1009592534.291616</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35612</v>
+        <v>35674</v>
       </c>
       <c r="B193" t="n">
-        <v>15473590000000</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
+        <v>14875010000000</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.566317626526478e-05</v>
+      </c>
+      <c r="D193" t="n">
+        <v>976740403.5775763</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35643</v>
+        <v>35704</v>
       </c>
       <c r="B194" t="n">
-        <v>15405510000000</v>
+        <v>14650810000000</v>
       </c>
       <c r="C194" t="n">
-        <v>6.553450903550847e-05</v>
+        <v>6.574923547401215e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>1009592534.291616</v>
+        <v>963279556.575012</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35674</v>
+        <v>35735</v>
       </c>
       <c r="B195" t="n">
-        <v>14875010000000</v>
+        <v>14549800000000</v>
       </c>
       <c r="C195" t="n">
-        <v>6.566317626526478e-05</v>
+        <v>6.581392806383931e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>976740403.5775763</v>
+        <v>957579490.5432491</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35704</v>
+        <v>35765</v>
       </c>
       <c r="B196" t="n">
-        <v>14650810000000</v>
+        <v>14529860000000</v>
       </c>
       <c r="C196" t="n">
-        <v>6.574923547401215e-05</v>
+        <v>6.592203241347731e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>963279556.575012</v>
+        <v>957837901.8832874</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35735</v>
+        <v>35796</v>
       </c>
       <c r="B197" t="n">
-        <v>14549800000000</v>
+        <v>14771350000000</v>
       </c>
       <c r="C197" t="n">
-        <v>6.581392806383931e-05</v>
+        <v>6.600877192982268e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>957579490.5432491</v>
+        <v>975038673.2455863</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35765</v>
+        <v>35827</v>
       </c>
       <c r="B198" t="n">
-        <v>14529860000000</v>
+        <v>14513120000000</v>
       </c>
       <c r="C198" t="n">
-        <v>6.592203241347731e-05</v>
+        <v>6.60957400087935e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>957837901.8832874</v>
+        <v>959255406.2364211</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35796</v>
+        <v>35855</v>
       </c>
       <c r="B199" t="n">
-        <v>14771350000000</v>
+        <v>13900660000000</v>
       </c>
       <c r="C199" t="n">
-        <v>6.600877192982268e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>975038673.2455863</v>
+        <v>920593764.5762368</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35827</v>
+        <v>35886</v>
       </c>
       <c r="B200" t="n">
-        <v>14513120000000</v>
+        <v>14086370000000</v>
       </c>
       <c r="C200" t="n">
-        <v>6.60957400087935e-05</v>
+        <v>6.57621638155112e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>959255406.2364211</v>
+        <v>926350171.5059025</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35855</v>
+        <v>35916</v>
       </c>
       <c r="B201" t="n">
-        <v>13900660000000</v>
+        <v>14507300000000</v>
       </c>
       <c r="C201" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>920593764.5762368</v>
+        <v>962675771.604968</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35886</v>
+        <v>35947</v>
       </c>
       <c r="B202" t="n">
-        <v>14086370000000</v>
+        <v>14959510000000</v>
       </c>
       <c r="C202" t="n">
-        <v>6.57621638155112e-05</v>
+        <v>6.641820520798443e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>926350171.5059025</v>
+        <v>993583804.9908953</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35916</v>
+        <v>35977</v>
       </c>
       <c r="B203" t="n">
-        <v>14507300000000</v>
+        <v>15372520000000</v>
       </c>
       <c r="C203" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>962675771.604968</v>
+        <v>1023474567.57336</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35947</v>
+        <v>36008</v>
       </c>
       <c r="B204" t="n">
-        <v>14959510000000</v>
+        <v>15386490000000</v>
       </c>
       <c r="C204" t="n">
-        <v>6.641820520798443e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>993583804.9908953</v>
+        <v>1025084880.477995</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35977</v>
+        <v>36039</v>
       </c>
       <c r="B205" t="n">
-        <v>15372520000000</v>
+        <v>15545300000000</v>
       </c>
       <c r="C205" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>1023474567.57336</v>
+        <v>1031555401.2346</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36008</v>
+        <v>36069</v>
       </c>
       <c r="B206" t="n">
-        <v>15386490000000</v>
+        <v>16461650000000</v>
       </c>
       <c r="C206" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.682384701114667e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>1025084880.477995</v>
+        <v>1100030781.151042</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36039</v>
+        <v>36100</v>
       </c>
       <c r="B207" t="n">
-        <v>15545300000000</v>
+        <v>16905730000000</v>
       </c>
       <c r="C207" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1031555401.2346</v>
+        <v>1129299762.539145</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36069</v>
+        <v>36130</v>
       </c>
       <c r="B208" t="n">
-        <v>16461650000000</v>
+        <v>16554250000000</v>
       </c>
       <c r="C208" t="n">
-        <v>6.682384701114667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>1100030781.151042</v>
+        <v>1105085218.452186</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36100</v>
+        <v>36161</v>
       </c>
       <c r="B209" t="n">
-        <v>16905730000000</v>
+        <v>16542340000000</v>
       </c>
       <c r="C209" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>1129299762.539145</v>
+        <v>1101724602.27923</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36130</v>
+        <v>36192</v>
       </c>
       <c r="B210" t="n">
-        <v>16554250000000</v>
+        <v>16544890000000</v>
       </c>
       <c r="C210" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.675582228313177e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1105085218.452186</v>
+        <v>1104467736.533964</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36161</v>
+        <v>36220</v>
       </c>
       <c r="B211" t="n">
-        <v>16542340000000</v>
+        <v>16790140000000</v>
       </c>
       <c r="C211" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>1101724602.27923</v>
+        <v>1121578371.061114</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36192</v>
+        <v>36251</v>
       </c>
       <c r="B212" t="n">
-        <v>16544890000000</v>
+        <v>16821930000000</v>
       </c>
       <c r="C212" t="n">
-        <v>6.675582228313177e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>1104467736.533964</v>
+        <v>1123701937.417084</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36220</v>
+        <v>36281</v>
       </c>
       <c r="B213" t="n">
-        <v>16790140000000</v>
+        <v>17085340000000</v>
       </c>
       <c r="C213" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>1121578371.061114</v>
+        <v>1141297678.651</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36251</v>
+        <v>36312</v>
       </c>
       <c r="B214" t="n">
-        <v>16821930000000</v>
+        <v>17367330000000</v>
       </c>
       <c r="C214" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>1123701937.417084</v>
+        <v>1160134560.586202</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36281</v>
+        <v>36342</v>
       </c>
       <c r="B215" t="n">
-        <v>17085340000000</v>
+        <v>17760410000000</v>
       </c>
       <c r="C215" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>1141297678.651</v>
+        <v>1186392234.798371</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36312</v>
+        <v>36373</v>
       </c>
       <c r="B216" t="n">
-        <v>17367330000000</v>
+        <v>18218130000000</v>
       </c>
       <c r="C216" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>1160134560.586202</v>
+        <v>1216967849.534287</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36342</v>
+        <v>36404</v>
       </c>
       <c r="B217" t="n">
-        <v>17760410000000</v>
+        <v>18925270000000</v>
       </c>
       <c r="C217" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>1186392234.798371</v>
+        <v>1264204675.987917</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36373</v>
+        <v>36434</v>
       </c>
       <c r="B218" t="n">
-        <v>18218130000000</v>
+        <v>19439920000000</v>
       </c>
       <c r="C218" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>1216967849.534287</v>
+        <v>1299448349.988501</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36404</v>
+        <v>36465</v>
       </c>
       <c r="B219" t="n">
-        <v>18925270000000</v>
+        <v>19691480000000</v>
       </c>
       <c r="C219" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>1264204675.987917</v>
+        <v>1316263708.638285</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36434</v>
+        <v>36495</v>
       </c>
       <c r="B220" t="n">
-        <v>19439920000000</v>
+        <v>20239650000000</v>
       </c>
       <c r="C220" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D220" t="n">
-        <v>1299448349.988501</v>
+        <v>1352905762.824372</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36465</v>
+        <v>36526</v>
       </c>
       <c r="B221" t="n">
-        <v>19691480000000</v>
+        <v>20368740000000</v>
       </c>
       <c r="C221" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D221" t="n">
-        <v>1316263708.638285</v>
+        <v>1361534696.86834</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36495</v>
+        <v>36557</v>
       </c>
       <c r="B222" t="n">
-        <v>20239650000000</v>
+        <v>20557380000000</v>
       </c>
       <c r="C222" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D222" t="n">
-        <v>1352905762.824372</v>
+        <v>1374144210.525898</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36526</v>
+        <v>36586</v>
       </c>
       <c r="B223" t="n">
-        <v>20368740000000</v>
+        <v>20999490000000</v>
       </c>
       <c r="C223" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D223" t="n">
-        <v>1361534696.86834</v>
+        <v>1400896828.457574</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36557</v>
+        <v>36617</v>
       </c>
       <c r="B224" t="n">
-        <v>20557380000000</v>
+        <v>20770370000000</v>
       </c>
       <c r="C224" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>1374144210.525898</v>
+        <v>1385612005.762537</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36586</v>
+        <v>36647</v>
       </c>
       <c r="B225" t="n">
-        <v>20999490000000</v>
+        <v>20225160000000</v>
       </c>
       <c r="C225" t="n">
         <v>6.671099290780748e-05</v>
       </c>
       <c r="D225" t="n">
-        <v>1400896828.457574</v>
+        <v>1349240505.319272</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36617</v>
+        <v>36678</v>
       </c>
       <c r="B226" t="n">
-        <v>20770370000000</v>
+        <v>20553180000000</v>
       </c>
       <c r="C226" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>1385612005.762537</v>
+        <v>1365674874.172475</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36647</v>
+        <v>36708</v>
       </c>
       <c r="B227" t="n">
-        <v>20225160000000</v>
+        <v>20714510000000</v>
       </c>
       <c r="C227" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>1349240505.319272</v>
+        <v>1376394593.819276</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36678</v>
+        <v>36739</v>
       </c>
       <c r="B228" t="n">
-        <v>20553180000000</v>
+        <v>20726210000000</v>
       </c>
       <c r="C228" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D228" t="n">
-        <v>1365674874.172475</v>
+        <v>1377172011.037819</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36708</v>
+        <v>36770</v>
       </c>
       <c r="B229" t="n">
-        <v>20714510000000</v>
+        <v>20235110000000</v>
       </c>
       <c r="C229" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>1376394593.819276</v>
+        <v>1344540421.633839</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36739</v>
+        <v>36800</v>
       </c>
       <c r="B230" t="n">
-        <v>20726210000000</v>
+        <v>19033140000000</v>
       </c>
       <c r="C230" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>1377172011.037819</v>
+        <v>1264674423.841328</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36770</v>
+        <v>36831</v>
       </c>
       <c r="B231" t="n">
-        <v>20235110000000</v>
+        <v>19160840000000</v>
       </c>
       <c r="C231" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>1344540421.633839</v>
+        <v>1273159567.329188</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36800</v>
+        <v>36861</v>
       </c>
       <c r="B232" t="n">
-        <v>19033140000000</v>
+        <v>19492530000000</v>
       </c>
       <c r="C232" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>1264674423.841328</v>
+        <v>1295199013.245308</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36831</v>
+        <v>36892</v>
       </c>
       <c r="B233" t="n">
-        <v>19160840000000</v>
+        <v>19661540000000</v>
       </c>
       <c r="C233" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D233" t="n">
-        <v>1273159567.329188</v>
+        <v>1306429037.527871</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36861</v>
+        <v>36923</v>
       </c>
       <c r="B234" t="n">
-        <v>19492530000000</v>
+        <v>19193810000000</v>
       </c>
       <c r="C234" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D234" t="n">
-        <v>1295199013.245308</v>
+        <v>1277041735.18975</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36892</v>
+        <v>36951</v>
       </c>
       <c r="B235" t="n">
-        <v>19661540000000</v>
+        <v>18451720000000</v>
       </c>
       <c r="C235" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>1306429037.527871</v>
+        <v>1227667488.9475</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36923</v>
+        <v>36982</v>
       </c>
       <c r="B236" t="n">
-        <v>19193810000000</v>
+        <v>17581800000000</v>
       </c>
       <c r="C236" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D236" t="n">
-        <v>1277041735.18975</v>
+        <v>1169788196.286154</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36951</v>
+        <v>37012</v>
       </c>
       <c r="B237" t="n">
-        <v>18451720000000</v>
+        <v>17167240000000</v>
       </c>
       <c r="C237" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>1227667488.9475</v>
+        <v>1142205844.385189</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36982</v>
+        <v>37043</v>
       </c>
       <c r="B238" t="n">
-        <v>17581800000000</v>
+        <v>17217820000000</v>
       </c>
       <c r="C238" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.751906684610056e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>1169788196.286154</v>
+        <v>1162531139.524127</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37012</v>
+        <v>37073</v>
       </c>
       <c r="B239" t="n">
-        <v>17167240000000</v>
+        <v>17088960000000</v>
       </c>
       <c r="C239" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D239" t="n">
-        <v>1142205844.385189</v>
+        <v>1139264000</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37043</v>
+        <v>37104</v>
       </c>
       <c r="B240" t="n">
-        <v>17217820000000</v>
+        <v>16213400000000</v>
       </c>
       <c r="C240" t="n">
-        <v>6.751906684610056e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D240" t="n">
-        <v>1162531139.524127</v>
+        <v>1077314216.335769</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37073</v>
+        <v>37135</v>
       </c>
       <c r="B241" t="n">
-        <v>17088960000000</v>
+        <v>16008060000000</v>
       </c>
       <c r="C241" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D241" t="n">
-        <v>1139264000</v>
+        <v>1063670211.920755</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37104</v>
+        <v>37165</v>
       </c>
       <c r="B242" t="n">
-        <v>16213400000000</v>
+        <v>16367250000000</v>
       </c>
       <c r="C242" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>1077314216.335769</v>
+        <v>1086817174.057048</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37135</v>
+        <v>37196</v>
       </c>
       <c r="B243" t="n">
-        <v>16008060000000</v>
+        <v>16681350000000</v>
       </c>
       <c r="C243" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D243" t="n">
-        <v>1063670211.920755</v>
+        <v>1106941435.185219</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37165</v>
+        <v>37226</v>
       </c>
       <c r="B244" t="n">
-        <v>16367250000000</v>
+        <v>17460680000000</v>
       </c>
       <c r="C244" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D244" t="n">
-        <v>1086817174.057048</v>
+        <v>1157890434.016234</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37196</v>
+        <v>37257</v>
       </c>
       <c r="B245" t="n">
-        <v>16681350000000</v>
+        <v>17350220000000</v>
       </c>
       <c r="C245" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>1106941435.185219</v>
+        <v>1150565371.227074</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37226</v>
+        <v>37288</v>
       </c>
       <c r="B246" t="n">
-        <v>17460680000000</v>
+        <v>17183870000000</v>
       </c>
       <c r="C246" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D246" t="n">
-        <v>1157890434.016234</v>
+        <v>1139157553.133173</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37257</v>
+        <v>37316</v>
       </c>
       <c r="B247" t="n">
-        <v>17350220000000</v>
+        <v>16800510000000</v>
       </c>
       <c r="C247" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D247" t="n">
-        <v>1150565371.227074</v>
+        <v>1114111810.971514</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37288</v>
+        <v>37347</v>
       </c>
       <c r="B248" t="n">
-        <v>17183870000000</v>
+        <v>16460310000000</v>
       </c>
       <c r="C248" t="n">
         <v>6.629225856184744e-05</v>
       </c>
       <c r="D248" t="n">
-        <v>1139157553.133173</v>
+        <v>1091191126.528163</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37316</v>
+        <v>37377</v>
       </c>
       <c r="B249" t="n">
-        <v>16800510000000</v>
+        <v>15836230000000</v>
       </c>
       <c r="C249" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>1114111810.971514</v>
+        <v>1050166386.869292</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37347</v>
+        <v>37408</v>
       </c>
       <c r="B250" t="n">
-        <v>16460310000000</v>
+        <v>16331330000000</v>
       </c>
       <c r="C250" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D250" t="n">
-        <v>1091191126.528163</v>
+        <v>1082998530.513265</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37377</v>
+        <v>37438</v>
       </c>
       <c r="B251" t="n">
-        <v>15836230000000</v>
+        <v>16560930000000</v>
       </c>
       <c r="C251" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.633608815429102e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>1050166386.869292</v>
+        <v>1098587312.397043</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37408</v>
+        <v>37469</v>
       </c>
       <c r="B252" t="n">
-        <v>16331330000000</v>
+        <v>17116440000000</v>
       </c>
       <c r="C252" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>1082998530.513265</v>
+        <v>1135813148.148183</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37438</v>
+        <v>37500</v>
       </c>
       <c r="B253" t="n">
-        <v>16560930000000</v>
+        <v>17600960000000</v>
       </c>
       <c r="C253" t="n">
-        <v>6.633608815429102e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D253" t="n">
-        <v>1098587312.397043</v>
+        <v>1167964938.271641</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37469</v>
+        <v>37530</v>
       </c>
       <c r="B254" t="n">
-        <v>17116440000000</v>
+        <v>18140210000000</v>
       </c>
       <c r="C254" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D254" t="n">
-        <v>1135813148.148183</v>
+        <v>1202952899.316959</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37500</v>
+        <v>37561</v>
       </c>
       <c r="B255" t="n">
-        <v>17600960000000</v>
+        <v>19021940000000</v>
       </c>
       <c r="C255" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D255" t="n">
-        <v>1167964938.271641</v>
+        <v>1271508758.604987</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37530</v>
+        <v>37591</v>
       </c>
       <c r="B256" t="n">
-        <v>18140210000000</v>
+        <v>20582830000000</v>
       </c>
       <c r="C256" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>1202952899.316959</v>
+        <v>1373101026.152607</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37561</v>
+        <v>37622</v>
       </c>
       <c r="B257" t="n">
-        <v>19021940000000</v>
+        <v>20934590000000</v>
       </c>
       <c r="C257" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D257" t="n">
-        <v>1271508758.604987</v>
+        <v>1399358558.738193</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37591</v>
+        <v>37653</v>
       </c>
       <c r="B258" t="n">
-        <v>20582830000000</v>
+        <v>21549030000000</v>
       </c>
       <c r="C258" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>1373101026.152607</v>
+        <v>1440430386.408623</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37622</v>
+        <v>37681</v>
       </c>
       <c r="B259" t="n">
-        <v>20934590000000</v>
+        <v>21575930000000</v>
       </c>
       <c r="C259" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>1399358558.738193</v>
+        <v>1442228498.778153</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37653</v>
+        <v>37712</v>
       </c>
       <c r="B260" t="n">
-        <v>21549030000000</v>
+        <v>22200920000000</v>
       </c>
       <c r="C260" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D260" t="n">
-        <v>1440430386.408623</v>
+        <v>1477606836.926636</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37681</v>
+        <v>37742</v>
       </c>
       <c r="B261" t="n">
-        <v>21575930000000</v>
+        <v>22763720000000</v>
       </c>
       <c r="C261" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>1442228498.778153</v>
+        <v>1515064614.704417</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37712</v>
+        <v>37773</v>
       </c>
       <c r="B262" t="n">
-        <v>22200920000000</v>
+        <v>23226450000000</v>
       </c>
       <c r="C262" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.718000223189676e-05</v>
       </c>
       <c r="D262" t="n">
-        <v>1477606836.926636</v>
+        <v>1560352962.839038</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37742</v>
+        <v>37803</v>
       </c>
       <c r="B263" t="n">
-        <v>22763720000000</v>
+        <v>24061610000000</v>
       </c>
       <c r="C263" t="n">
         <v>6.655610834716019e-05</v>
       </c>
       <c r="D263" t="n">
-        <v>1515064614.704417</v>
+        <v>1601447122.167113</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37773</v>
+        <v>37834</v>
       </c>
       <c r="B264" t="n">
-        <v>23226450000000</v>
+        <v>24346290000000</v>
       </c>
       <c r="C264" t="n">
-        <v>6.718000223189676e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D264" t="n">
-        <v>1560352962.839038</v>
+        <v>1614503919.365403</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37803</v>
+        <v>37865</v>
       </c>
       <c r="B265" t="n">
-        <v>24061610000000</v>
+        <v>24800170000000</v>
       </c>
       <c r="C265" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.691119261977329e-05</v>
       </c>
       <c r="D265" t="n">
-        <v>1601447122.167113</v>
+        <v>1659408951.873123</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37834</v>
+        <v>37895</v>
       </c>
       <c r="B266" t="n">
-        <v>24346290000000</v>
+        <v>25511190000000</v>
       </c>
       <c r="C266" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D266" t="n">
-        <v>1614503919.365403</v>
+        <v>1690077735.226378</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37865</v>
+        <v>37926</v>
       </c>
       <c r="B267" t="n">
-        <v>24800170000000</v>
+        <v>25840040000000</v>
       </c>
       <c r="C267" t="n">
-        <v>6.691119261977329e-05</v>
+        <v>6.618293755494739e-05</v>
       </c>
       <c r="D267" t="n">
-        <v>1659408951.873123</v>
+        <v>1710169753.737343</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37895</v>
+        <v>37956</v>
       </c>
       <c r="B268" t="n">
-        <v>25511190000000</v>
+        <v>26234380000000</v>
       </c>
       <c r="C268" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D268" t="n">
-        <v>1690077735.226378</v>
+        <v>1739711033.267136</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37926</v>
+        <v>37987</v>
       </c>
       <c r="B269" t="n">
-        <v>25840040000000</v>
+        <v>26321180000000</v>
       </c>
       <c r="C269" t="n">
-        <v>6.618293755494739e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D269" t="n">
-        <v>1710169753.737343</v>
+        <v>1743162855.88517</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37956</v>
+        <v>38018</v>
       </c>
       <c r="B270" t="n">
-        <v>26234380000000</v>
+        <v>26458570000000</v>
       </c>
       <c r="C270" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D270" t="n">
-        <v>1739711033.267136</v>
+        <v>1752840226.697719</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37987</v>
+        <v>38047</v>
       </c>
       <c r="B271" t="n">
-        <v>26321180000000</v>
+        <v>26313170000000</v>
       </c>
       <c r="C271" t="n">
         <v>6.622662266225035e-05</v>
       </c>
       <c r="D271" t="n">
-        <v>1743162855.88517</v>
+        <v>1742632380.637646</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38018</v>
+        <v>38078</v>
       </c>
       <c r="B272" t="n">
-        <v>26458570000000</v>
+        <v>26249910000000</v>
       </c>
       <c r="C272" t="n">
         <v>6.624848684935425e-05</v>
       </c>
       <c r="D272" t="n">
-        <v>1752840226.697719</v>
+        <v>1739016817.431733</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38047</v>
+        <v>38108</v>
       </c>
       <c r="B273" t="n">
-        <v>26313170000000</v>
+        <v>26467610000000</v>
       </c>
       <c r="C273" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D273" t="n">
-        <v>1742632380.637646</v>
+        <v>1754018188.022635</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38078</v>
+        <v>38139</v>
       </c>
       <c r="B274" t="n">
-        <v>26249910000000</v>
+        <v>26506600000000</v>
       </c>
       <c r="C274" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D274" t="n">
-        <v>1739016817.431733</v>
+        <v>1757182380.795465</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="B275" t="n">
-        <v>26467610000000</v>
+        <v>26607700000000</v>
       </c>
       <c r="C275" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D275" t="n">
-        <v>1754018188.022635</v>
+        <v>1763884528.136068</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38139</v>
+        <v>38200</v>
       </c>
       <c r="B276" t="n">
-        <v>26506600000000</v>
+        <v>26722350000000</v>
       </c>
       <c r="C276" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D276" t="n">
-        <v>1757182380.795465</v>
+        <v>1770899900.924438</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38169</v>
+        <v>38231</v>
       </c>
       <c r="B277" t="n">
-        <v>26607700000000</v>
+        <v>26612570000000</v>
       </c>
       <c r="C277" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D277" t="n">
-        <v>1763884528.136068</v>
+        <v>1764790387.750501</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38200</v>
+        <v>38261</v>
       </c>
       <c r="B278" t="n">
-        <v>26722350000000</v>
+        <v>25233460000000</v>
       </c>
       <c r="C278" t="n">
         <v>6.627036547775318e-05</v>
       </c>
       <c r="D278" t="n">
-        <v>1770899900.924438</v>
+        <v>1672230616.468266</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38231</v>
+        <v>38292</v>
       </c>
       <c r="B279" t="n">
-        <v>26612570000000</v>
+        <v>24956870000000</v>
       </c>
       <c r="C279" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D279" t="n">
-        <v>1764790387.750501</v>
+        <v>1653900896.080774</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38261</v>
+        <v>38322</v>
       </c>
       <c r="B280" t="n">
-        <v>25233460000000</v>
+        <v>25977980000000</v>
       </c>
       <c r="C280" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D280" t="n">
-        <v>1672230616.468266</v>
+        <v>1722708081.075024</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38292</v>
+        <v>38353</v>
       </c>
       <c r="B281" t="n">
-        <v>24956870000000</v>
+        <v>26065820000000</v>
       </c>
       <c r="C281" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D281" t="n">
-        <v>1653900896.080774</v>
+        <v>1728533117.426643</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38322</v>
+        <v>38384</v>
       </c>
       <c r="B282" t="n">
-        <v>25977980000000</v>
+        <v>23085570000000</v>
       </c>
       <c r="C282" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D282" t="n">
-        <v>1722708081.075024</v>
+        <v>1530394575.487628</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38353</v>
+        <v>38412</v>
       </c>
       <c r="B283" t="n">
-        <v>26065820000000</v>
+        <v>17969100000000</v>
       </c>
       <c r="C283" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D283" t="n">
-        <v>1728533117.426643</v>
+        <v>1191605882.35287</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38384</v>
+        <v>38443</v>
       </c>
       <c r="B284" t="n">
-        <v>23085570000000</v>
+        <v>18948790000000</v>
       </c>
       <c r="C284" t="n">
         <v>6.629225856184744e-05</v>
       </c>
       <c r="D284" t="n">
-        <v>1530394575.487628</v>
+        <v>1256158086.114149</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38412</v>
+        <v>38473</v>
       </c>
       <c r="B285" t="n">
-        <v>17969100000000</v>
+        <v>20547460000000</v>
       </c>
       <c r="C285" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D285" t="n">
-        <v>1191605882.35287</v>
+        <v>1366199571.460541</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38443</v>
+        <v>38504</v>
       </c>
       <c r="B286" t="n">
-        <v>18948790000000</v>
+        <v>21781700000000</v>
       </c>
       <c r="C286" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D286" t="n">
-        <v>1256158086.114149</v>
+        <v>1451149114.652369</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38473</v>
+        <v>38534</v>
       </c>
       <c r="B287" t="n">
-        <v>20547460000000</v>
+        <v>22896430000000</v>
       </c>
       <c r="C287" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D287" t="n">
-        <v>1366199571.460541</v>
+        <v>1524402882.105452</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38504</v>
+        <v>38565</v>
       </c>
       <c r="B288" t="n">
-        <v>21781700000000</v>
+        <v>23253720000000</v>
       </c>
       <c r="C288" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D288" t="n">
-        <v>1451149114.652369</v>
+        <v>1552827447.587189</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38534</v>
+        <v>38596</v>
       </c>
       <c r="B289" t="n">
-        <v>22896430000000</v>
+        <v>23524610000000</v>
       </c>
       <c r="C289" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D289" t="n">
-        <v>1524402882.105452</v>
+        <v>1570394235.972785</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38565</v>
+        <v>38626</v>
       </c>
       <c r="B290" t="n">
-        <v>23253720000000</v>
+        <v>23811020000000</v>
       </c>
       <c r="C290" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D290" t="n">
-        <v>1552827447.587189</v>
+        <v>1589513643.823753</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38596</v>
+        <v>38657</v>
       </c>
       <c r="B291" t="n">
-        <v>23524610000000</v>
+        <v>24124680000000</v>
       </c>
       <c r="C291" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D291" t="n">
-        <v>1570394235.972785</v>
+        <v>1611524340.879268</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38626</v>
+        <v>38687</v>
       </c>
       <c r="B292" t="n">
-        <v>23811020000000</v>
+        <v>24464500000000</v>
       </c>
       <c r="C292" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D292" t="n">
-        <v>1589513643.823753</v>
+        <v>1628802145.542726</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38657</v>
+        <v>38718</v>
       </c>
       <c r="B293" t="n">
-        <v>24124680000000</v>
+        <v>24893160000000</v>
       </c>
       <c r="C293" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D293" t="n">
-        <v>1611524340.879268</v>
+        <v>1662305304.492335</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38687</v>
+        <v>38749</v>
       </c>
       <c r="B294" t="n">
-        <v>24464500000000</v>
+        <v>25225730000000</v>
       </c>
       <c r="C294" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D294" t="n">
-        <v>1628802145.542726</v>
+        <v>1679483461.62323</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38718</v>
+        <v>38777</v>
       </c>
       <c r="B295" t="n">
-        <v>24893160000000</v>
+        <v>25401630000000</v>
       </c>
       <c r="C295" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D295" t="n">
-        <v>1662305304.492335</v>
+        <v>1694567958.77675</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38749</v>
+        <v>38808</v>
       </c>
       <c r="B296" t="n">
-        <v>25225730000000</v>
+        <v>25603820000000</v>
       </c>
       <c r="C296" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D296" t="n">
-        <v>1679483461.62323</v>
+        <v>1704656009.732051</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38777</v>
+        <v>38838</v>
       </c>
       <c r="B297" t="n">
-        <v>25401630000000</v>
+        <v>25847660000000</v>
       </c>
       <c r="C297" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D297" t="n">
-        <v>1694567958.77675</v>
+        <v>1725470317.143805</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38808</v>
+        <v>38869</v>
       </c>
       <c r="B298" t="n">
-        <v>25603820000000</v>
+        <v>26223500000000</v>
       </c>
       <c r="C298" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D298" t="n">
-        <v>1704656009.732051</v>
+        <v>1745913182.923815</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38838</v>
+        <v>38899</v>
       </c>
       <c r="B299" t="n">
-        <v>25847660000000</v>
+        <v>23982370000000</v>
       </c>
       <c r="C299" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D299" t="n">
-        <v>1725470317.143805</v>
+        <v>1599356014.179223</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38869</v>
+        <v>38930</v>
       </c>
       <c r="B300" t="n">
-        <v>26223500000000</v>
+        <v>23284920000000</v>
       </c>
       <c r="C300" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D300" t="n">
-        <v>1745913182.923815</v>
+        <v>1550267843.397197</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38899</v>
+        <v>38961</v>
       </c>
       <c r="B301" t="n">
-        <v>23982370000000</v>
+        <v>23987690000000</v>
       </c>
       <c r="C301" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D301" t="n">
-        <v>1599356014.179223</v>
+        <v>1591775725.308691</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38930</v>
+        <v>38991</v>
       </c>
       <c r="B302" t="n">
-        <v>23284920000000</v>
+        <v>24614720000000</v>
       </c>
       <c r="C302" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D302" t="n">
-        <v>1550267843.397197</v>
+        <v>1633384197.530915</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38961</v>
+        <v>39022</v>
       </c>
       <c r="B303" t="n">
-        <v>23987690000000</v>
+        <v>24175580000000</v>
       </c>
       <c r="C303" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D303" t="n">
-        <v>1591775725.308691</v>
+        <v>1609566374.695572</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38991</v>
+        <v>39052</v>
       </c>
       <c r="B304" t="n">
-        <v>24614720000000</v>
+        <v>23477280000000</v>
       </c>
       <c r="C304" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D304" t="n">
-        <v>1633384197.530915</v>
+        <v>1557905925.925974</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39022</v>
+        <v>39083</v>
       </c>
       <c r="B305" t="n">
-        <v>24175580000000</v>
+        <v>23219250000000</v>
       </c>
       <c r="C305" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D305" t="n">
-        <v>1609566374.695572</v>
+        <v>1541293251.736291</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39052</v>
+        <v>39114</v>
       </c>
       <c r="B306" t="n">
-        <v>23477280000000</v>
+        <v>23462820000000</v>
       </c>
       <c r="C306" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D306" t="n">
-        <v>1557905925.925974</v>
+        <v>1557976796.823485</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39083</v>
+        <v>39142</v>
       </c>
       <c r="B307" t="n">
-        <v>23219250000000</v>
+        <v>23705520000000</v>
       </c>
       <c r="C307" t="n">
         <v>6.637997574152013e-05</v>
       </c>
       <c r="D307" t="n">
-        <v>1541293251.736291</v>
+        <v>1573571842.54012</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39114</v>
+        <v>39173</v>
       </c>
       <c r="B308" t="n">
-        <v>23462820000000</v>
+        <v>24071860000000</v>
       </c>
       <c r="C308" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D308" t="n">
-        <v>1557976796.823485</v>
+        <v>1597889482.853269</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39142</v>
+        <v>39203</v>
       </c>
       <c r="B309" t="n">
-        <v>23705520000000</v>
+        <v>24464060000000</v>
       </c>
       <c r="C309" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D309" t="n">
-        <v>1573571842.54012</v>
+        <v>1624461076.549943</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39173</v>
+        <v>39234</v>
       </c>
       <c r="B310" t="n">
-        <v>24071860000000</v>
+        <v>24575480000000</v>
       </c>
       <c r="C310" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D310" t="n">
-        <v>1597889482.853269</v>
+        <v>1629702463.097502</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39203</v>
+        <v>39264</v>
       </c>
       <c r="B311" t="n">
-        <v>24464060000000</v>
+        <v>24822990000000</v>
       </c>
       <c r="C311" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D311" t="n">
-        <v>1624461076.549943</v>
+        <v>1657068083.832637</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39234</v>
+        <v>39295</v>
       </c>
       <c r="B312" t="n">
-        <v>24575480000000</v>
+        <v>24961820000000</v>
       </c>
       <c r="C312" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D312" t="n">
-        <v>1629702463.097502</v>
+        <v>1654228934.389889</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39264</v>
+        <v>39326</v>
       </c>
       <c r="B313" t="n">
-        <v>24822990000000</v>
+        <v>25030240000000</v>
       </c>
       <c r="C313" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D313" t="n">
-        <v>1657068083.832637</v>
+        <v>1660957283.950669</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39295</v>
+        <v>39356</v>
       </c>
       <c r="B314" t="n">
-        <v>24961820000000</v>
+        <v>24923710000000</v>
       </c>
       <c r="C314" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D314" t="n">
-        <v>1654228934.389889</v>
+        <v>1653888163.580298</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39326</v>
+        <v>39387</v>
       </c>
       <c r="B315" t="n">
-        <v>25030240000000</v>
+        <v>24524980000000</v>
       </c>
       <c r="C315" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D315" t="n">
-        <v>1660957283.950669</v>
+        <v>1626353597.70865</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39356</v>
+        <v>39417</v>
       </c>
       <c r="B316" t="n">
-        <v>24923710000000</v>
+        <v>24830670000000</v>
       </c>
       <c r="C316" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D316" t="n">
-        <v>1653888163.580298</v>
+        <v>1647714212.963014</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39387</v>
+        <v>39448</v>
       </c>
       <c r="B317" t="n">
-        <v>24524980000000</v>
+        <v>24957840000000</v>
       </c>
       <c r="C317" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D317" t="n">
-        <v>1626353597.70865</v>
+        <v>1656152962.963014</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39417</v>
+        <v>39479</v>
       </c>
       <c r="B318" t="n">
-        <v>24830670000000</v>
+        <v>25479600000000</v>
       </c>
       <c r="C318" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D318" t="n">
-        <v>1647714212.963014</v>
+        <v>1690775925.925978</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39448</v>
+        <v>39508</v>
       </c>
       <c r="B319" t="n">
-        <v>24957840000000</v>
+        <v>25878110000000</v>
       </c>
       <c r="C319" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D319" t="n">
-        <v>1656152962.963014</v>
+        <v>1717220262.345732</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39479</v>
+        <v>39539</v>
       </c>
       <c r="B320" t="n">
-        <v>25479600000000</v>
+        <v>26908910000000</v>
       </c>
       <c r="C320" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D320" t="n">
-        <v>1690775925.925978</v>
+        <v>1785622114.197586</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39508</v>
+        <v>39569</v>
       </c>
       <c r="B321" t="n">
-        <v>25878110000000</v>
+        <v>27793650000000</v>
       </c>
       <c r="C321" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.702293475840972e-05</v>
       </c>
       <c r="D321" t="n">
-        <v>1717220262.345732</v>
+        <v>1862811990.648074</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39539</v>
+        <v>39600</v>
       </c>
       <c r="B322" t="n">
-        <v>26908910000000</v>
+        <v>29097550000000</v>
       </c>
       <c r="C322" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D322" t="n">
-        <v>1785622114.197586</v>
+        <v>1937262231.806771</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39569</v>
+        <v>39630</v>
       </c>
       <c r="B323" t="n">
-        <v>27793650000000</v>
+        <v>30564230000000</v>
       </c>
       <c r="C323" t="n">
-        <v>6.702293475840972e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D323" t="n">
-        <v>1862811990.648074</v>
+        <v>2043045354.207684</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39600</v>
+        <v>39661</v>
       </c>
       <c r="B324" t="n">
-        <v>29097550000000</v>
+        <v>32084790000000</v>
       </c>
       <c r="C324" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D324" t="n">
-        <v>1937262231.806771</v>
+        <v>2147547651.767582</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39630</v>
+        <v>39692</v>
       </c>
       <c r="B325" t="n">
-        <v>30564230000000</v>
+        <v>33356930000000</v>
       </c>
       <c r="C325" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D325" t="n">
-        <v>2043045354.207684</v>
+        <v>2228237001.776019</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39661</v>
+        <v>39722</v>
       </c>
       <c r="B326" t="n">
-        <v>32084790000000</v>
+        <v>34821360000000</v>
       </c>
       <c r="C326" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D326" t="n">
-        <v>2147547651.767582</v>
+        <v>2329162079.999503</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39692</v>
+        <v>39753</v>
       </c>
       <c r="B327" t="n">
-        <v>33356930000000</v>
+        <v>35985470000000</v>
       </c>
       <c r="C327" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D327" t="n">
-        <v>2228237001.776019</v>
+        <v>2403823007.102298</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39722</v>
+        <v>39783</v>
       </c>
       <c r="B328" t="n">
-        <v>34821360000000</v>
+        <v>37324710000000</v>
       </c>
       <c r="C328" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D328" t="n">
-        <v>2329162079.999503</v>
+        <v>2493284001.332239</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39753</v>
+        <v>39814</v>
       </c>
       <c r="B329" t="n">
-        <v>35985470000000</v>
+        <v>38308190000000</v>
       </c>
       <c r="C329" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D329" t="n">
-        <v>2403823007.102298</v>
+        <v>2558980290.724178</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39783</v>
+        <v>39845</v>
       </c>
       <c r="B330" t="n">
-        <v>37324710000000</v>
+        <v>39541860000000</v>
       </c>
       <c r="C330" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D330" t="n">
-        <v>2493284001.332239</v>
+        <v>2641389227.697126</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39814</v>
+        <v>39873</v>
       </c>
       <c r="B331" t="n">
-        <v>38308190000000</v>
+        <v>40487280000000</v>
       </c>
       <c r="C331" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D331" t="n">
-        <v>2558980290.724178</v>
+        <v>2704543115.846278</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39845</v>
+        <v>39904</v>
       </c>
       <c r="B332" t="n">
-        <v>39541860000000</v>
+        <v>41862090000000</v>
       </c>
       <c r="C332" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D332" t="n">
-        <v>2641389227.697126</v>
+        <v>2796380179.761083</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39873</v>
+        <v>39934</v>
       </c>
       <c r="B333" t="n">
-        <v>40487280000000</v>
+        <v>42442800000000</v>
       </c>
       <c r="C333" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D333" t="n">
-        <v>2704543115.846278</v>
+        <v>2833285163.007834</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39904</v>
+        <v>39965</v>
       </c>
       <c r="B334" t="n">
-        <v>41862090000000</v>
+        <v>43826040000000</v>
       </c>
       <c r="C334" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D334" t="n">
-        <v>2796380179.761083</v>
+        <v>2927571691.079361</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39934</v>
+        <v>39995</v>
       </c>
       <c r="B335" t="n">
-        <v>42442800000000</v>
+        <v>45386060000000</v>
       </c>
       <c r="C335" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D335" t="n">
-        <v>2833285163.007834</v>
+        <v>3031780750.111791</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39965</v>
+        <v>40026</v>
       </c>
       <c r="B336" t="n">
-        <v>43826040000000</v>
+        <v>46600160000000</v>
       </c>
       <c r="C336" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D336" t="n">
-        <v>2927571691.079361</v>
+        <v>3112882414.559216</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39995</v>
+        <v>40057</v>
       </c>
       <c r="B337" t="n">
-        <v>45386060000000</v>
+        <v>47584650000000</v>
       </c>
       <c r="C337" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D337" t="n">
-        <v>3031780750.111791</v>
+        <v>3178646171.77184</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40026</v>
+        <v>40087</v>
       </c>
       <c r="B338" t="n">
-        <v>46600160000000</v>
+        <v>48778830000000</v>
       </c>
       <c r="C338" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>3112882414.559216</v>
+        <v>3256249241.517558</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40057</v>
+        <v>40118</v>
       </c>
       <c r="B339" t="n">
-        <v>47584650000000</v>
+        <v>50035990000000</v>
       </c>
       <c r="C339" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D339" t="n">
-        <v>3178646171.77184</v>
+        <v>3342395248.558391</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40087</v>
+        <v>40148</v>
       </c>
       <c r="B340" t="n">
-        <v>48778830000000</v>
+        <v>51489410000000</v>
       </c>
       <c r="C340" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D340" t="n">
-        <v>3256249241.517558</v>
+        <v>3439483446.516695</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40118</v>
+        <v>40179</v>
       </c>
       <c r="B341" t="n">
-        <v>50035990000000</v>
+        <v>52420350000000</v>
       </c>
       <c r="C341" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D341" t="n">
-        <v>3342395248.558391</v>
+        <v>3504002964.689141</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40148</v>
+        <v>40210</v>
       </c>
       <c r="B342" t="n">
-        <v>51489410000000</v>
+        <v>53396860000000</v>
       </c>
       <c r="C342" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D342" t="n">
-        <v>3439483446.516695</v>
+        <v>3566900767.866043</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40179</v>
+        <v>40238</v>
       </c>
       <c r="B343" t="n">
-        <v>52420350000000</v>
+        <v>54615810000000</v>
       </c>
       <c r="C343" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D343" t="n">
-        <v>3504002964.689141</v>
+        <v>3650757008.659782</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40210</v>
+        <v>40269</v>
       </c>
       <c r="B344" t="n">
-        <v>53396860000000</v>
+        <v>55356080000000</v>
       </c>
       <c r="C344" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D344" t="n">
-        <v>3566900767.866043</v>
+        <v>3707650218.06842</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40238</v>
+        <v>40299</v>
       </c>
       <c r="B345" t="n">
-        <v>54615810000000</v>
+        <v>56432090000000</v>
       </c>
       <c r="C345" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D345" t="n">
-        <v>3650757008.659782</v>
+        <v>3767145506.764934</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40269</v>
+        <v>40330</v>
       </c>
       <c r="B346" t="n">
-        <v>55356080000000</v>
+        <v>57319560000000</v>
       </c>
       <c r="C346" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D346" t="n">
-        <v>3707650218.06842</v>
+        <v>3831487355.095437</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40299</v>
+        <v>40360</v>
       </c>
       <c r="B347" t="n">
-        <v>56432090000000</v>
+        <v>57796560000000</v>
       </c>
       <c r="C347" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D347" t="n">
-        <v>3767145506.764934</v>
+        <v>3863372098.599758</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="B348" t="n">
-        <v>57319560000000</v>
+        <v>58468430000000</v>
       </c>
       <c r="C348" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D348" t="n">
-        <v>3831487355.095437</v>
+        <v>3903082153.471546</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40360</v>
+        <v>40422</v>
       </c>
       <c r="B349" t="n">
-        <v>57796560000000</v>
+        <v>59276770000000</v>
       </c>
       <c r="C349" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D349" t="n">
-        <v>3863372098.599758</v>
+        <v>3957043195.831281</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40391</v>
+        <v>40452</v>
       </c>
       <c r="B350" t="n">
-        <v>58468430000000</v>
+        <v>59265310000000</v>
       </c>
       <c r="C350" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D350" t="n">
-        <v>3903082153.471546</v>
+        <v>3964190735.55471</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40422</v>
+        <v>40483</v>
       </c>
       <c r="B351" t="n">
-        <v>59276770000000</v>
+        <v>59253590000000</v>
       </c>
       <c r="C351" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D351" t="n">
-        <v>3957043195.831281</v>
+        <v>3968698395.638506</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40452</v>
+        <v>40513</v>
       </c>
       <c r="B352" t="n">
-        <v>59265310000000</v>
+        <v>59401860000000</v>
       </c>
       <c r="C352" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D352" t="n">
-        <v>3964190735.55471</v>
+        <v>3973324413.332486</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40483</v>
+        <v>40544</v>
       </c>
       <c r="B353" t="n">
-        <v>59253590000000</v>
+        <v>55963380000000</v>
       </c>
       <c r="C353" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D353" t="n">
-        <v>3968698395.638506</v>
+        <v>3743328306.665868</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40513</v>
+        <v>40575</v>
       </c>
       <c r="B354" t="n">
-        <v>59401860000000</v>
+        <v>55824410000000</v>
       </c>
       <c r="C354" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D354" t="n">
-        <v>3973324413.332486</v>
+        <v>3731545061.069263</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40544</v>
+        <v>40603</v>
       </c>
       <c r="B355" t="n">
-        <v>55963380000000</v>
+        <v>55989420000000</v>
       </c>
       <c r="C355" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D355" t="n">
-        <v>3743328306.665868</v>
+        <v>3745070093.332534</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40575</v>
+        <v>40634</v>
       </c>
       <c r="B356" t="n">
-        <v>55824410000000</v>
+        <v>56497980000000</v>
       </c>
       <c r="C356" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D356" t="n">
-        <v>3731545061.069263</v>
+        <v>3779087106.66586</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40603</v>
+        <v>40664</v>
       </c>
       <c r="B357" t="n">
-        <v>55989420000000</v>
+        <v>56103250000000</v>
       </c>
       <c r="C357" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D357" t="n">
-        <v>3745070093.332534</v>
+        <v>3727831843.267898</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40634</v>
+        <v>40695</v>
       </c>
       <c r="B358" t="n">
-        <v>56497980000000</v>
+        <v>55196860000000</v>
       </c>
       <c r="C358" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D358" t="n">
-        <v>3779087106.66586</v>
+        <v>3660333743.115006</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40664</v>
+        <v>40725</v>
       </c>
       <c r="B359" t="n">
-        <v>56103250000000</v>
+        <v>55541890000000</v>
       </c>
       <c r="C359" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D359" t="n">
-        <v>3727831843.267898</v>
+        <v>3680781349.625165</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40695</v>
+        <v>40756</v>
       </c>
       <c r="B360" t="n">
-        <v>55196860000000</v>
+        <v>56307070000000</v>
       </c>
       <c r="C360" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D360" t="n">
-        <v>3660333743.115006</v>
+        <v>3753804666.666667</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40725</v>
+        <v>40787</v>
       </c>
       <c r="B361" t="n">
-        <v>55541890000000</v>
+        <v>56805410000000</v>
       </c>
       <c r="C361" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D361" t="n">
-        <v>3680781349.625165</v>
+        <v>3787027333.333333</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40756</v>
+        <v>40817</v>
       </c>
       <c r="B362" t="n">
-        <v>56307070000000</v>
+        <v>57133730000000</v>
       </c>
       <c r="C362" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D362" t="n">
-        <v>3753804666.666667</v>
+        <v>3813983750.277917</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40787</v>
+        <v>40848</v>
       </c>
       <c r="B363" t="n">
-        <v>56805410000000</v>
+        <v>57917370000000</v>
       </c>
       <c r="C363" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D363" t="n">
-        <v>3787027333.333333</v>
+        <v>3874028526.66584</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40817</v>
+        <v>40878</v>
       </c>
       <c r="B364" t="n">
-        <v>57133730000000</v>
+        <v>58643000000000</v>
       </c>
       <c r="C364" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D364" t="n">
-        <v>3813983750.277917</v>
+        <v>3912132757.092554</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40848</v>
+        <v>40909</v>
       </c>
       <c r="B365" t="n">
-        <v>57917370000000</v>
+        <v>58932610000000</v>
       </c>
       <c r="C365" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D365" t="n">
-        <v>3874028526.66584</v>
+        <v>3941936802.221381</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40878</v>
+        <v>40940</v>
       </c>
       <c r="B366" t="n">
-        <v>58643000000000</v>
+        <v>59485810000000</v>
       </c>
       <c r="C366" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D366" t="n">
-        <v>3912132757.092554</v>
+        <v>3978939735.554707</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40909</v>
+        <v>40969</v>
       </c>
       <c r="B367" t="n">
-        <v>58932610000000</v>
+        <v>60356990000000</v>
       </c>
       <c r="C367" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D367" t="n">
-        <v>3941936802.221381</v>
+        <v>4031836216.157337</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40940</v>
+        <v>41000</v>
       </c>
       <c r="B368" t="n">
-        <v>59485810000000</v>
+        <v>60999030000000</v>
       </c>
       <c r="C368" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D368" t="n">
-        <v>3978939735.554707</v>
+        <v>4072013313.373994</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40969</v>
+        <v>41030</v>
       </c>
       <c r="B369" t="n">
-        <v>60356990000000</v>
+        <v>61421480000000</v>
       </c>
       <c r="C369" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D369" t="n">
-        <v>4031836216.157337</v>
+        <v>4111155321.324825</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41000</v>
+        <v>41061</v>
       </c>
       <c r="B370" t="n">
-        <v>60999030000000</v>
+        <v>61807340000000</v>
       </c>
       <c r="C370" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D370" t="n">
-        <v>4072013313.373994</v>
+        <v>4128719338.660692</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41030</v>
+        <v>41091</v>
       </c>
       <c r="B371" t="n">
-        <v>61421480000000</v>
+        <v>62091550000000</v>
       </c>
       <c r="C371" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D371" t="n">
-        <v>4111155321.324825</v>
+        <v>4153234788.888003</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41061</v>
+        <v>41122</v>
       </c>
       <c r="B372" t="n">
-        <v>61807340000000</v>
+        <v>62758720000000</v>
       </c>
       <c r="C372" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D372" t="n">
-        <v>4128719338.660692</v>
+        <v>4197861048.887993</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41091</v>
+        <v>41153</v>
       </c>
       <c r="B373" t="n">
-        <v>62091550000000</v>
+        <v>63023640000000</v>
       </c>
       <c r="C373" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D373" t="n">
-        <v>4153234788.888003</v>
+        <v>4215581253.332434</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41122</v>
+        <v>41183</v>
       </c>
       <c r="B374" t="n">
-        <v>62758720000000</v>
+        <v>63784670000000</v>
       </c>
       <c r="C374" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D374" t="n">
-        <v>4197861048.887993</v>
+        <v>4266485704.443534</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41153</v>
+        <v>41214</v>
       </c>
       <c r="B375" t="n">
-        <v>63023640000000</v>
+        <v>64331000000000</v>
       </c>
       <c r="C375" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D375" t="n">
-        <v>4215581253.332434</v>
+        <v>4303029111.110193</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41183</v>
+        <v>41244</v>
       </c>
       <c r="B376" t="n">
-        <v>63784670000000</v>
+        <v>65077030000000</v>
       </c>
       <c r="C376" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D376" t="n">
-        <v>4266485704.443534</v>
+        <v>4352930228.88796</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41214</v>
+        <v>41275</v>
       </c>
       <c r="B377" t="n">
-        <v>64331000000000</v>
+        <v>65240180000000</v>
       </c>
       <c r="C377" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D377" t="n">
-        <v>4303029111.110193</v>
+        <v>4360935860.536093</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41244</v>
+        <v>41306</v>
       </c>
       <c r="B378" t="n">
-        <v>65077030000000</v>
+        <v>65755649999999.99</v>
       </c>
       <c r="C378" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D378" t="n">
-        <v>4352930228.88796</v>
+        <v>4398322366.665728</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41275</v>
+        <v>41334</v>
       </c>
       <c r="B379" t="n">
-        <v>65240180000000</v>
+        <v>65970179999999.99</v>
       </c>
       <c r="C379" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D379" t="n">
-        <v>4360935860.536093</v>
+        <v>4412672039.999058</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41306</v>
+        <v>41365</v>
       </c>
       <c r="B380" t="n">
-        <v>65755649999999.99</v>
+        <v>66217750000000</v>
       </c>
       <c r="C380" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D380" t="n">
-        <v>4398322366.665728</v>
+        <v>4429231722.221277</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41334</v>
+        <v>41395</v>
       </c>
       <c r="B381" t="n">
-        <v>65970179999999.99</v>
+        <v>66577300000000</v>
       </c>
       <c r="C381" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D381" t="n">
-        <v>4412672039.999058</v>
+        <v>4423789690.950165</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41365</v>
+        <v>41426</v>
       </c>
       <c r="B382" t="n">
-        <v>66217750000000</v>
+        <v>66638700000000</v>
       </c>
       <c r="C382" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D382" t="n">
-        <v>4429231722.221277</v>
+        <v>4436684074.319036</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41395</v>
+        <v>41456</v>
       </c>
       <c r="B383" t="n">
-        <v>66577300000000</v>
+        <v>66594399999999.99</v>
       </c>
       <c r="C383" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D383" t="n">
-        <v>4423789690.950165</v>
+        <v>4430794518.124348</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41426</v>
+        <v>41487</v>
       </c>
       <c r="B384" t="n">
-        <v>66638700000000</v>
+        <v>66964800000000</v>
       </c>
       <c r="C384" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D384" t="n">
-        <v>4436684074.319036</v>
+        <v>4455438726.78924</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41456</v>
+        <v>41518</v>
       </c>
       <c r="B385" t="n">
-        <v>66594399999999.99</v>
+        <v>67073300000000</v>
       </c>
       <c r="C385" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D385" t="n">
-        <v>4430794518.124348</v>
+        <v>4462657670.202147</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41487</v>
+        <v>41548</v>
       </c>
       <c r="B386" t="n">
-        <v>66964800000000</v>
+        <v>67415200000000</v>
       </c>
       <c r="C386" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D386" t="n">
-        <v>4455438726.78924</v>
+        <v>4497334929.078423</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41518</v>
+        <v>41579</v>
       </c>
       <c r="B387" t="n">
-        <v>67073300000000</v>
+        <v>67910000000000</v>
       </c>
       <c r="C387" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D387" t="n">
-        <v>4462657670.202147</v>
+        <v>4527333333.333334</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41548</v>
+        <v>41609</v>
       </c>
       <c r="B388" t="n">
-        <v>67415200000000</v>
+        <v>68749399999999.99</v>
       </c>
       <c r="C388" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D388" t="n">
-        <v>4497334929.078423</v>
+        <v>4595507306.238886</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41579</v>
+        <v>41640</v>
       </c>
       <c r="B389" t="n">
-        <v>67910000000000</v>
+        <v>68948500000000</v>
       </c>
       <c r="C389" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D389" t="n">
-        <v>4527333333.333334</v>
+        <v>4608816011.546455</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41609</v>
+        <v>41671</v>
       </c>
       <c r="B390" t="n">
-        <v>68749399999999.99</v>
+        <v>69422000000000</v>
       </c>
       <c r="C390" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D390" t="n">
-        <v>4595507306.238886</v>
+        <v>4634291860.723841</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41640</v>
+        <v>41699</v>
       </c>
       <c r="B391" t="n">
-        <v>68948500000000</v>
+        <v>69851800000000</v>
       </c>
       <c r="C391" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D391" t="n">
-        <v>4608816011.546455</v>
+        <v>4662983322.245248</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41671</v>
+        <v>41730</v>
       </c>
       <c r="B392" t="n">
-        <v>69422000000000</v>
+        <v>70190100000000.01</v>
       </c>
       <c r="C392" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D392" t="n">
-        <v>4634291860.723841</v>
+        <v>4676232868.525473</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41699</v>
+        <v>41760</v>
       </c>
       <c r="B393" t="n">
-        <v>69851800000000</v>
+        <v>71150500000000</v>
       </c>
       <c r="C393" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D393" t="n">
-        <v>4662983322.245248</v>
+        <v>4727660154.526388</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41730</v>
+        <v>41791</v>
       </c>
       <c r="B394" t="n">
-        <v>70190100000000.01</v>
+        <v>70691500000000</v>
       </c>
       <c r="C394" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D394" t="n">
-        <v>4676232868.525473</v>
+        <v>4706512165.449268</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41760</v>
+        <v>41821</v>
       </c>
       <c r="B395" t="n">
-        <v>71150500000000</v>
+        <v>71280600000000</v>
       </c>
       <c r="C395" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D395" t="n">
-        <v>4727660154.526388</v>
+        <v>4736304768.212924</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41791</v>
+        <v>41852</v>
       </c>
       <c r="B396" t="n">
-        <v>70691500000000</v>
+        <v>71571300000000</v>
       </c>
       <c r="C396" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D396" t="n">
-        <v>4706512165.449268</v>
+        <v>4752473262.740483</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41821</v>
+        <v>41883</v>
       </c>
       <c r="B397" t="n">
-        <v>71280600000000</v>
+        <v>72207200000000</v>
       </c>
       <c r="C397" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D397" t="n">
-        <v>4736304768.212924</v>
+        <v>4797873554.084902</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41852</v>
+        <v>41913</v>
       </c>
       <c r="B398" t="n">
-        <v>71571300000000</v>
+        <v>72090500000000</v>
       </c>
       <c r="C398" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D398" t="n">
-        <v>4752473262.740483</v>
+        <v>4790119315.674304</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41883</v>
+        <v>41944</v>
       </c>
       <c r="B399" t="n">
-        <v>72207200000000</v>
+        <v>72460400000000</v>
       </c>
       <c r="C399" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D399" t="n">
-        <v>4797873554.084902</v>
+        <v>4808329012.345827</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41913</v>
+        <v>41974</v>
       </c>
       <c r="B400" t="n">
-        <v>72090500000000</v>
+        <v>73400300000000</v>
       </c>
       <c r="C400" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D400" t="n">
-        <v>4790119315.674304</v>
+        <v>4877150176.601475</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41944</v>
+        <v>42005</v>
       </c>
       <c r="B401" t="n">
-        <v>72460400000000</v>
+        <v>73368000000000</v>
       </c>
       <c r="C401" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D401" t="n">
-        <v>4808329012.345827</v>
+        <v>4881469496.019894</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41974</v>
+        <v>42036</v>
       </c>
       <c r="B402" t="n">
-        <v>73400300000000</v>
+        <v>73881800000000</v>
       </c>
       <c r="C402" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D402" t="n">
-        <v>4877150176.601475</v>
+        <v>4912397128.342551</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42005</v>
+        <v>42064</v>
       </c>
       <c r="B403" t="n">
-        <v>73368000000000</v>
+        <v>74538100000000</v>
       </c>
       <c r="C403" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D403" t="n">
-        <v>4881469496.019894</v>
+        <v>4972510660.461445</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B404" t="n">
-        <v>73881800000000</v>
+        <v>75394600000000</v>
       </c>
       <c r="C404" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D404" t="n">
-        <v>4912397128.342551</v>
+        <v>5026306666.666667</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B405" t="n">
-        <v>74538100000000</v>
+        <v>75768200000000</v>
       </c>
       <c r="C405" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D405" t="n">
-        <v>4972510660.461445</v>
+        <v>5051213333.333334</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B406" t="n">
-        <v>75394600000000</v>
+        <v>76270100000000</v>
       </c>
       <c r="C406" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D406" t="n">
-        <v>5026306666.666667</v>
+        <v>5084673333.333334</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B407" t="n">
-        <v>75768200000000</v>
+        <v>76486000000000</v>
       </c>
       <c r="C407" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D407" t="n">
-        <v>5051213333.333334</v>
+        <v>5105851851.85278</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B408" t="n">
-        <v>76270100000000</v>
+        <v>77001500000000</v>
       </c>
       <c r="C408" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D408" t="n">
-        <v>5084673333.333334</v>
+        <v>5140264249.280154</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B409" t="n">
-        <v>76486000000000</v>
+        <v>77702300000000</v>
       </c>
       <c r="C409" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D409" t="n">
-        <v>5105851851.85278</v>
+        <v>5178432923.725613</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B410" t="n">
-        <v>77001500000000</v>
+        <v>77842000000000</v>
       </c>
       <c r="C410" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D410" t="n">
-        <v>5140264249.280154</v>
+        <v>5187398600.777648</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B411" t="n">
-        <v>77702300000000</v>
+        <v>78010600000000</v>
       </c>
       <c r="C411" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.66312480630314e-05</v>
       </c>
       <c r="D411" t="n">
-        <v>5178432923.725613</v>
+        <v>5197943640.145917</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B412" t="n">
-        <v>77842000000000</v>
+        <v>78620200000000</v>
       </c>
       <c r="C412" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D412" t="n">
-        <v>5187398600.777648</v>
+        <v>5217081172.839667</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B413" t="n">
-        <v>78010600000000</v>
+        <v>78746000000000</v>
       </c>
       <c r="C413" t="n">
-        <v>6.66312480630314e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D413" t="n">
-        <v>5197943640.145917</v>
+        <v>5241027307.905476</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B414" t="n">
-        <v>78620200000000</v>
+        <v>78826400000000</v>
       </c>
       <c r="C414" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D414" t="n">
-        <v>5217081172.839667</v>
+        <v>5249860913.818933</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B415" t="n">
-        <v>78746000000000</v>
+        <v>79179500000000</v>
       </c>
       <c r="C415" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D415" t="n">
-        <v>5241027307.905476</v>
+        <v>5276880216.983695</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B416" t="n">
-        <v>78826400000000</v>
+        <v>79579600000000</v>
       </c>
       <c r="C416" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D416" t="n">
-        <v>5249860913.818933</v>
+        <v>5291243560.858681</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B417" t="n">
-        <v>79179500000000</v>
+        <v>79870500000000</v>
       </c>
       <c r="C417" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D417" t="n">
-        <v>5276880216.983695</v>
+        <v>5324700000</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B418" t="n">
-        <v>79579600000000</v>
+        <v>80272500000000</v>
       </c>
       <c r="C418" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D418" t="n">
-        <v>5291243560.858681</v>
+        <v>5350078052.346124</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B419" t="n">
-        <v>79870500000000</v>
+        <v>80371400000000</v>
       </c>
       <c r="C419" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D419" t="n">
-        <v>5324700000</v>
+        <v>5359874022.375769</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B420" t="n">
-        <v>80272500000000</v>
+        <v>81397500000000</v>
       </c>
       <c r="C420" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D420" t="n">
-        <v>5350078052.346124</v>
+        <v>5428303423.062578</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B421" t="n">
-        <v>80371400000000</v>
+        <v>81663900000000</v>
       </c>
       <c r="C421" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.66932553399133e-05</v>
       </c>
       <c r="D421" t="n">
-        <v>5359874022.375769</v>
+        <v>5446431334.753145</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B422" t="n">
-        <v>81397500000000</v>
+        <v>81156300000000</v>
       </c>
       <c r="C422" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D422" t="n">
-        <v>5428303423.062578</v>
+        <v>5405032923.997082</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B423" t="n">
-        <v>81663900000000</v>
+        <v>81593400000000</v>
       </c>
       <c r="C423" t="n">
-        <v>6.66932553399133e-05</v>
+        <v>6.661355287035969e-05</v>
       </c>
       <c r="D423" t="n">
-        <v>5446431334.753145</v>
+        <v>5435226264.772407</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B424" t="n">
-        <v>81156300000000</v>
+        <v>82428000000000</v>
       </c>
       <c r="C424" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D424" t="n">
-        <v>5405032923.997082</v>
+        <v>5493374958.487134</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B425" t="n">
-        <v>81593400000000</v>
+        <v>82377400000000</v>
       </c>
       <c r="C425" t="n">
-        <v>6.661355287035969e-05</v>
+        <v>6.665780848614462e-05</v>
       </c>
       <c r="D425" t="n">
-        <v>5435226264.772407</v>
+        <v>5491096952.78653</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B426" t="n">
-        <v>82428000000000</v>
+        <v>82874600000000</v>
       </c>
       <c r="C426" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.656935598017958e-05</v>
       </c>
       <c r="D426" t="n">
-        <v>5493374958.487134</v>
+        <v>5516908749.114991</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B427" t="n">
-        <v>82377400000000</v>
+        <v>82632700000000</v>
       </c>
       <c r="C427" t="n">
-        <v>6.665780848614462e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D427" t="n">
-        <v>5491096952.78653</v>
+        <v>5506285603.593776</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B428" t="n">
-        <v>82874600000000</v>
+        <v>82707600000000</v>
       </c>
       <c r="C428" t="n">
-        <v>6.656935598017958e-05</v>
+        <v>6.651198762567775e-05</v>
       </c>
       <c r="D428" t="n">
-        <v>5516908749.114991</v>
+        <v>5501046867.749505</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B429" t="n">
-        <v>82632700000000</v>
+        <v>82605300000000</v>
       </c>
       <c r="C429" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D429" t="n">
-        <v>5506285603.593776</v>
+        <v>5504459786.144528</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B430" t="n">
-        <v>82707600000000</v>
+        <v>83108700000000</v>
       </c>
       <c r="C430" t="n">
-        <v>6.651198762567775e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D430" t="n">
-        <v>5501046867.749505</v>
+        <v>5538372011.156564</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B431" t="n">
-        <v>82605300000000</v>
+        <v>83114600000000</v>
       </c>
       <c r="C431" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D431" t="n">
-        <v>5504459786.144528</v>
+        <v>5538397334.571608</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B432" t="n">
-        <v>83108700000000</v>
+        <v>83694400000000</v>
       </c>
       <c r="C432" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.673317813988263e-05</v>
       </c>
       <c r="D432" t="n">
-        <v>5538372011.156564</v>
+        <v>5585193304.510593</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B433" t="n">
-        <v>83114600000000</v>
+        <v>83441700000000</v>
       </c>
       <c r="C433" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D433" t="n">
-        <v>5538397334.571608</v>
+        <v>5560932514.116512</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B434" t="n">
-        <v>83694400000000</v>
+        <v>82880400000000</v>
       </c>
       <c r="C434" t="n">
-        <v>6.673317813988263e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D434" t="n">
-        <v>5585193304.510593</v>
+        <v>5522791259.87767</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B435" t="n">
-        <v>83441700000000</v>
+        <v>78447700000000</v>
       </c>
       <c r="C435" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D435" t="n">
-        <v>5560932514.116512</v>
+        <v>5227762508.854149</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B436" t="n">
-        <v>82880400000000</v>
+        <v>79166200000000</v>
       </c>
       <c r="C436" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D436" t="n">
-        <v>5522791259.87767</v>
+        <v>5275293041.994581</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B437" t="n">
-        <v>78447700000000</v>
+        <v>79712000000000</v>
       </c>
       <c r="C437" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D437" t="n">
-        <v>5227762508.854149</v>
+        <v>5312721314.380569</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43070</v>
+        <v>43132</v>
       </c>
       <c r="B438" t="n">
-        <v>79166200000000</v>
+        <v>80568000000000</v>
       </c>
       <c r="C438" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D438" t="n">
-        <v>5275293041.994581</v>
+        <v>5353414569.537559</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43101</v>
+        <v>43160</v>
       </c>
       <c r="B439" t="n">
-        <v>79712000000000</v>
+        <v>80882000000000</v>
       </c>
       <c r="C439" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D439" t="n">
-        <v>5312721314.380569</v>
+        <v>5390342521.865827</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="B440" t="n">
-        <v>80568000000000</v>
+        <v>80700400000000</v>
       </c>
       <c r="C440" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D440" t="n">
-        <v>5353414569.537559</v>
+        <v>5380026666.666667</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="B441" t="n">
-        <v>80882000000000</v>
+        <v>81058300000000</v>
       </c>
       <c r="C441" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D441" t="n">
-        <v>5390342521.865827</v>
+        <v>5403886666.666667</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43191</v>
+        <v>43252</v>
       </c>
       <c r="B442" t="n">
-        <v>80700400000000</v>
+        <v>81369200000000</v>
       </c>
       <c r="C442" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D442" t="n">
-        <v>5380026666.666667</v>
+        <v>5422451558.623835</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43221</v>
+        <v>43282</v>
       </c>
       <c r="B443" t="n">
-        <v>81058300000000</v>
+        <v>80767800000000</v>
       </c>
       <c r="C443" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D443" t="n">
-        <v>5403886666.666667</v>
+        <v>5373808090.184216</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43252</v>
+        <v>43313</v>
       </c>
       <c r="B444" t="n">
-        <v>81369200000000</v>
+        <v>80216200000000</v>
       </c>
       <c r="C444" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D444" t="n">
-        <v>5422451558.623835</v>
+        <v>5337107913.349566</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43282</v>
+        <v>43344</v>
       </c>
       <c r="B445" t="n">
-        <v>80767800000000</v>
+        <v>79452900000000</v>
       </c>
       <c r="C445" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D445" t="n">
-        <v>5373808090.184216</v>
+        <v>5294397489.538354</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43313</v>
+        <v>43374</v>
       </c>
       <c r="B446" t="n">
-        <v>80216200000000</v>
+        <v>78473400000000</v>
       </c>
       <c r="C446" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D446" t="n">
-        <v>5337107913.349566</v>
+        <v>5221152387.266485</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43344</v>
+        <v>43405</v>
       </c>
       <c r="B447" t="n">
-        <v>79452900000000</v>
+        <v>77705900000000</v>
       </c>
       <c r="C447" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D447" t="n">
-        <v>5294397489.538354</v>
+        <v>5177984968.230466</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43374</v>
+        <v>43435</v>
       </c>
       <c r="B448" t="n">
-        <v>78473400000000</v>
+        <v>76828000000000</v>
       </c>
       <c r="C448" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D448" t="n">
-        <v>5221152387.266485</v>
+        <v>5119485510.613869</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B449" t="n">
-        <v>77705900000000</v>
+        <v>75056000000000</v>
       </c>
       <c r="C449" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D449" t="n">
-        <v>5177984968.230466</v>
+        <v>5010391661.123111</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B450" t="n">
-        <v>76828000000000</v>
+        <v>75726000000000</v>
       </c>
       <c r="C450" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D450" t="n">
-        <v>5119485510.613869</v>
+        <v>5046052998.603971</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B451" t="n">
-        <v>75056000000000</v>
+        <v>75982700000000</v>
       </c>
       <c r="C451" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D451" t="n">
-        <v>5010391661.123111</v>
+        <v>5063830997.455237</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B452" t="n">
-        <v>75726000000000</v>
+        <v>75295800000000</v>
       </c>
       <c r="C452" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D452" t="n">
-        <v>5046052998.603971</v>
+        <v>5018052872.801178</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43525</v>
+        <v>43586</v>
       </c>
       <c r="B453" t="n">
-        <v>75982700000000</v>
+        <v>74212800000000</v>
       </c>
       <c r="C453" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D453" t="n">
-        <v>5063830997.455237</v>
+        <v>4945219897.720687</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43556</v>
+        <v>43617</v>
       </c>
       <c r="B454" t="n">
-        <v>75295800000000</v>
+        <v>74039300000000</v>
       </c>
       <c r="C454" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D454" t="n">
-        <v>5018052872.801178</v>
+        <v>4933658608.397894</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43586</v>
+        <v>43647</v>
       </c>
       <c r="B455" t="n">
-        <v>74212800000000</v>
+        <v>73728700000000</v>
       </c>
       <c r="C455" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D455" t="n">
-        <v>4945219897.720687</v>
+        <v>4912961568.261529</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43617</v>
+        <v>43678</v>
       </c>
       <c r="B456" t="n">
-        <v>74039300000000</v>
+        <v>73142500000000</v>
       </c>
       <c r="C456" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D456" t="n">
-        <v>4933658608.397894</v>
+        <v>4873899736.555356</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="B457" t="n">
-        <v>73728700000000</v>
+        <v>70440500000000</v>
       </c>
       <c r="C457" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D457" t="n">
-        <v>4912961568.261529</v>
+        <v>4694473707.518233</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43678</v>
+        <v>43739</v>
       </c>
       <c r="B458" t="n">
-        <v>73142500000000</v>
+        <v>69005000000000</v>
       </c>
       <c r="C458" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D458" t="n">
-        <v>4873899736.555356</v>
+        <v>4598805490.97885</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B459" t="n">
-        <v>70440500000000</v>
+        <v>66054100000000.01</v>
       </c>
       <c r="C459" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D459" t="n">
-        <v>4694473707.518233</v>
+        <v>4402144160.302385</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B460" t="n">
-        <v>69005000000000</v>
+        <v>63483800000000</v>
       </c>
       <c r="C460" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D460" t="n">
-        <v>4598805490.97885</v>
+        <v>4230847736.08004</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B461" t="n">
-        <v>66054100000000.01</v>
+        <v>61543000000000</v>
       </c>
       <c r="C461" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D461" t="n">
-        <v>4402144160.302385</v>
+        <v>4091990943.23075</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B462" t="n">
-        <v>63483800000000</v>
+        <v>59676600000000</v>
       </c>
       <c r="C462" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D462" t="n">
-        <v>4230847736.08004</v>
+        <v>3967894102.055542</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B463" t="n">
-        <v>61543000000000</v>
+        <v>59697000000000</v>
       </c>
       <c r="C463" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D463" t="n">
-        <v>4091990943.23075</v>
+        <v>3978478246.430902</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B464" t="n">
-        <v>59676600000000</v>
+        <v>58242600000000</v>
       </c>
       <c r="C464" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D464" t="n">
-        <v>3967894102.055542</v>
+        <v>3881034867.502464</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B465" t="n">
-        <v>59697000000000</v>
+        <v>58466700000000</v>
       </c>
       <c r="C465" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D465" t="n">
-        <v>3978478246.430902</v>
+        <v>3896485486.55044</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B466" t="n">
-        <v>58242600000000</v>
+        <v>58829200000000</v>
       </c>
       <c r="C466" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D466" t="n">
-        <v>3881034867.502464</v>
+        <v>3920123353.477969</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B467" t="n">
-        <v>58466700000000</v>
+        <v>59170300000000</v>
       </c>
       <c r="C467" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D467" t="n">
-        <v>3896485486.55044</v>
+        <v>3939451515.150801</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B468" t="n">
-        <v>58829200000000</v>
+        <v>60614400000000</v>
       </c>
       <c r="C468" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D468" t="n">
-        <v>3920123353.477969</v>
+        <v>4039081357.507071</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B469" t="n">
-        <v>59170300000000</v>
+        <v>61723000000000</v>
       </c>
       <c r="C469" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D469" t="n">
-        <v>3939451515.150801</v>
+        <v>4113500055.35378</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B470" t="n">
-        <v>60614400000000</v>
+        <v>63409900000000</v>
       </c>
       <c r="C470" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D470" t="n">
-        <v>4039081357.507071</v>
+        <v>4225361382.301692</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B471" t="n">
-        <v>61723000000000</v>
+        <v>65311500000000</v>
       </c>
       <c r="C471" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D471" t="n">
-        <v>4113500055.35378</v>
+        <v>4352075778.706431</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B472" t="n">
-        <v>63409900000000</v>
+        <v>67510300000000</v>
       </c>
       <c r="C472" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D472" t="n">
-        <v>4225361382.301692</v>
+        <v>4498594297.224911</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B473" t="n">
-        <v>65311500000000</v>
+        <v>69303200000000</v>
       </c>
       <c r="C473" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D473" t="n">
-        <v>4352075778.706431</v>
+        <v>4618065395.938656</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B474" t="n">
-        <v>67510300000000</v>
+        <v>71601700000000</v>
       </c>
       <c r="C474" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D474" t="n">
-        <v>4498594297.224911</v>
+        <v>4771861330.677782</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B475" t="n">
-        <v>69303200000000</v>
+        <v>72300400000000</v>
       </c>
       <c r="C475" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D475" t="n">
-        <v>4618065395.938656</v>
+        <v>4818425860.734255</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B476" t="n">
-        <v>71601700000000</v>
+        <v>73248200000000</v>
       </c>
       <c r="C476" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D476" t="n">
-        <v>4771861330.677782</v>
+        <v>4880943127.22636</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B477" t="n">
-        <v>72300400000000</v>
+        <v>74312300000000</v>
       </c>
       <c r="C477" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.682206682206579e-05</v>
       </c>
       <c r="D477" t="n">
-        <v>4818425860.734255</v>
+        <v>4965701476.301399</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B478" t="n">
-        <v>73248200000000</v>
+        <v>75032100000000</v>
       </c>
       <c r="C478" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D478" t="n">
-        <v>4880943127.22636</v>
+        <v>4999814504.880133</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B479" t="n">
-        <v>74312300000000</v>
+        <v>74752200000000</v>
       </c>
       <c r="C479" t="n">
-        <v>6.682206682206579e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D479" t="n">
-        <v>4965701476.301399</v>
+        <v>4981163179.915006</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B480" t="n">
-        <v>75032100000000</v>
+        <v>75146500000000</v>
       </c>
       <c r="C480" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D480" t="n">
-        <v>4999814504.880133</v>
+        <v>5007437625.90911</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B481" t="n">
-        <v>74752200000000</v>
+        <v>75299900000000</v>
       </c>
       <c r="C481" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D481" t="n">
-        <v>4981163179.915006</v>
+        <v>5018326115.356254</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B482" t="n">
-        <v>75146500000000</v>
+        <v>75423200000000</v>
       </c>
       <c r="C482" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D482" t="n">
-        <v>5007437625.90911</v>
+        <v>5026543385.36622</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B483" t="n">
-        <v>75299900000000</v>
+        <v>75531400000000</v>
       </c>
       <c r="C483" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D483" t="n">
-        <v>5018326115.356254</v>
+        <v>5033085696.57391</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="B484" t="n">
-        <v>75423200000000</v>
+        <v>79007900000000</v>
       </c>
       <c r="C484" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D484" t="n">
-        <v>5026543385.36622</v>
+        <v>5264744614.906407</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="B485" t="n">
-        <v>75531400000000</v>
+        <v>75513400000000</v>
       </c>
       <c r="C485" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D485" t="n">
-        <v>5033085696.57391</v>
+        <v>5032554721.57789</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44531</v>
+        <v>44593</v>
       </c>
       <c r="B486" t="n">
-        <v>79007900000000</v>
+        <v>73617900000000</v>
       </c>
       <c r="C486" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D486" t="n">
-        <v>5264744614.906407</v>
+        <v>4906230023.249502</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B487" t="n">
-        <v>75513400000000</v>
+        <v>71185600000000</v>
       </c>
       <c r="C487" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D487" t="n">
-        <v>5032554721.57789</v>
+        <v>4744130543.563858</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B488" t="n">
-        <v>73617900000000</v>
+        <v>77073100000000</v>
       </c>
       <c r="C488" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D488" t="n">
-        <v>4906230023.249502</v>
+        <v>5131387547.001945</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B489" t="n">
-        <v>71185600000000</v>
+        <v>79797700000000</v>
       </c>
       <c r="C489" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D489" t="n">
-        <v>4744130543.563858</v>
+        <v>5318079862.727092</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B490" t="n">
-        <v>77073100000000</v>
+        <v>74834600000000</v>
       </c>
       <c r="C490" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D490" t="n">
-        <v>5131387547.001945</v>
+        <v>4987316417.58142</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B491" t="n">
-        <v>79797700000000</v>
+        <v>79686600000000</v>
       </c>
       <c r="C491" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D491" t="n">
-        <v>5318079862.727092</v>
+        <v>5309970246.395625</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44713</v>
+        <v>44774</v>
       </c>
       <c r="B492" t="n">
-        <v>74834600000000</v>
+        <v>76680600000000</v>
       </c>
       <c r="C492" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D492" t="n">
-        <v>4987316417.58142</v>
+        <v>5109663412.364995</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44743</v>
+        <v>44805</v>
       </c>
       <c r="B493" t="n">
-        <v>79686600000000</v>
+        <v>93684900000000</v>
       </c>
       <c r="C493" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D493" t="n">
-        <v>5309970246.395625</v>
+        <v>6242756392.373994</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44774</v>
+        <v>44835</v>
       </c>
       <c r="B494" t="n">
-        <v>76680600000000</v>
+        <v>109002900000000</v>
       </c>
       <c r="C494" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D494" t="n">
-        <v>5109663412.364995</v>
+        <v>7263481636.44625</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44805</v>
+        <v>44866</v>
       </c>
       <c r="B495" t="n">
-        <v>93684900000000</v>
+        <v>107631100000000</v>
       </c>
       <c r="C495" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D495" t="n">
-        <v>6242756392.373994</v>
+        <v>7173023602.349014</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="B496" t="n">
-        <v>109003000000000</v>
+        <v>116582500000000</v>
       </c>
       <c r="C496" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D496" t="n">
-        <v>7263488300.013582</v>
+        <v>7769585409.05792</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44866</v>
+        <v>44927</v>
       </c>
       <c r="B497" t="n">
-        <v>107631000000000</v>
+        <v>112763600000000</v>
       </c>
       <c r="C497" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D497" t="n">
-        <v>7173016937.896451</v>
+        <v>7514078413.139194</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44896</v>
+        <v>44958</v>
       </c>
       <c r="B498" t="n">
-        <v>116582000000000</v>
+        <v>118911100000000</v>
       </c>
       <c r="C498" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D498" t="n">
-        <v>7769552086.795106</v>
+        <v>7927406666.666667</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44927</v>
+        <v>44986</v>
       </c>
       <c r="B499" t="n">
-        <v>112764000000000</v>
+        <v>103837600000000</v>
       </c>
       <c r="C499" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D499" t="n">
-        <v>7514105067.408526</v>
+        <v>6922506666.666667</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B500" t="inlineStr"/>
+        <v>45017</v>
+      </c>
+      <c r="B500" t="n">
+        <v>108136600000000</v>
+      </c>
       <c r="C500" t="n">
         <v>6.666666666666667e-05</v>
       </c>
-      <c r="D500" t="inlineStr"/>
+      <c r="D500" t="n">
+        <v>7209106666.666667</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B501" t="n">
-        <v>103838000000000</v>
+        <v>121569100000000</v>
       </c>
       <c r="C501" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D501" t="n">
-        <v>6922533333.333334</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="B502" t="n">
-        <v>108137000000000</v>
-      </c>
-      <c r="C502" t="n">
-        <v>6.666666666666667e-05</v>
-      </c>
-      <c r="D502" t="n">
-        <v>7209133333.333334</v>
+        <v>8104606666.666667</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
@@ -458,6242 +458,6254 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29707</v>
+        <v>29799</v>
       </c>
       <c r="B2" t="n">
-        <v>21580000000</v>
+        <v>23100000000</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29738</v>
+        <v>29830</v>
       </c>
       <c r="B3" t="n">
-        <v>22040000000</v>
+        <v>23590000000</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29768</v>
+        <v>29860</v>
       </c>
       <c r="B4" t="n">
-        <v>22780000000</v>
+        <v>24250000000</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29799</v>
+        <v>29891</v>
       </c>
       <c r="B5" t="n">
-        <v>23100000000</v>
+        <v>24640000000</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B6" t="n">
-        <v>23590000000</v>
+        <v>25610000000</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B7" t="n">
-        <v>24250000000</v>
+        <v>26270000000</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B8" t="n">
-        <v>24640000000</v>
+        <v>26500000000</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B9" t="n">
-        <v>25610000000</v>
+        <v>26680000000</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B10" t="n">
-        <v>26270000000</v>
+        <v>27590000000</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B11" t="n">
-        <v>26500000000</v>
+        <v>27940000000</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B12" t="n">
-        <v>26680000000</v>
+        <v>28650000000</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B13" t="n">
-        <v>27590000000</v>
+        <v>29310000000</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B14" t="n">
-        <v>27940000000</v>
+        <v>30190000000</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B15" t="n">
-        <v>28650000000</v>
+        <v>31450000000</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B16" t="n">
-        <v>29310000000</v>
+        <v>31910000000</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B17" t="n">
-        <v>30190000000</v>
+        <v>33970000000</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B18" t="n">
-        <v>31450000000</v>
+        <v>37080000000</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B19" t="n">
-        <v>31910000000</v>
+        <v>37040000000</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B20" t="n">
-        <v>33970000000</v>
+        <v>37860000000</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B21" t="n">
-        <v>37080000000</v>
+        <v>38280000000</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B22" t="n">
-        <v>37040000000</v>
+        <v>38870000000</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B23" t="n">
-        <v>37860000000</v>
+        <v>39610000000</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B24" t="n">
-        <v>38280000000</v>
+        <v>40670000000</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B25" t="n">
-        <v>38870000000</v>
+        <v>41460000000</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B26" t="n">
-        <v>39610000000</v>
+        <v>42460000000</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B27" t="n">
-        <v>40670000000</v>
+        <v>44420000000</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B28" t="n">
-        <v>41460000000</v>
+        <v>45140000000</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B29" t="n">
-        <v>42460000000</v>
+        <v>45690000000</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B30" t="n">
-        <v>44420000000</v>
+        <v>47220000000</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B31" t="n">
-        <v>45140000000</v>
+        <v>47110000000</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B32" t="n">
-        <v>45690000000</v>
+        <v>47010000000</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B33" t="n">
-        <v>47220000000</v>
+        <v>48800000000</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B34" t="n">
-        <v>47110000000</v>
+        <v>49550000000</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B35" t="n">
-        <v>47010000000</v>
+        <v>49830000000</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B36" t="n">
-        <v>48800000000</v>
+        <v>50500000000</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B37" t="n">
-        <v>49550000000</v>
+        <v>51150000000</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B38" t="n">
-        <v>49830000000</v>
+        <v>51340000000</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B39" t="n">
-        <v>50500000000</v>
+        <v>52250000000</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B40" t="n">
-        <v>51150000000</v>
+        <v>52320000000</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B41" t="n">
-        <v>51340000000</v>
+        <v>53020000000</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B42" t="n">
-        <v>52250000000</v>
+        <v>54980000000</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B43" t="n">
-        <v>52320000000</v>
+        <v>56590000000</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B44" t="n">
-        <v>53020000000</v>
+        <v>59360000000</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B45" t="n">
-        <v>54980000000</v>
+        <v>61900000000</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B46" t="n">
-        <v>56590000000</v>
+        <v>63320000000</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B47" t="n">
-        <v>59360000000</v>
+        <v>66090000000</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B48" t="n">
-        <v>61900000000</v>
+        <v>69030000000</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B49" t="n">
-        <v>63320000000</v>
+        <v>70050000000</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31168</v>
+        <v>31291</v>
       </c>
       <c r="B50" t="n">
-        <v>66090000000</v>
+        <v>73970000000</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31199</v>
+        <v>31321</v>
       </c>
       <c r="B51" t="n">
-        <v>69030000000</v>
+        <v>75470000000</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31229</v>
+        <v>31352</v>
       </c>
       <c r="B52" t="n">
-        <v>70050000000</v>
+        <v>78030000000</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B53" t="n">
-        <v>73970000000</v>
+        <v>80920000000</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31321</v>
+        <v>31472</v>
       </c>
       <c r="B54" t="n">
-        <v>75470000000</v>
+        <v>78860000000</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31352</v>
+        <v>31564</v>
       </c>
       <c r="B55" t="n">
-        <v>78030000000</v>
+        <v>85180000000</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31382</v>
+        <v>31594</v>
       </c>
       <c r="B56" t="n">
-        <v>80920000000</v>
+        <v>87710000000</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31472</v>
+        <v>31625</v>
       </c>
       <c r="B57" t="n">
-        <v>78860000000</v>
+        <v>96900000000</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B58" t="n">
-        <v>85180000000</v>
+        <v>98740000000</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B59" t="n">
-        <v>87710000000</v>
+        <v>99830000000</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B60" t="n">
-        <v>96900000000</v>
+        <v>101880000000</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B61" t="n">
-        <v>98740000000</v>
+        <v>104550000000</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B62" t="n">
-        <v>99830000000</v>
+        <v>107790000000</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B63" t="n">
-        <v>101880000000</v>
+        <v>117670000000</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B64" t="n">
-        <v>104550000000</v>
+        <v>121450000000</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B65" t="n">
-        <v>107790000000</v>
+        <v>126860000000</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B66" t="n">
-        <v>117670000000</v>
+        <v>133570000000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B67" t="n">
-        <v>121450000000</v>
+        <v>137500000000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B68" t="n">
-        <v>126860000000</v>
+        <v>162600000000</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B69" t="n">
-        <v>133570000000</v>
+        <v>139230000000</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B70" t="n">
-        <v>137500000000</v>
+        <v>143420000000</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B71" t="n">
-        <v>162600000000</v>
+        <v>148010000000</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B72" t="n">
-        <v>139230000000</v>
+        <v>147600000000</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B73" t="n">
-        <v>143420000000</v>
+        <v>155120000000</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B74" t="n">
-        <v>148010000000</v>
+        <v>163040000000</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B75" t="n">
-        <v>147600000000</v>
+        <v>212160000000</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B76" t="n">
-        <v>155120000000</v>
+        <v>298980000000</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B77" t="n">
-        <v>163040000000</v>
+        <v>316350000000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B78" t="n">
-        <v>212160000000</v>
+        <v>314340000000</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B79" t="n">
-        <v>298980000000</v>
+        <v>395600000000</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B80" t="n">
-        <v>316350000000</v>
+        <v>463110000000</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B81" t="n">
-        <v>314340000000</v>
+        <v>460020000000</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B82" t="n">
-        <v>395600000000</v>
+        <v>510860000000</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B83" t="n">
-        <v>463110000000</v>
+        <v>510940000000</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B84" t="n">
-        <v>460020000000</v>
+        <v>530500000000</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B85" t="n">
-        <v>510860000000</v>
+        <v>547820000000.0001</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B86" t="n">
-        <v>510940000000</v>
+        <v>555840000000</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B87" t="n">
-        <v>530500000000</v>
+        <v>602240000000</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B88" t="n">
-        <v>547820000000.0001</v>
+        <v>674900000000</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B89" t="n">
-        <v>555840000000</v>
+        <v>705730000000</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B90" t="n">
-        <v>602240000000</v>
+        <v>727370000000</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B91" t="n">
-        <v>674900000000</v>
+        <v>759570000000</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B92" t="n">
-        <v>705730000000</v>
+        <v>785070000000</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B93" t="n">
-        <v>727370000000</v>
+        <v>816340000000</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B94" t="n">
-        <v>759570000000</v>
+        <v>837430000000</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B95" t="n">
-        <v>785070000000</v>
+        <v>906160000000</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B96" t="n">
-        <v>816340000000</v>
+        <v>939290000000</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B97" t="n">
-        <v>837430000000</v>
+        <v>948040000000</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B98" t="n">
-        <v>906160000000</v>
+        <v>946560000000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B99" t="n">
-        <v>939290000000</v>
+        <v>964770000000</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B100" t="n">
-        <v>948040000000</v>
+        <v>986240000000</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B101" t="n">
-        <v>946560000000</v>
+        <v>982530000000</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B102" t="n">
-        <v>964770000000</v>
+        <v>966580000000</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B103" t="n">
-        <v>986240000000</v>
+        <v>994070000000</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B104" t="n">
-        <v>982530000000</v>
+        <v>1048170000000</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B105" t="n">
-        <v>966580000000</v>
+        <v>1088390000000</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B106" t="n">
-        <v>994070000000</v>
+        <v>1109630000000</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B107" t="n">
-        <v>1048170000000</v>
+        <v>1289630000000</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B108" t="n">
-        <v>1088390000000</v>
+        <v>1289590000000</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B109" t="n">
-        <v>1109630000000</v>
+        <v>1268860000000</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B110" t="n">
-        <v>1289630000000</v>
+        <v>1276910000000</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B111" t="n">
-        <v>1289590000000</v>
+        <v>1314350000000</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B112" t="n">
-        <v>1268860000000</v>
+        <v>1386070000000</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B113" t="n">
-        <v>1276910000000</v>
+        <v>1377310000000</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B114" t="n">
-        <v>1314350000000</v>
+        <v>1472340000000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B115" t="n">
-        <v>1386070000000</v>
+        <v>1632090000000</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B116" t="n">
-        <v>1377310000000</v>
+        <v>1866380000000</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B117" t="n">
-        <v>1472340000000</v>
+        <v>1811410000000</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B118" t="n">
-        <v>1632090000000</v>
+        <v>1813160000000</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B119" t="n">
-        <v>1866380000000</v>
+        <v>1917710000000</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B120" t="n">
-        <v>1811410000000</v>
+        <v>1995110000000</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B121" t="n">
-        <v>1813160000000</v>
+        <v>2151010000000</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B122" t="n">
-        <v>1917710000000</v>
+        <v>2118590000000</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B123" t="n">
-        <v>1995110000000</v>
+        <v>2026430000000</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B124" t="n">
-        <v>2151010000000</v>
+        <v>2038100000000</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B125" t="n">
-        <v>2118590000000</v>
+        <v>2078100000000</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B126" t="n">
-        <v>2026430000000</v>
+        <v>2154030000000</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B127" t="n">
-        <v>2038100000000</v>
+        <v>2238570000000</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B128" t="n">
-        <v>2078100000000</v>
+        <v>2286870000000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B129" t="n">
-        <v>2154030000000</v>
+        <v>2317800000000</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B130" t="n">
-        <v>2238570000000</v>
+        <v>2390240000000</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B131" t="n">
-        <v>2286870000000</v>
+        <v>4297230000000</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B132" t="n">
-        <v>2317800000000</v>
+        <v>4458340000000</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B133" t="n">
-        <v>2390240000000</v>
+        <v>4393060000000</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B134" t="n">
-        <v>4297230000000</v>
+        <v>4154130000000</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B135" t="n">
-        <v>4458340000000</v>
+        <v>4276030000000</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B136" t="n">
-        <v>4393060000000</v>
+        <v>4229970000000</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B137" t="n">
-        <v>4154130000000</v>
+        <v>4120690000000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B138" t="n">
-        <v>4276030000000</v>
+        <v>4263490000000</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B139" t="n">
-        <v>4229970000000</v>
+        <v>4378050000000</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B140" t="n">
-        <v>4120690000000</v>
+        <v>4298740000000</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B141" t="n">
-        <v>4263490000000</v>
+        <v>4512800000000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B142" t="n">
-        <v>4378050000000</v>
+        <v>4706140000000</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B143" t="n">
-        <v>4298740000000</v>
+        <v>4943670000000</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B144" t="n">
-        <v>4512800000000</v>
+        <v>5018800000000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B145" t="n">
-        <v>4706140000000</v>
+        <v>5308800000000</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B146" t="n">
-        <v>4943670000000</v>
+        <v>5805200000000</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B147" t="n">
-        <v>5018800000000</v>
+        <v>6206980000000</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B148" t="n">
-        <v>5308800000000</v>
+        <v>6679510000000</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B149" t="n">
-        <v>5805200000000</v>
+        <v>6956560000000</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B150" t="n">
-        <v>6206980000000</v>
+        <v>6985400000000</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B151" t="n">
-        <v>6679510000000</v>
+        <v>7236740000000</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B152" t="n">
-        <v>6956560000000</v>
+        <v>7445730000000</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B153" t="n">
-        <v>6985400000000</v>
+        <v>7697120000000</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B154" t="n">
-        <v>7236740000000</v>
+        <v>8151070000000</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B155" t="n">
-        <v>7445730000000</v>
+        <v>8431450000000.001</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B156" t="n">
-        <v>7697120000000</v>
+        <v>8707299999999.999</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B157" t="n">
-        <v>8151070000000</v>
+        <v>8586660000000</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B158" t="n">
-        <v>8431450000000.001</v>
+        <v>8695770000000</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B159" t="n">
-        <v>8707299999999.999</v>
+        <v>8872560000000</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B160" t="n">
-        <v>8586660000000</v>
+        <v>8959920000000</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B161" t="n">
-        <v>8695770000000</v>
+        <v>8992800000000</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B162" t="n">
-        <v>8872560000000</v>
+        <v>8391760000000</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B163" t="n">
-        <v>8959920000000</v>
+        <v>8629740000000</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B164" t="n">
-        <v>8992800000000</v>
+        <v>8596629999999.999</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B165" t="n">
-        <v>8391760000000</v>
+        <v>8368100000000</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B166" t="n">
-        <v>8629740000000</v>
+        <v>8119720000000</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B167" t="n">
-        <v>8596629999999.999</v>
+        <v>8511600000000</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B168" t="n">
-        <v>8368100000000</v>
+        <v>9176130000000</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B169" t="n">
-        <v>8119720000000</v>
+        <v>9663210000000</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B170" t="n">
-        <v>8511600000000</v>
+        <v>10092140000000</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B171" t="n">
-        <v>9176130000000</v>
+        <v>10366110000000</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B172" t="n">
-        <v>9663210000000</v>
+        <v>10512680000000</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B173" t="n">
-        <v>10092140000000</v>
+        <v>10490000000000</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B174" t="n">
-        <v>10366110000000</v>
+        <v>10924100000000</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B175" t="n">
-        <v>10512680000000</v>
+        <v>11336120000000</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B176" t="n">
-        <v>10490000000000</v>
+        <v>11719140000000</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B177" t="n">
-        <v>10924100000000</v>
+        <v>11986070000000</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B178" t="n">
-        <v>11336120000000</v>
+        <v>12386110000000</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B179" t="n">
-        <v>11719140000000</v>
+        <v>13273470000000</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B180" t="n">
-        <v>11986070000000</v>
+        <v>13572010000000</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B181" t="n">
-        <v>12386110000000</v>
+        <v>14001710000000</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B182" t="n">
-        <v>13273470000000</v>
+        <v>14327790000000</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B183" t="n">
-        <v>13572010000000</v>
+        <v>14657840000000</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B184" t="n">
-        <v>14001710000000</v>
+        <v>15119370000000</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B185" t="n">
-        <v>14327790000000</v>
+        <v>15307460000000</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B186" t="n">
-        <v>14657840000000</v>
+        <v>15441260000000</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B187" t="n">
-        <v>15119370000000</v>
+        <v>15543320000000</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B188" t="n">
-        <v>15307460000000</v>
+        <v>15473590000000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B189" t="n">
-        <v>15441260000000</v>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
+        <v>15405510000000</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.553450903550847e-05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1009592534.291616</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B190" t="n">
-        <v>15543320000000</v>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
+        <v>14875010000000</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.566317626526478e-05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>976740403.5775763</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B191" t="n">
-        <v>15473590000000</v>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
+        <v>14650810000000</v>
+      </c>
+      <c r="C191" t="n">
+        <v>6.574923547401215e-05</v>
+      </c>
+      <c r="D191" t="n">
+        <v>963279556.575012</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B192" t="n">
-        <v>15405510000000</v>
+        <v>14549800000000</v>
       </c>
       <c r="C192" t="n">
-        <v>6.553450903550847e-05</v>
+        <v>6.581392806383931e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>1009592534.291616</v>
+        <v>957579490.5432491</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B193" t="n">
-        <v>14875010000000</v>
+        <v>14529860000000</v>
       </c>
       <c r="C193" t="n">
-        <v>6.566317626526478e-05</v>
+        <v>6.592203241347731e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>976740403.5775763</v>
+        <v>957837901.8832874</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B194" t="n">
-        <v>14650810000000</v>
+        <v>14771350000000</v>
       </c>
       <c r="C194" t="n">
-        <v>6.574923547401215e-05</v>
+        <v>6.600877192982268e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>963279556.575012</v>
+        <v>975038673.2455863</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B195" t="n">
-        <v>14549800000000</v>
+        <v>14513120000000</v>
       </c>
       <c r="C195" t="n">
-        <v>6.581392806383931e-05</v>
+        <v>6.60957400087935e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>957579490.5432491</v>
+        <v>959255406.2364211</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B196" t="n">
-        <v>14529860000000</v>
+        <v>13900660000000</v>
       </c>
       <c r="C196" t="n">
-        <v>6.592203241347731e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>957837901.8832874</v>
+        <v>920593764.5762368</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B197" t="n">
-        <v>14771350000000</v>
+        <v>14086370000000</v>
       </c>
       <c r="C197" t="n">
-        <v>6.600877192982268e-05</v>
+        <v>6.57621638155112e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>975038673.2455863</v>
+        <v>926350171.5059025</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B198" t="n">
-        <v>14513120000000</v>
+        <v>14507300000000</v>
       </c>
       <c r="C198" t="n">
-        <v>6.60957400087935e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>959255406.2364211</v>
+        <v>962675771.604968</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B199" t="n">
-        <v>13900660000000</v>
+        <v>14959510000000</v>
       </c>
       <c r="C199" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.641820520798443e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>920593764.5762368</v>
+        <v>993583804.9908953</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B200" t="n">
-        <v>14086370000000</v>
+        <v>15372520000000</v>
       </c>
       <c r="C200" t="n">
-        <v>6.57621638155112e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>926350171.5059025</v>
+        <v>1023474567.57336</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B201" t="n">
-        <v>14507300000000</v>
+        <v>15386490000000</v>
       </c>
       <c r="C201" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>962675771.604968</v>
+        <v>1025084880.477995</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B202" t="n">
-        <v>14959510000000</v>
+        <v>15545300000000</v>
       </c>
       <c r="C202" t="n">
-        <v>6.641820520798443e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>993583804.9908953</v>
+        <v>1031555401.2346</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B203" t="n">
-        <v>15372520000000</v>
+        <v>16461650000000</v>
       </c>
       <c r="C203" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.682384701114667e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>1023474567.57336</v>
+        <v>1100030781.151042</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B204" t="n">
-        <v>15386490000000</v>
+        <v>16905730000000</v>
       </c>
       <c r="C204" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>1025084880.477995</v>
+        <v>1129299762.539145</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B205" t="n">
-        <v>15545300000000</v>
+        <v>16554250000000</v>
       </c>
       <c r="C205" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>1031555401.2346</v>
+        <v>1105085218.452186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B206" t="n">
-        <v>16461650000000</v>
+        <v>16542340000000</v>
       </c>
       <c r="C206" t="n">
-        <v>6.682384701114667e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>1100030781.151042</v>
+        <v>1101724602.27923</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B207" t="n">
-        <v>16905730000000</v>
+        <v>16544890000000</v>
       </c>
       <c r="C207" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675582228313177e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>1129299762.539145</v>
+        <v>1104467736.533964</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B208" t="n">
-        <v>16554250000000</v>
+        <v>16790140000000</v>
       </c>
       <c r="C208" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>1105085218.452186</v>
+        <v>1121578371.061114</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B209" t="n">
-        <v>16542340000000</v>
+        <v>16821930000000</v>
       </c>
       <c r="C209" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>1101724602.27923</v>
+        <v>1123701937.417084</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B210" t="n">
-        <v>16544890000000</v>
+        <v>17085340000000</v>
       </c>
       <c r="C210" t="n">
-        <v>6.675582228313177e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>1104467736.533964</v>
+        <v>1141297678.651</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B211" t="n">
-        <v>16790140000000</v>
+        <v>17367330000000</v>
       </c>
       <c r="C211" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>1121578371.061114</v>
+        <v>1160134560.586202</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B212" t="n">
-        <v>16821930000000</v>
+        <v>17760410000000</v>
       </c>
       <c r="C212" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>1123701937.417084</v>
+        <v>1186392234.798371</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B213" t="n">
-        <v>17085340000000</v>
+        <v>18218130000000</v>
       </c>
       <c r="C213" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>1141297678.651</v>
+        <v>1216967849.534287</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B214" t="n">
-        <v>17367330000000</v>
+        <v>18925270000000</v>
       </c>
       <c r="C214" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>1160134560.586202</v>
+        <v>1264204675.987917</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B215" t="n">
-        <v>17760410000000</v>
+        <v>19439920000000</v>
       </c>
       <c r="C215" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>1186392234.798371</v>
+        <v>1299448349.988501</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B216" t="n">
-        <v>18218130000000</v>
+        <v>19691480000000</v>
       </c>
       <c r="C216" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>1216967849.534287</v>
+        <v>1316263708.638285</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B217" t="n">
-        <v>18925270000000</v>
+        <v>20239650000000</v>
       </c>
       <c r="C217" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>1264204675.987917</v>
+        <v>1352905762.824372</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B218" t="n">
-        <v>19439920000000</v>
+        <v>20368740000000</v>
       </c>
       <c r="C218" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D218" t="n">
-        <v>1299448349.988501</v>
+        <v>1361534696.86834</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B219" t="n">
-        <v>19691480000000</v>
+        <v>20557380000000</v>
       </c>
       <c r="C219" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>1316263708.638285</v>
+        <v>1374144210.525898</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B220" t="n">
-        <v>20239650000000</v>
+        <v>20999490000000</v>
       </c>
       <c r="C220" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D220" t="n">
-        <v>1352905762.824372</v>
+        <v>1400896828.457574</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B221" t="n">
-        <v>20368740000000</v>
+        <v>20770370000000</v>
       </c>
       <c r="C221" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D221" t="n">
-        <v>1361534696.86834</v>
+        <v>1385612005.762537</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B222" t="n">
-        <v>20557380000000</v>
+        <v>20225160000000</v>
       </c>
       <c r="C222" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D222" t="n">
-        <v>1374144210.525898</v>
+        <v>1349240505.319272</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B223" t="n">
-        <v>20999490000000</v>
+        <v>20553180000000</v>
       </c>
       <c r="C223" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D223" t="n">
-        <v>1400896828.457574</v>
+        <v>1365674874.172475</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B224" t="n">
-        <v>20770370000000</v>
+        <v>20714510000000</v>
       </c>
       <c r="C224" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D224" t="n">
-        <v>1385612005.762537</v>
+        <v>1376394593.819276</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B225" t="n">
-        <v>20225160000000</v>
+        <v>20726210000000</v>
       </c>
       <c r="C225" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D225" t="n">
-        <v>1349240505.319272</v>
+        <v>1377172011.037819</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B226" t="n">
-        <v>20553180000000</v>
+        <v>20235110000000</v>
       </c>
       <c r="C226" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D226" t="n">
-        <v>1365674874.172475</v>
+        <v>1344540421.633839</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B227" t="n">
-        <v>20714510000000</v>
+        <v>19033140000000</v>
       </c>
       <c r="C227" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D227" t="n">
-        <v>1376394593.819276</v>
+        <v>1264674423.841328</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B228" t="n">
-        <v>20726210000000</v>
+        <v>19160840000000</v>
       </c>
       <c r="C228" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D228" t="n">
-        <v>1377172011.037819</v>
+        <v>1273159567.329188</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B229" t="n">
-        <v>20235110000000</v>
+        <v>19492530000000</v>
       </c>
       <c r="C229" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D229" t="n">
-        <v>1344540421.633839</v>
+        <v>1295199013.245308</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B230" t="n">
-        <v>19033140000000</v>
+        <v>19661540000000</v>
       </c>
       <c r="C230" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D230" t="n">
-        <v>1264674423.841328</v>
+        <v>1306429037.527871</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B231" t="n">
-        <v>19160840000000</v>
+        <v>19193810000000</v>
       </c>
       <c r="C231" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D231" t="n">
-        <v>1273159567.329188</v>
+        <v>1277041735.18975</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B232" t="n">
-        <v>19492530000000</v>
+        <v>18451720000000</v>
       </c>
       <c r="C232" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D232" t="n">
-        <v>1295199013.245308</v>
+        <v>1227667488.9475</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B233" t="n">
-        <v>19661540000000</v>
+        <v>17581800000000</v>
       </c>
       <c r="C233" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D233" t="n">
-        <v>1306429037.527871</v>
+        <v>1169788196.286154</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B234" t="n">
-        <v>19193810000000</v>
+        <v>17167240000000</v>
       </c>
       <c r="C234" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D234" t="n">
-        <v>1277041735.18975</v>
+        <v>1142205844.385189</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B235" t="n">
-        <v>18451720000000</v>
+        <v>17217820000000</v>
       </c>
       <c r="C235" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.751906684610056e-05</v>
       </c>
       <c r="D235" t="n">
-        <v>1227667488.9475</v>
+        <v>1162531139.524127</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B236" t="n">
-        <v>17581800000000</v>
+        <v>17088960000000</v>
       </c>
       <c r="C236" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D236" t="n">
-        <v>1169788196.286154</v>
+        <v>1139264000</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B237" t="n">
-        <v>17167240000000</v>
+        <v>16213400000000</v>
       </c>
       <c r="C237" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D237" t="n">
-        <v>1142205844.385189</v>
+        <v>1077314216.335769</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B238" t="n">
-        <v>17217820000000</v>
+        <v>16008060000000</v>
       </c>
       <c r="C238" t="n">
-        <v>6.751906684610056e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D238" t="n">
-        <v>1162531139.524127</v>
+        <v>1063670211.920755</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B239" t="n">
-        <v>17088960000000</v>
+        <v>16367250000000</v>
       </c>
       <c r="C239" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D239" t="n">
-        <v>1139264000</v>
+        <v>1086817174.057048</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B240" t="n">
-        <v>16213400000000</v>
+        <v>16681350000000</v>
       </c>
       <c r="C240" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D240" t="n">
-        <v>1077314216.335769</v>
+        <v>1106941435.185219</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B241" t="n">
-        <v>16008060000000</v>
+        <v>17460680000000</v>
       </c>
       <c r="C241" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D241" t="n">
-        <v>1063670211.920755</v>
+        <v>1157890434.016234</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B242" t="n">
-        <v>16367250000000</v>
+        <v>17350220000000</v>
       </c>
       <c r="C242" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D242" t="n">
-        <v>1086817174.057048</v>
+        <v>1150565371.227074</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B243" t="n">
-        <v>16681350000000</v>
+        <v>17183870000000</v>
       </c>
       <c r="C243" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D243" t="n">
-        <v>1106941435.185219</v>
+        <v>1139157553.133173</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B244" t="n">
-        <v>17460680000000</v>
+        <v>16800510000000</v>
       </c>
       <c r="C244" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D244" t="n">
-        <v>1157890434.016234</v>
+        <v>1114111810.971514</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B245" t="n">
-        <v>17350220000000</v>
+        <v>16460310000000</v>
       </c>
       <c r="C245" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D245" t="n">
-        <v>1150565371.227074</v>
+        <v>1091191126.528163</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B246" t="n">
-        <v>17183870000000</v>
+        <v>15836230000000</v>
       </c>
       <c r="C246" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D246" t="n">
-        <v>1139157553.133173</v>
+        <v>1050166386.869292</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B247" t="n">
-        <v>16800510000000</v>
+        <v>16331330000000</v>
       </c>
       <c r="C247" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D247" t="n">
-        <v>1114111810.971514</v>
+        <v>1082998530.513265</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B248" t="n">
-        <v>16460310000000</v>
+        <v>16560930000000</v>
       </c>
       <c r="C248" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.633608815429102e-05</v>
       </c>
       <c r="D248" t="n">
-        <v>1091191126.528163</v>
+        <v>1098587312.397043</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B249" t="n">
-        <v>15836230000000</v>
+        <v>17116440000000</v>
       </c>
       <c r="C249" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D249" t="n">
-        <v>1050166386.869292</v>
+        <v>1135813148.148183</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B250" t="n">
-        <v>16331330000000</v>
+        <v>17600960000000</v>
       </c>
       <c r="C250" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D250" t="n">
-        <v>1082998530.513265</v>
+        <v>1167964938.271641</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B251" t="n">
-        <v>16560930000000</v>
+        <v>18140210000000</v>
       </c>
       <c r="C251" t="n">
-        <v>6.633608815429102e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D251" t="n">
-        <v>1098587312.397043</v>
+        <v>1202952899.316959</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B252" t="n">
-        <v>17116440000000</v>
+        <v>19021940000000</v>
       </c>
       <c r="C252" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D252" t="n">
-        <v>1135813148.148183</v>
+        <v>1271508758.604987</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B253" t="n">
-        <v>17600960000000</v>
+        <v>20582830000000</v>
       </c>
       <c r="C253" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D253" t="n">
-        <v>1167964938.271641</v>
+        <v>1373101026.152607</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B254" t="n">
-        <v>18140210000000</v>
+        <v>20934590000000</v>
       </c>
       <c r="C254" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D254" t="n">
-        <v>1202952899.316959</v>
+        <v>1399358558.738193</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B255" t="n">
-        <v>19021940000000</v>
+        <v>21549030000000</v>
       </c>
       <c r="C255" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D255" t="n">
-        <v>1271508758.604987</v>
+        <v>1440430386.408623</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B256" t="n">
-        <v>20582830000000</v>
+        <v>21575930000000</v>
       </c>
       <c r="C256" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D256" t="n">
-        <v>1373101026.152607</v>
+        <v>1442228498.778153</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B257" t="n">
-        <v>20934590000000</v>
+        <v>22200920000000</v>
       </c>
       <c r="C257" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D257" t="n">
-        <v>1399358558.738193</v>
+        <v>1477606836.926636</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B258" t="n">
-        <v>21549030000000</v>
+        <v>22763720000000</v>
       </c>
       <c r="C258" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D258" t="n">
-        <v>1440430386.408623</v>
+        <v>1515064614.704417</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B259" t="n">
-        <v>21575930000000</v>
+        <v>23226450000000</v>
       </c>
       <c r="C259" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.718000223189676e-05</v>
       </c>
       <c r="D259" t="n">
-        <v>1442228498.778153</v>
+        <v>1560352962.839038</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B260" t="n">
-        <v>22200920000000</v>
+        <v>24061610000000</v>
       </c>
       <c r="C260" t="n">
         <v>6.655610834716019e-05</v>
       </c>
       <c r="D260" t="n">
-        <v>1477606836.926636</v>
+        <v>1601447122.167113</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B261" t="n">
-        <v>22763720000000</v>
+        <v>24346290000000</v>
       </c>
       <c r="C261" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D261" t="n">
-        <v>1515064614.704417</v>
+        <v>1614503919.365403</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B262" t="n">
-        <v>23226450000000</v>
+        <v>24800170000000</v>
       </c>
       <c r="C262" t="n">
-        <v>6.718000223189676e-05</v>
+        <v>6.691119261977329e-05</v>
       </c>
       <c r="D262" t="n">
-        <v>1560352962.839038</v>
+        <v>1659408951.873123</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B263" t="n">
-        <v>24061610000000</v>
+        <v>25511190000000</v>
       </c>
       <c r="C263" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D263" t="n">
-        <v>1601447122.167113</v>
+        <v>1690077735.226378</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B264" t="n">
-        <v>24346290000000</v>
+        <v>25840040000000</v>
       </c>
       <c r="C264" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.618293755494739e-05</v>
       </c>
       <c r="D264" t="n">
-        <v>1614503919.365403</v>
+        <v>1710169753.737343</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B265" t="n">
-        <v>24800170000000</v>
+        <v>26234380000000</v>
       </c>
       <c r="C265" t="n">
-        <v>6.691119261977329e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D265" t="n">
-        <v>1659408951.873123</v>
+        <v>1739711033.267136</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B266" t="n">
-        <v>25511190000000</v>
+        <v>26321180000000</v>
       </c>
       <c r="C266" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D266" t="n">
-        <v>1690077735.226378</v>
+        <v>1743162855.88517</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B267" t="n">
-        <v>25840040000000</v>
+        <v>26458570000000</v>
       </c>
       <c r="C267" t="n">
-        <v>6.618293755494739e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D267" t="n">
-        <v>1710169753.737343</v>
+        <v>1752840226.697719</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B268" t="n">
-        <v>26234380000000</v>
+        <v>26313170000000</v>
       </c>
       <c r="C268" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.622662266225035e-05</v>
       </c>
       <c r="D268" t="n">
-        <v>1739711033.267136</v>
+        <v>1742632380.637646</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B269" t="n">
-        <v>26321180000000</v>
+        <v>26249910000000</v>
       </c>
       <c r="C269" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.624848684935425e-05</v>
       </c>
       <c r="D269" t="n">
-        <v>1743162855.88517</v>
+        <v>1739016817.431733</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B270" t="n">
-        <v>26458570000000</v>
+        <v>26467610000000</v>
       </c>
       <c r="C270" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D270" t="n">
-        <v>1752840226.697719</v>
+        <v>1754018188.022635</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B271" t="n">
-        <v>26313170000000</v>
+        <v>26506600000000</v>
       </c>
       <c r="C271" t="n">
-        <v>6.622662266225035e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D271" t="n">
-        <v>1742632380.637646</v>
+        <v>1757182380.795465</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B272" t="n">
-        <v>26249910000000</v>
+        <v>26607700000000</v>
       </c>
       <c r="C272" t="n">
-        <v>6.624848684935425e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D272" t="n">
-        <v>1739016817.431733</v>
+        <v>1763884528.136068</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B273" t="n">
-        <v>26467610000000</v>
+        <v>26722350000000</v>
       </c>
       <c r="C273" t="n">
         <v>6.627036547775318e-05</v>
       </c>
       <c r="D273" t="n">
-        <v>1754018188.022635</v>
+        <v>1770899900.924438</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B274" t="n">
-        <v>26506600000000</v>
+        <v>26612570000000</v>
       </c>
       <c r="C274" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D274" t="n">
-        <v>1757182380.795465</v>
+        <v>1764790387.750501</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B275" t="n">
-        <v>26607700000000</v>
+        <v>25233460000000</v>
       </c>
       <c r="C275" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D275" t="n">
-        <v>1763884528.136068</v>
+        <v>1672230616.468266</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B276" t="n">
-        <v>26722350000000</v>
+        <v>24956870000000</v>
       </c>
       <c r="C276" t="n">
         <v>6.627036547775318e-05</v>
       </c>
       <c r="D276" t="n">
-        <v>1770899900.924438</v>
+        <v>1653900896.080774</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B277" t="n">
-        <v>26612570000000</v>
+        <v>25977980000000</v>
       </c>
       <c r="C277" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D277" t="n">
-        <v>1764790387.750501</v>
+        <v>1722708081.075024</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B278" t="n">
-        <v>25233460000000</v>
+        <v>26065820000000</v>
       </c>
       <c r="C278" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D278" t="n">
-        <v>1672230616.468266</v>
+        <v>1728533117.426643</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B279" t="n">
-        <v>24956870000000</v>
+        <v>23085570000000</v>
       </c>
       <c r="C279" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D279" t="n">
-        <v>1653900896.080774</v>
+        <v>1530394575.487628</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B280" t="n">
-        <v>25977980000000</v>
+        <v>17969100000000</v>
       </c>
       <c r="C280" t="n">
         <v>6.631416611588062e-05</v>
       </c>
       <c r="D280" t="n">
-        <v>1722708081.075024</v>
+        <v>1191605882.35287</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B281" t="n">
-        <v>26065820000000</v>
+        <v>18948790000000</v>
       </c>
       <c r="C281" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.629225856184744e-05</v>
       </c>
       <c r="D281" t="n">
-        <v>1728533117.426643</v>
+        <v>1256158086.114149</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B282" t="n">
-        <v>23085570000000</v>
+        <v>20547460000000</v>
       </c>
       <c r="C282" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D282" t="n">
-        <v>1530394575.487628</v>
+        <v>1366199571.460541</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B283" t="n">
-        <v>17969100000000</v>
+        <v>21781700000000</v>
       </c>
       <c r="C283" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D283" t="n">
-        <v>1191605882.35287</v>
+        <v>1451149114.652369</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B284" t="n">
-        <v>18948790000000</v>
+        <v>22896430000000</v>
       </c>
       <c r="C284" t="n">
-        <v>6.629225856184744e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D284" t="n">
-        <v>1256158086.114149</v>
+        <v>1524402882.105452</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B285" t="n">
-        <v>20547460000000</v>
+        <v>23253720000000</v>
       </c>
       <c r="C285" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D285" t="n">
-        <v>1366199571.460541</v>
+        <v>1552827447.587189</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B286" t="n">
-        <v>21781700000000</v>
+        <v>23524610000000</v>
       </c>
       <c r="C286" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D286" t="n">
-        <v>1451149114.652369</v>
+        <v>1570394235.972785</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B287" t="n">
-        <v>22896430000000</v>
+        <v>23811020000000</v>
       </c>
       <c r="C287" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D287" t="n">
-        <v>1524402882.105452</v>
+        <v>1589513643.823753</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B288" t="n">
-        <v>23253720000000</v>
+        <v>24124680000000</v>
       </c>
       <c r="C288" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D288" t="n">
-        <v>1552827447.587189</v>
+        <v>1611524340.879268</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B289" t="n">
-        <v>23524610000000</v>
+        <v>24464500000000</v>
       </c>
       <c r="C289" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D289" t="n">
-        <v>1570394235.972785</v>
+        <v>1628802145.542726</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B290" t="n">
-        <v>23811020000000</v>
+        <v>24893160000000</v>
       </c>
       <c r="C290" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.67775929007139e-05</v>
       </c>
       <c r="D290" t="n">
-        <v>1589513643.823753</v>
+        <v>1662305304.492335</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B291" t="n">
-        <v>24124680000000</v>
+        <v>25225730000000</v>
       </c>
       <c r="C291" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D291" t="n">
-        <v>1611524340.879268</v>
+        <v>1679483461.62323</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B292" t="n">
-        <v>24464500000000</v>
+        <v>25401630000000</v>
       </c>
       <c r="C292" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D292" t="n">
-        <v>1628802145.542726</v>
+        <v>1694567958.77675</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B293" t="n">
-        <v>24893160000000</v>
+        <v>25603820000000</v>
       </c>
       <c r="C293" t="n">
-        <v>6.67775929007139e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D293" t="n">
-        <v>1662305304.492335</v>
+        <v>1704656009.732051</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B294" t="n">
-        <v>25225730000000</v>
+        <v>25847660000000</v>
       </c>
       <c r="C294" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D294" t="n">
-        <v>1679483461.62323</v>
+        <v>1725470317.143805</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B295" t="n">
-        <v>25401630000000</v>
+        <v>26223500000000</v>
       </c>
       <c r="C295" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D295" t="n">
-        <v>1694567958.77675</v>
+        <v>1745913182.923815</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B296" t="n">
-        <v>25603820000000</v>
+        <v>23982370000000</v>
       </c>
       <c r="C296" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D296" t="n">
-        <v>1704656009.732051</v>
+        <v>1599356014.179223</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B297" t="n">
-        <v>25847660000000</v>
+        <v>23284920000000</v>
       </c>
       <c r="C297" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D297" t="n">
-        <v>1725470317.143805</v>
+        <v>1550267843.397197</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B298" t="n">
-        <v>26223500000000</v>
+        <v>23987690000000</v>
       </c>
       <c r="C298" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D298" t="n">
-        <v>1745913182.923815</v>
+        <v>1591775725.308691</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B299" t="n">
-        <v>23982370000000</v>
+        <v>24614720000000</v>
       </c>
       <c r="C299" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D299" t="n">
-        <v>1599356014.179223</v>
+        <v>1633384197.530915</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B300" t="n">
-        <v>23284920000000</v>
+        <v>24175580000000</v>
       </c>
       <c r="C300" t="n">
         <v>6.657819066576983e-05</v>
       </c>
       <c r="D300" t="n">
-        <v>1550267843.397197</v>
+        <v>1609566374.695572</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B301" t="n">
-        <v>23987690000000</v>
+        <v>23477280000000</v>
       </c>
       <c r="C301" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D301" t="n">
-        <v>1591775725.308691</v>
+        <v>1557905925.925974</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B302" t="n">
-        <v>24614720000000</v>
+        <v>23219250000000</v>
       </c>
       <c r="C302" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D302" t="n">
-        <v>1633384197.530915</v>
+        <v>1541293251.736291</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B303" t="n">
-        <v>24175580000000</v>
+        <v>23462820000000</v>
       </c>
       <c r="C303" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D303" t="n">
-        <v>1609566374.695572</v>
+        <v>1557976796.823485</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B304" t="n">
-        <v>23477280000000</v>
+        <v>23705520000000</v>
       </c>
       <c r="C304" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.637997574152013e-05</v>
       </c>
       <c r="D304" t="n">
-        <v>1557905925.925974</v>
+        <v>1573571842.54012</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B305" t="n">
-        <v>23219250000000</v>
+        <v>24071860000000</v>
       </c>
       <c r="C305" t="n">
         <v>6.637997574152013e-05</v>
       </c>
       <c r="D305" t="n">
-        <v>1541293251.736291</v>
+        <v>1597889482.853269</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B306" t="n">
-        <v>23462820000000</v>
+        <v>24464060000000</v>
       </c>
       <c r="C306" t="n">
         <v>6.64019413192227e-05</v>
       </c>
       <c r="D306" t="n">
-        <v>1557976796.823485</v>
+        <v>1624461076.549943</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B307" t="n">
-        <v>23705520000000</v>
+        <v>24575480000000</v>
       </c>
       <c r="C307" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D307" t="n">
-        <v>1573571842.54012</v>
+        <v>1629702463.097502</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B308" t="n">
-        <v>24071860000000</v>
+        <v>24822990000000</v>
       </c>
       <c r="C308" t="n">
-        <v>6.637997574152013e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D308" t="n">
-        <v>1597889482.853269</v>
+        <v>1657068083.832637</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B309" t="n">
-        <v>24464060000000</v>
+        <v>24961820000000</v>
       </c>
       <c r="C309" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D309" t="n">
-        <v>1624461076.549943</v>
+        <v>1654228934.389889</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B310" t="n">
-        <v>24575480000000</v>
+        <v>25030240000000</v>
       </c>
       <c r="C310" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D310" t="n">
-        <v>1629702463.097502</v>
+        <v>1660957283.950669</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B311" t="n">
-        <v>24822990000000</v>
+        <v>24923710000000</v>
       </c>
       <c r="C311" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D311" t="n">
-        <v>1657068083.832637</v>
+        <v>1653888163.580298</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B312" t="n">
-        <v>24961820000000</v>
+        <v>24524980000000</v>
       </c>
       <c r="C312" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D312" t="n">
-        <v>1654228934.389889</v>
+        <v>1626353597.70865</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B313" t="n">
-        <v>25030240000000</v>
+        <v>24830670000000</v>
       </c>
       <c r="C313" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D313" t="n">
-        <v>1660957283.950669</v>
+        <v>1647714212.963014</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B314" t="n">
-        <v>24923710000000</v>
+        <v>24957840000000</v>
       </c>
       <c r="C314" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D314" t="n">
-        <v>1653888163.580298</v>
+        <v>1656152962.963014</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B315" t="n">
-        <v>24524980000000</v>
+        <v>25479600000000</v>
       </c>
       <c r="C315" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D315" t="n">
-        <v>1626353597.70865</v>
+        <v>1690775925.925978</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B316" t="n">
-        <v>24830670000000</v>
+        <v>25878110000000</v>
       </c>
       <c r="C316" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D316" t="n">
-        <v>1647714212.963014</v>
+        <v>1717220262.345732</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B317" t="n">
-        <v>24957840000000</v>
+        <v>26908910000000</v>
       </c>
       <c r="C317" t="n">
         <v>6.635802469136007e-05</v>
       </c>
       <c r="D317" t="n">
-        <v>1656152962.963014</v>
+        <v>1785622114.197586</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B318" t="n">
-        <v>25479600000000</v>
+        <v>27793650000000</v>
       </c>
       <c r="C318" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.702293475840972e-05</v>
       </c>
       <c r="D318" t="n">
-        <v>1690775925.925978</v>
+        <v>1862811990.648074</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B319" t="n">
-        <v>25878110000000</v>
+        <v>29097550000000</v>
       </c>
       <c r="C319" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D319" t="n">
-        <v>1717220262.345732</v>
+        <v>1937262231.806771</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B320" t="n">
-        <v>26908910000000</v>
+        <v>30564230000000</v>
       </c>
       <c r="C320" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D320" t="n">
-        <v>1785622114.197586</v>
+        <v>2043045354.207684</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B321" t="n">
-        <v>27793650000000</v>
+        <v>32084790000000</v>
       </c>
       <c r="C321" t="n">
-        <v>6.702293475840972e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D321" t="n">
-        <v>1862811990.648074</v>
+        <v>2147547651.767582</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B322" t="n">
-        <v>29097550000000</v>
+        <v>33356930000000</v>
       </c>
       <c r="C322" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D322" t="n">
-        <v>1937262231.806771</v>
+        <v>2228237001.776019</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B323" t="n">
-        <v>30564230000000</v>
+        <v>34821360000000</v>
       </c>
       <c r="C323" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D323" t="n">
-        <v>2043045354.207684</v>
+        <v>2329162079.999503</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B324" t="n">
-        <v>32084790000000</v>
+        <v>35985470000000</v>
       </c>
       <c r="C324" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D324" t="n">
-        <v>2147547651.767582</v>
+        <v>2403823007.102298</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B325" t="n">
-        <v>33356930000000</v>
+        <v>37324710000000</v>
       </c>
       <c r="C325" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D325" t="n">
-        <v>2228237001.776019</v>
+        <v>2493284001.332239</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B326" t="n">
-        <v>34821360000000</v>
+        <v>38308190000000</v>
       </c>
       <c r="C326" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D326" t="n">
-        <v>2329162079.999503</v>
+        <v>2558980290.724178</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B327" t="n">
-        <v>35985470000000</v>
+        <v>39541860000000</v>
       </c>
       <c r="C327" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D327" t="n">
-        <v>2403823007.102298</v>
+        <v>2641389227.697126</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B328" t="n">
-        <v>37324710000000</v>
+        <v>40487280000000</v>
       </c>
       <c r="C328" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D328" t="n">
-        <v>2493284001.332239</v>
+        <v>2704543115.846278</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B329" t="n">
-        <v>38308190000000</v>
+        <v>41862090000000</v>
       </c>
       <c r="C329" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D329" t="n">
-        <v>2558980290.724178</v>
+        <v>2796380179.761083</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B330" t="n">
-        <v>39541860000000</v>
+        <v>42442800000000</v>
       </c>
       <c r="C330" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D330" t="n">
-        <v>2641389227.697126</v>
+        <v>2833285163.007834</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B331" t="n">
-        <v>40487280000000</v>
+        <v>43826040000000</v>
       </c>
       <c r="C331" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D331" t="n">
-        <v>2704543115.846278</v>
+        <v>2927571691.079361</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B332" t="n">
-        <v>41862090000000</v>
+        <v>45386060000000</v>
       </c>
       <c r="C332" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D332" t="n">
-        <v>2796380179.761083</v>
+        <v>3031780750.111791</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B333" t="n">
-        <v>42442800000000</v>
+        <v>46600160000000</v>
       </c>
       <c r="C333" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D333" t="n">
-        <v>2833285163.007834</v>
+        <v>3112882414.559216</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B334" t="n">
-        <v>43826040000000</v>
+        <v>47584650000000</v>
       </c>
       <c r="C334" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D334" t="n">
-        <v>2927571691.079361</v>
+        <v>3178646171.77184</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B335" t="n">
-        <v>45386060000000</v>
+        <v>48778830000000</v>
       </c>
       <c r="C335" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D335" t="n">
-        <v>3031780750.111791</v>
+        <v>3256249241.517558</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B336" t="n">
-        <v>46600160000000</v>
+        <v>50035990000000</v>
       </c>
       <c r="C336" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D336" t="n">
-        <v>3112882414.559216</v>
+        <v>3342395248.558391</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B337" t="n">
-        <v>47584650000000</v>
+        <v>51489410000000</v>
       </c>
       <c r="C337" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D337" t="n">
-        <v>3178646171.77184</v>
+        <v>3439483446.516695</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B338" t="n">
-        <v>48778830000000</v>
+        <v>52420350000000</v>
       </c>
       <c r="C338" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D338" t="n">
-        <v>3256249241.517558</v>
+        <v>3504002964.689141</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B339" t="n">
-        <v>50035990000000</v>
+        <v>53396860000000</v>
       </c>
       <c r="C339" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D339" t="n">
-        <v>3342395248.558391</v>
+        <v>3566900767.866043</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B340" t="n">
-        <v>51489410000000</v>
+        <v>54615810000000</v>
       </c>
       <c r="C340" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D340" t="n">
-        <v>3439483446.516695</v>
+        <v>3650757008.659782</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B341" t="n">
-        <v>52420350000000</v>
+        <v>55356080000000</v>
       </c>
       <c r="C341" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D341" t="n">
-        <v>3504002964.689141</v>
+        <v>3707650218.06842</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B342" t="n">
-        <v>53396860000000</v>
+        <v>56432090000000</v>
       </c>
       <c r="C342" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D342" t="n">
-        <v>3566900767.866043</v>
+        <v>3767145506.764934</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B343" t="n">
-        <v>54615810000000</v>
+        <v>57319560000000</v>
       </c>
       <c r="C343" t="n">
         <v>6.68443260048653e-05</v>
       </c>
       <c r="D343" t="n">
-        <v>3650757008.659782</v>
+        <v>3831487355.095437</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B344" t="n">
-        <v>55356080000000</v>
+        <v>57796560000000</v>
       </c>
       <c r="C344" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D344" t="n">
-        <v>3707650218.06842</v>
+        <v>3863372098.599758</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B345" t="n">
-        <v>56432090000000</v>
+        <v>58468430000000</v>
       </c>
       <c r="C345" t="n">
         <v>6.675537813263578e-05</v>
       </c>
       <c r="D345" t="n">
-        <v>3767145506.764934</v>
+        <v>3903082153.471546</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B346" t="n">
-        <v>57319560000000</v>
+        <v>59276770000000</v>
       </c>
       <c r="C346" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D346" t="n">
-        <v>3831487355.095437</v>
+        <v>3957043195.831281</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B347" t="n">
-        <v>57796560000000</v>
+        <v>59265310000000</v>
       </c>
       <c r="C347" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D347" t="n">
-        <v>3863372098.599758</v>
+        <v>3964190735.55471</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B348" t="n">
-        <v>58468430000000</v>
+        <v>59253590000000</v>
       </c>
       <c r="C348" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.697819314641536e-05</v>
       </c>
       <c r="D348" t="n">
-        <v>3903082153.471546</v>
+        <v>3968698395.638506</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B349" t="n">
-        <v>59276770000000</v>
+        <v>59401860000000</v>
       </c>
       <c r="C349" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D349" t="n">
-        <v>3957043195.831281</v>
+        <v>3973324413.332486</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B350" t="n">
-        <v>59265310000000</v>
+        <v>55963380000000</v>
       </c>
       <c r="C350" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D350" t="n">
-        <v>3964190735.55471</v>
+        <v>3743328306.665868</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B351" t="n">
-        <v>59253590000000</v>
+        <v>55824410000000</v>
       </c>
       <c r="C351" t="n">
-        <v>6.697819314641536e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D351" t="n">
-        <v>3968698395.638506</v>
+        <v>3731545061.069263</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B352" t="n">
-        <v>59401860000000</v>
+        <v>55989420000000</v>
       </c>
       <c r="C352" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D352" t="n">
-        <v>3973324413.332486</v>
+        <v>3745070093.332534</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B353" t="n">
-        <v>55963380000000</v>
+        <v>56497980000000</v>
       </c>
       <c r="C353" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D353" t="n">
-        <v>3743328306.665868</v>
+        <v>3779087106.66586</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B354" t="n">
-        <v>55824410000000</v>
+        <v>56103250000000</v>
       </c>
       <c r="C354" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D354" t="n">
-        <v>3731545061.069263</v>
+        <v>3727831843.267898</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B355" t="n">
-        <v>55989420000000</v>
+        <v>55196860000000</v>
       </c>
       <c r="C355" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.631416611588062e-05</v>
       </c>
       <c r="D355" t="n">
-        <v>3745070093.332534</v>
+        <v>3660333743.115006</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B356" t="n">
-        <v>56497980000000</v>
+        <v>55541890000000</v>
       </c>
       <c r="C356" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.627036547775318e-05</v>
       </c>
       <c r="D356" t="n">
-        <v>3779087106.66586</v>
+        <v>3680781349.625165</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B357" t="n">
-        <v>56103250000000</v>
+        <v>56307070000000</v>
       </c>
       <c r="C357" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D357" t="n">
-        <v>3727831843.267898</v>
+        <v>3753804666.666667</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B358" t="n">
-        <v>55196860000000</v>
+        <v>56805410000000</v>
       </c>
       <c r="C358" t="n">
-        <v>6.631416611588062e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D358" t="n">
-        <v>3660333743.115006</v>
+        <v>3787027333.333333</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B359" t="n">
-        <v>55541890000000</v>
+        <v>57133730000000</v>
       </c>
       <c r="C359" t="n">
-        <v>6.627036547775318e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D359" t="n">
-        <v>3680781349.625165</v>
+        <v>3813983750.277917</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B360" t="n">
-        <v>56307070000000</v>
+        <v>57917370000000</v>
       </c>
       <c r="C360" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D360" t="n">
-        <v>3753804666.666667</v>
+        <v>3874028526.66584</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B361" t="n">
-        <v>56805410000000</v>
+        <v>58643000000000</v>
       </c>
       <c r="C361" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D361" t="n">
-        <v>3787027333.333333</v>
+        <v>3912132757.092554</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B362" t="n">
-        <v>57133730000000</v>
+        <v>58932610000000</v>
       </c>
       <c r="C362" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D362" t="n">
-        <v>3813983750.277917</v>
+        <v>3941936802.221381</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B363" t="n">
-        <v>57917370000000</v>
+        <v>59485810000000</v>
       </c>
       <c r="C363" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D363" t="n">
-        <v>3874028526.66584</v>
+        <v>3978939735.554707</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B364" t="n">
-        <v>58643000000000</v>
+        <v>60356990000000</v>
       </c>
       <c r="C364" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.679982245896187e-05</v>
       </c>
       <c r="D364" t="n">
-        <v>3912132757.092554</v>
+        <v>4031836216.157337</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B365" t="n">
-        <v>58932610000000</v>
+        <v>60999030000000</v>
       </c>
       <c r="C365" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D365" t="n">
-        <v>3941936802.221381</v>
+        <v>4072013313.373994</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B366" t="n">
-        <v>59485810000000</v>
+        <v>61421480000000</v>
       </c>
       <c r="C366" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.69335112297005e-05</v>
       </c>
       <c r="D366" t="n">
-        <v>3978939735.554707</v>
+        <v>4111155321.324825</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B367" t="n">
-        <v>60356990000000</v>
+        <v>61807340000000</v>
       </c>
       <c r="C367" t="n">
         <v>6.679982245896187e-05</v>
       </c>
       <c r="D367" t="n">
-        <v>4031836216.157337</v>
+        <v>4128719338.660692</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B368" t="n">
-        <v>60999030000000</v>
+        <v>62091550000000</v>
       </c>
       <c r="C368" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D368" t="n">
-        <v>4072013313.373994</v>
+        <v>4153234788.888003</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B369" t="n">
-        <v>61421480000000</v>
+        <v>62758720000000</v>
       </c>
       <c r="C369" t="n">
-        <v>6.69335112297005e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D369" t="n">
-        <v>4111155321.324825</v>
+        <v>4197861048.887993</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B370" t="n">
-        <v>61807340000000</v>
+        <v>63023640000000</v>
       </c>
       <c r="C370" t="n">
-        <v>6.679982245896187e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D370" t="n">
-        <v>4128719338.660692</v>
+        <v>4215581253.332434</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B371" t="n">
-        <v>62091550000000</v>
+        <v>63784670000000</v>
       </c>
       <c r="C371" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D371" t="n">
-        <v>4153234788.888003</v>
+        <v>4266485704.443534</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B372" t="n">
-        <v>62758720000000</v>
+        <v>64331000000000</v>
       </c>
       <c r="C372" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D372" t="n">
-        <v>4197861048.887993</v>
+        <v>4303029111.110193</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B373" t="n">
-        <v>63023640000000</v>
+        <v>65077030000000</v>
       </c>
       <c r="C373" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D373" t="n">
-        <v>4215581253.332434</v>
+        <v>4352930228.88796</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B374" t="n">
-        <v>63784670000000</v>
+        <v>65240180000000</v>
       </c>
       <c r="C374" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D374" t="n">
-        <v>4266485704.443534</v>
+        <v>4360935860.536093</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B375" t="n">
-        <v>64331000000000</v>
+        <v>65755649999999.99</v>
       </c>
       <c r="C375" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D375" t="n">
-        <v>4303029111.110193</v>
+        <v>4398322366.665728</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B376" t="n">
-        <v>65077030000000</v>
+        <v>65970179999999.99</v>
       </c>
       <c r="C376" t="n">
         <v>6.688888888887462e-05</v>
       </c>
       <c r="D376" t="n">
-        <v>4352930228.88796</v>
+        <v>4412672039.999058</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B377" t="n">
-        <v>65240180000000</v>
+        <v>66217750000000</v>
       </c>
       <c r="C377" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.688888888887462e-05</v>
       </c>
       <c r="D377" t="n">
-        <v>4360935860.536093</v>
+        <v>4429231722.221277</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B378" t="n">
-        <v>65755649999999.99</v>
+        <v>66577300000000</v>
       </c>
       <c r="C378" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D378" t="n">
-        <v>4398322366.665728</v>
+        <v>4423789690.950165</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B379" t="n">
-        <v>65970179999999.99</v>
+        <v>66638700000000</v>
       </c>
       <c r="C379" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D379" t="n">
-        <v>4412672039.999058</v>
+        <v>4436684074.319036</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B380" t="n">
-        <v>66217750000000</v>
+        <v>66594399999999.99</v>
       </c>
       <c r="C380" t="n">
-        <v>6.688888888887462e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D380" t="n">
-        <v>4429231722.221277</v>
+        <v>4430794518.124348</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B381" t="n">
-        <v>66577300000000</v>
+        <v>66964800000000</v>
       </c>
       <c r="C381" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D381" t="n">
-        <v>4423789690.950165</v>
+        <v>4455438726.78924</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B382" t="n">
-        <v>66638700000000</v>
+        <v>67073300000000</v>
       </c>
       <c r="C382" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D382" t="n">
-        <v>4436684074.319036</v>
+        <v>4462657670.202147</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B383" t="n">
-        <v>66594399999999.99</v>
+        <v>67415200000000</v>
       </c>
       <c r="C383" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D383" t="n">
-        <v>4430794518.124348</v>
+        <v>4497334929.078423</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B384" t="n">
-        <v>66964800000000</v>
+        <v>67910000000000</v>
       </c>
       <c r="C384" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D384" t="n">
-        <v>4455438726.78924</v>
+        <v>4527333333.333334</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B385" t="n">
-        <v>67073300000000</v>
+        <v>68749399999999.99</v>
       </c>
       <c r="C385" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D385" t="n">
-        <v>4462657670.202147</v>
+        <v>4595507306.238886</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B386" t="n">
-        <v>67415200000000</v>
+        <v>68948500000000</v>
       </c>
       <c r="C386" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.68443260048653e-05</v>
       </c>
       <c r="D386" t="n">
-        <v>4497334929.078423</v>
+        <v>4608816011.546455</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B387" t="n">
-        <v>67910000000000</v>
+        <v>69422000000000</v>
       </c>
       <c r="C387" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D387" t="n">
-        <v>4527333333.333334</v>
+        <v>4634291860.723841</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B388" t="n">
-        <v>68749399999999.99</v>
+        <v>69851800000000</v>
       </c>
       <c r="C388" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D388" t="n">
-        <v>4595507306.238886</v>
+        <v>4662983322.245248</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B389" t="n">
-        <v>68948500000000</v>
+        <v>70190100000000.01</v>
       </c>
       <c r="C389" t="n">
-        <v>6.68443260048653e-05</v>
+        <v>6.662239929171596e-05</v>
       </c>
       <c r="D389" t="n">
-        <v>4608816011.546455</v>
+        <v>4676232868.525473</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B390" t="n">
-        <v>69422000000000</v>
+        <v>71150500000000</v>
       </c>
       <c r="C390" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D390" t="n">
-        <v>4634291860.723841</v>
+        <v>4727660154.526388</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B391" t="n">
-        <v>69851800000000</v>
+        <v>70691500000000</v>
       </c>
       <c r="C391" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D391" t="n">
-        <v>4662983322.245248</v>
+        <v>4706512165.449268</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B392" t="n">
-        <v>70190100000000.01</v>
+        <v>71280600000000</v>
       </c>
       <c r="C392" t="n">
-        <v>6.662239929171596e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D392" t="n">
-        <v>4676232868.525473</v>
+        <v>4736304768.212924</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B393" t="n">
-        <v>71150500000000</v>
+        <v>71571300000000</v>
       </c>
       <c r="C393" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.64019413192227e-05</v>
       </c>
       <c r="D393" t="n">
-        <v>4727660154.526388</v>
+        <v>4752473262.740483</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B394" t="n">
-        <v>70691500000000</v>
+        <v>72207200000000</v>
       </c>
       <c r="C394" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D394" t="n">
-        <v>4706512165.449268</v>
+        <v>4797873554.084902</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B395" t="n">
-        <v>71280600000000</v>
+        <v>72090500000000</v>
       </c>
       <c r="C395" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D395" t="n">
-        <v>4736304768.212924</v>
+        <v>4790119315.674304</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B396" t="n">
-        <v>71571300000000</v>
+        <v>72460400000000</v>
       </c>
       <c r="C396" t="n">
-        <v>6.64019413192227e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D396" t="n">
-        <v>4752473262.740483</v>
+        <v>4808329012.345827</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B397" t="n">
-        <v>72207200000000</v>
+        <v>73400300000000</v>
       </c>
       <c r="C397" t="n">
         <v>6.644591611480437e-05</v>
       </c>
       <c r="D397" t="n">
-        <v>4797873554.084902</v>
+        <v>4877150176.601475</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B398" t="n">
-        <v>72090500000000</v>
+        <v>73368000000000</v>
       </c>
       <c r="C398" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D398" t="n">
-        <v>4790119315.674304</v>
+        <v>4881469496.019894</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B399" t="n">
-        <v>72460400000000</v>
+        <v>73881800000000</v>
       </c>
       <c r="C399" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D399" t="n">
-        <v>4808329012.345827</v>
+        <v>4912397128.342551</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B400" t="n">
-        <v>73400300000000</v>
+        <v>74538100000000</v>
       </c>
       <c r="C400" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.671099290780748e-05</v>
       </c>
       <c r="D400" t="n">
-        <v>4877150176.601475</v>
+        <v>4972510660.461445</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B401" t="n">
-        <v>73368000000000</v>
+        <v>75394600000000</v>
       </c>
       <c r="C401" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D401" t="n">
-        <v>4881469496.019894</v>
+        <v>5026306666.666667</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B402" t="n">
-        <v>73881800000000</v>
+        <v>75768200000000</v>
       </c>
       <c r="C402" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D402" t="n">
-        <v>4912397128.342551</v>
+        <v>5051213333.333334</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B403" t="n">
-        <v>74538100000000</v>
+        <v>76270100000000</v>
       </c>
       <c r="C403" t="n">
-        <v>6.671099290780748e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D403" t="n">
-        <v>4972510660.461445</v>
+        <v>5084673333.333334</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B404" t="n">
-        <v>75394600000000</v>
+        <v>76486000000000</v>
       </c>
       <c r="C404" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D404" t="n">
-        <v>5026306666.666667</v>
+        <v>5105851851.85278</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B405" t="n">
-        <v>75768200000000</v>
+        <v>77001500000000</v>
       </c>
       <c r="C405" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D405" t="n">
-        <v>5051213333.333334</v>
+        <v>5140264249.280154</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B406" t="n">
-        <v>76270100000000</v>
+        <v>77702300000000</v>
       </c>
       <c r="C406" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D406" t="n">
-        <v>5084673333.333334</v>
+        <v>5178432923.725613</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B407" t="n">
-        <v>76486000000000</v>
+        <v>77842000000000</v>
       </c>
       <c r="C407" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D407" t="n">
-        <v>5105851851.85278</v>
+        <v>5187398600.777648</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B408" t="n">
-        <v>77001500000000</v>
+        <v>78010600000000</v>
       </c>
       <c r="C408" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.66312480630314e-05</v>
       </c>
       <c r="D408" t="n">
-        <v>5140264249.280154</v>
+        <v>5197943640.145917</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B409" t="n">
-        <v>77702300000000</v>
+        <v>78620200000000</v>
       </c>
       <c r="C409" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.635802469136007e-05</v>
       </c>
       <c r="D409" t="n">
-        <v>5178432923.725613</v>
+        <v>5217081172.839667</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B410" t="n">
-        <v>77842000000000</v>
+        <v>78746000000000</v>
       </c>
       <c r="C410" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.655610834716019e-05</v>
       </c>
       <c r="D410" t="n">
-        <v>5187398600.777648</v>
+        <v>5241027307.905476</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B411" t="n">
-        <v>78010600000000</v>
+        <v>78826400000000</v>
       </c>
       <c r="C411" t="n">
-        <v>6.66312480630314e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D411" t="n">
-        <v>5197943640.145917</v>
+        <v>5249860913.818933</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B412" t="n">
-        <v>78620200000000</v>
+        <v>79179500000000</v>
       </c>
       <c r="C412" t="n">
-        <v>6.635802469136007e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D412" t="n">
-        <v>5217081172.839667</v>
+        <v>5276880216.983695</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B413" t="n">
-        <v>78746000000000</v>
+        <v>79579600000000</v>
       </c>
       <c r="C413" t="n">
-        <v>6.655610834716019e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D413" t="n">
-        <v>5241027307.905476</v>
+        <v>5291243560.858681</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B414" t="n">
-        <v>78826400000000</v>
+        <v>79870500000000</v>
       </c>
       <c r="C414" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D414" t="n">
-        <v>5249860913.818933</v>
+        <v>5324700000</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B415" t="n">
-        <v>79179500000000</v>
+        <v>80272500000000</v>
       </c>
       <c r="C415" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D415" t="n">
-        <v>5276880216.983695</v>
+        <v>5350078052.346124</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B416" t="n">
-        <v>79579600000000</v>
+        <v>80371400000000</v>
       </c>
       <c r="C416" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D416" t="n">
-        <v>5291243560.858681</v>
+        <v>5359874022.375769</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B417" t="n">
-        <v>79870500000000</v>
+        <v>81397500000000</v>
       </c>
       <c r="C417" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.668882242160481e-05</v>
       </c>
       <c r="D417" t="n">
-        <v>5324700000</v>
+        <v>5428303423.062578</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B418" t="n">
-        <v>80272500000000</v>
+        <v>81663900000000</v>
       </c>
       <c r="C418" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.66932553399133e-05</v>
       </c>
       <c r="D418" t="n">
-        <v>5350078052.346124</v>
+        <v>5446431334.753145</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B419" t="n">
-        <v>80371400000000</v>
+        <v>81156300000000</v>
       </c>
       <c r="C419" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.660028764245144e-05</v>
       </c>
       <c r="D419" t="n">
-        <v>5359874022.375769</v>
+        <v>5405032923.997082</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B420" t="n">
-        <v>81397500000000</v>
+        <v>81593400000000</v>
       </c>
       <c r="C420" t="n">
-        <v>6.668882242160481e-05</v>
+        <v>6.661355287035969e-05</v>
       </c>
       <c r="D420" t="n">
-        <v>5428303423.062578</v>
+        <v>5435226264.772407</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B421" t="n">
-        <v>81663900000000</v>
+        <v>82428000000000</v>
       </c>
       <c r="C421" t="n">
-        <v>6.66932553399133e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D421" t="n">
-        <v>5446431334.753145</v>
+        <v>5493374958.487134</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B422" t="n">
-        <v>81156300000000</v>
+        <v>82377400000000</v>
       </c>
       <c r="C422" t="n">
-        <v>6.660028764245144e-05</v>
+        <v>6.665780848614462e-05</v>
       </c>
       <c r="D422" t="n">
-        <v>5405032923.997082</v>
+        <v>5491096952.78653</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B423" t="n">
-        <v>81593400000000</v>
+        <v>82874600000000</v>
       </c>
       <c r="C423" t="n">
-        <v>6.661355287035969e-05</v>
+        <v>6.656935598017958e-05</v>
       </c>
       <c r="D423" t="n">
-        <v>5435226264.772407</v>
+        <v>5516908749.114991</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B424" t="n">
-        <v>82428000000000</v>
+        <v>82632700000000</v>
       </c>
       <c r="C424" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D424" t="n">
-        <v>5493374958.487134</v>
+        <v>5506285603.593776</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B425" t="n">
-        <v>82377400000000</v>
+        <v>82707600000000</v>
       </c>
       <c r="C425" t="n">
-        <v>6.665780848614462e-05</v>
+        <v>6.651198762567775e-05</v>
       </c>
       <c r="D425" t="n">
-        <v>5491096952.78653</v>
+        <v>5501046867.749505</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B426" t="n">
-        <v>82874600000000</v>
+        <v>82605300000000</v>
       </c>
       <c r="C426" t="n">
-        <v>6.656935598017958e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D426" t="n">
-        <v>5516908749.114991</v>
+        <v>5504459786.144528</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B427" t="n">
-        <v>82632700000000</v>
+        <v>83108700000000</v>
       </c>
       <c r="C427" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D427" t="n">
-        <v>5506285603.593776</v>
+        <v>5538372011.156564</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B428" t="n">
-        <v>82707600000000</v>
+        <v>83114600000000</v>
       </c>
       <c r="C428" t="n">
-        <v>6.651198762567775e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D428" t="n">
-        <v>5501046867.749505</v>
+        <v>5538397334.571608</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B429" t="n">
-        <v>82605300000000</v>
+        <v>83694400000000</v>
       </c>
       <c r="C429" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.673317813988263e-05</v>
       </c>
       <c r="D429" t="n">
-        <v>5504459786.144528</v>
+        <v>5585193304.510593</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B430" t="n">
-        <v>83108700000000</v>
+        <v>83441700000000</v>
       </c>
       <c r="C430" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D430" t="n">
-        <v>5538372011.156564</v>
+        <v>5560932514.116512</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B431" t="n">
-        <v>83114600000000</v>
+        <v>82880400000000</v>
       </c>
       <c r="C431" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D431" t="n">
-        <v>5538397334.571608</v>
+        <v>5522791259.87767</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B432" t="n">
-        <v>83694400000000</v>
+        <v>78447700000000</v>
       </c>
       <c r="C432" t="n">
-        <v>6.673317813988263e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D432" t="n">
-        <v>5585193304.510593</v>
+        <v>5227762508.854149</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B433" t="n">
-        <v>83441700000000</v>
+        <v>79166200000000</v>
       </c>
       <c r="C433" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D433" t="n">
-        <v>5560932514.116512</v>
+        <v>5275293041.994581</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B434" t="n">
-        <v>82880400000000</v>
+        <v>79712000000000</v>
       </c>
       <c r="C434" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.66489526593307e-05</v>
       </c>
       <c r="D434" t="n">
-        <v>5522791259.87767</v>
+        <v>5312721314.380569</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B435" t="n">
-        <v>78447700000000</v>
+        <v>80568000000000</v>
       </c>
       <c r="C435" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.644591611480437e-05</v>
       </c>
       <c r="D435" t="n">
-        <v>5227762508.854149</v>
+        <v>5353414569.537559</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B436" t="n">
-        <v>79166200000000</v>
+        <v>80882000000000</v>
       </c>
       <c r="C436" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D436" t="n">
-        <v>5275293041.994581</v>
+        <v>5390342521.865827</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B437" t="n">
-        <v>79712000000000</v>
+        <v>80700400000000</v>
       </c>
       <c r="C437" t="n">
-        <v>6.66489526593307e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D437" t="n">
-        <v>5312721314.380569</v>
+        <v>5380026666.666667</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B438" t="n">
-        <v>80568000000000</v>
+        <v>81058300000000</v>
       </c>
       <c r="C438" t="n">
-        <v>6.644591611480437e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D438" t="n">
-        <v>5353414569.537559</v>
+        <v>5403886666.666667</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B439" t="n">
-        <v>80882000000000</v>
+        <v>81369200000000</v>
       </c>
       <c r="C439" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.664009918524251e-05</v>
       </c>
       <c r="D439" t="n">
-        <v>5390342521.865827</v>
+        <v>5422451558.623835</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B440" t="n">
-        <v>80700400000000</v>
+        <v>80767800000000</v>
       </c>
       <c r="C440" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D440" t="n">
-        <v>5380026666.666667</v>
+        <v>5373808090.184216</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B441" t="n">
-        <v>81058300000000</v>
+        <v>80216200000000</v>
       </c>
       <c r="C441" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.653404067195362e-05</v>
       </c>
       <c r="D441" t="n">
-        <v>5403886666.666667</v>
+        <v>5337107913.349566</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B442" t="n">
-        <v>81369200000000</v>
+        <v>79452900000000</v>
       </c>
       <c r="C442" t="n">
-        <v>6.664009918524251e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D442" t="n">
-        <v>5422451558.623835</v>
+        <v>5294397489.538354</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B443" t="n">
-        <v>80767800000000</v>
+        <v>78473400000000</v>
       </c>
       <c r="C443" t="n">
         <v>6.653404067195362e-05</v>
       </c>
       <c r="D443" t="n">
-        <v>5373808090.184216</v>
+        <v>5221152387.266485</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B444" t="n">
-        <v>80216200000000</v>
+        <v>77705900000000</v>
       </c>
       <c r="C444" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D444" t="n">
-        <v>5337107913.349566</v>
+        <v>5177984968.230466</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B445" t="n">
-        <v>79452900000000</v>
+        <v>76828000000000</v>
       </c>
       <c r="C445" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D445" t="n">
-        <v>5294397489.538354</v>
+        <v>5119485510.613869</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B446" t="n">
-        <v>78473400000000</v>
+        <v>75056000000000</v>
       </c>
       <c r="C446" t="n">
-        <v>6.653404067195362e-05</v>
+        <v>6.675537813263578e-05</v>
       </c>
       <c r="D446" t="n">
-        <v>5221152387.266485</v>
+        <v>5010391661.123111</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B447" t="n">
-        <v>77705900000000</v>
+        <v>75726000000000</v>
       </c>
       <c r="C447" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D447" t="n">
-        <v>5177984968.230466</v>
+        <v>5046052998.603971</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B448" t="n">
-        <v>76828000000000</v>
+        <v>75982700000000</v>
       </c>
       <c r="C448" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D448" t="n">
-        <v>5119485510.613869</v>
+        <v>5063830997.455237</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B449" t="n">
-        <v>75056000000000</v>
+        <v>75295800000000</v>
       </c>
       <c r="C449" t="n">
-        <v>6.675537813263578e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D449" t="n">
-        <v>5010391661.123111</v>
+        <v>5018052872.801178</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B450" t="n">
-        <v>75726000000000</v>
+        <v>74212800000000</v>
       </c>
       <c r="C450" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D450" t="n">
-        <v>5046052998.603971</v>
+        <v>4945219897.720687</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B451" t="n">
-        <v>75982700000000</v>
+        <v>74039300000000</v>
       </c>
       <c r="C451" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D451" t="n">
-        <v>5063830997.455237</v>
+        <v>4933658608.397894</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B452" t="n">
-        <v>75295800000000</v>
+        <v>73728700000000</v>
       </c>
       <c r="C452" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D452" t="n">
-        <v>5018052872.801178</v>
+        <v>4912961568.261529</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B453" t="n">
-        <v>74212800000000</v>
+        <v>73142500000000</v>
       </c>
       <c r="C453" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D453" t="n">
-        <v>4945219897.720687</v>
+        <v>4873899736.555356</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B454" t="n">
-        <v>74039300000000</v>
+        <v>70440500000000</v>
       </c>
       <c r="C454" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D454" t="n">
-        <v>4933658608.397894</v>
+        <v>4694473707.518233</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B455" t="n">
-        <v>73728700000000</v>
+        <v>69005000000000</v>
       </c>
       <c r="C455" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D455" t="n">
-        <v>4912961568.261529</v>
+        <v>4598805490.97885</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B456" t="n">
-        <v>73142500000000</v>
+        <v>66054100000000.01</v>
       </c>
       <c r="C456" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D456" t="n">
-        <v>4873899736.555356</v>
+        <v>4402144160.302385</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B457" t="n">
-        <v>70440500000000</v>
+        <v>63483800000000</v>
       </c>
       <c r="C457" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D457" t="n">
-        <v>4694473707.518233</v>
+        <v>4230847736.08004</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B458" t="n">
-        <v>69005000000000</v>
+        <v>61543000000000</v>
       </c>
       <c r="C458" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D458" t="n">
-        <v>4598805490.97885</v>
+        <v>4091990943.23075</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B459" t="n">
-        <v>66054100000000.01</v>
+        <v>59676600000000</v>
       </c>
       <c r="C459" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.648994919374665e-05</v>
       </c>
       <c r="D459" t="n">
-        <v>4402144160.302385</v>
+        <v>3967894102.055542</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B460" t="n">
-        <v>63483800000000</v>
+        <v>59697000000000</v>
       </c>
       <c r="C460" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D460" t="n">
-        <v>4230847736.08004</v>
+        <v>3978478246.430902</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B461" t="n">
-        <v>61543000000000</v>
+        <v>58242600000000</v>
       </c>
       <c r="C461" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D461" t="n">
-        <v>4091990943.23075</v>
+        <v>3881034867.502464</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B462" t="n">
-        <v>59676600000000</v>
+        <v>58466700000000</v>
       </c>
       <c r="C462" t="n">
-        <v>6.648994919374665e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D462" t="n">
-        <v>3967894102.055542</v>
+        <v>3896485486.55044</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B463" t="n">
-        <v>59697000000000</v>
+        <v>58829200000000</v>
       </c>
       <c r="C463" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D463" t="n">
-        <v>3978478246.430902</v>
+        <v>3920123353.477969</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B464" t="n">
-        <v>58242600000000</v>
+        <v>59170300000000</v>
       </c>
       <c r="C464" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D464" t="n">
-        <v>3881034867.502464</v>
+        <v>3939451515.150801</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B465" t="n">
-        <v>58466700000000</v>
+        <v>60614400000000</v>
       </c>
       <c r="C465" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D465" t="n">
-        <v>3896485486.55044</v>
+        <v>4039081357.507071</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B466" t="n">
-        <v>58829200000000</v>
+        <v>61723000000000</v>
       </c>
       <c r="C466" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D466" t="n">
-        <v>3920123353.477969</v>
+        <v>4113500055.35378</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B467" t="n">
-        <v>59170300000000</v>
+        <v>63409900000000</v>
       </c>
       <c r="C467" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D467" t="n">
-        <v>3939451515.150801</v>
+        <v>4225361382.301692</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B468" t="n">
-        <v>60614400000000</v>
+        <v>65311500000000</v>
       </c>
       <c r="C468" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D468" t="n">
-        <v>4039081357.507071</v>
+        <v>4352075778.706431</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B469" t="n">
-        <v>61723000000000</v>
+        <v>67510300000000</v>
       </c>
       <c r="C469" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D469" t="n">
-        <v>4113500055.35378</v>
+        <v>4498594297.224911</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B470" t="n">
-        <v>63409900000000</v>
+        <v>69303200000000</v>
       </c>
       <c r="C470" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D470" t="n">
-        <v>4225361382.301692</v>
+        <v>4618065395.938656</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B471" t="n">
-        <v>65311500000000</v>
+        <v>71601700000000</v>
       </c>
       <c r="C471" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D471" t="n">
-        <v>4352075778.706431</v>
+        <v>4771861330.677782</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B472" t="n">
-        <v>67510300000000</v>
+        <v>72300400000000</v>
       </c>
       <c r="C472" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D472" t="n">
-        <v>4498594297.224911</v>
+        <v>4818425860.734255</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B473" t="n">
-        <v>69303200000000</v>
+        <v>73248200000000</v>
       </c>
       <c r="C473" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D473" t="n">
-        <v>4618065395.938656</v>
+        <v>4880943127.22636</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B474" t="n">
-        <v>71601700000000</v>
+        <v>74312300000000</v>
       </c>
       <c r="C474" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.682206682206579e-05</v>
       </c>
       <c r="D474" t="n">
-        <v>4771861330.677782</v>
+        <v>4965701476.301399</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B475" t="n">
-        <v>72300400000000</v>
+        <v>75032100000000</v>
       </c>
       <c r="C475" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D475" t="n">
-        <v>4818425860.734255</v>
+        <v>4999814504.880133</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B476" t="n">
-        <v>73248200000000</v>
+        <v>74752200000000</v>
       </c>
       <c r="C476" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D476" t="n">
-        <v>4880943127.22636</v>
+        <v>4981163179.915006</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B477" t="n">
-        <v>74312300000000</v>
+        <v>75146500000000</v>
       </c>
       <c r="C477" t="n">
-        <v>6.682206682206579e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D477" t="n">
-        <v>4965701476.301399</v>
+        <v>5007437625.90911</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B478" t="n">
-        <v>75032100000000</v>
+        <v>75299900000000</v>
       </c>
       <c r="C478" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D478" t="n">
-        <v>4999814504.880133</v>
+        <v>5018326115.356254</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B479" t="n">
-        <v>74752200000000</v>
+        <v>75423200000000</v>
       </c>
       <c r="C479" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D479" t="n">
-        <v>4981163179.915006</v>
+        <v>5026543385.36622</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B480" t="n">
-        <v>75146500000000</v>
+        <v>75531400000000</v>
       </c>
       <c r="C480" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D480" t="n">
-        <v>5007437625.90911</v>
+        <v>5033085696.57391</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B481" t="n">
-        <v>75299900000000</v>
+        <v>79007900000000</v>
       </c>
       <c r="C481" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D481" t="n">
-        <v>5018326115.356254</v>
+        <v>5264744614.906407</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B482" t="n">
-        <v>75423200000000</v>
+        <v>75513400000000</v>
       </c>
       <c r="C482" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D482" t="n">
-        <v>5026543385.36622</v>
+        <v>5032554721.57789</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B483" t="n">
-        <v>75531400000000</v>
+        <v>73617900000000</v>
       </c>
       <c r="C483" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D483" t="n">
-        <v>5033085696.57391</v>
+        <v>4906230023.249502</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B484" t="n">
-        <v>79007900000000</v>
+        <v>71185600000000</v>
       </c>
       <c r="C484" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D484" t="n">
-        <v>5264744614.906407</v>
+        <v>4744130543.563858</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B485" t="n">
-        <v>75513400000000</v>
+        <v>77073100000000</v>
       </c>
       <c r="C485" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.657819066576983e-05</v>
       </c>
       <c r="D485" t="n">
-        <v>5032554721.57789</v>
+        <v>5131387547.001945</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B486" t="n">
-        <v>73617900000000</v>
+        <v>79797700000000</v>
       </c>
       <c r="C486" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D486" t="n">
-        <v>4906230023.249502</v>
+        <v>5318079862.727092</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B487" t="n">
-        <v>71185600000000</v>
+        <v>74834600000000</v>
       </c>
       <c r="C487" t="n">
         <v>6.664452562827114e-05</v>
       </c>
       <c r="D487" t="n">
-        <v>4744130543.563858</v>
+        <v>4987316417.58142</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B488" t="n">
-        <v>77073100000000</v>
+        <v>79686600000000</v>
       </c>
       <c r="C488" t="n">
-        <v>6.657819066576983e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D488" t="n">
-        <v>5131387547.001945</v>
+        <v>5309970246.395625</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B489" t="n">
-        <v>79797700000000</v>
+        <v>76680600000000</v>
       </c>
       <c r="C489" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D489" t="n">
-        <v>5318079862.727092</v>
+        <v>5109663412.364995</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B490" t="n">
-        <v>74834600000000</v>
+        <v>93684900000000</v>
       </c>
       <c r="C490" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.663567333021644e-05</v>
       </c>
       <c r="D490" t="n">
-        <v>4987316417.58142</v>
+        <v>6242756392.373994</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B491" t="n">
-        <v>79686600000000</v>
+        <v>109002900000000</v>
       </c>
       <c r="C491" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D491" t="n">
-        <v>5309970246.395625</v>
+        <v>7263481636.44625</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B492" t="n">
-        <v>76680600000000</v>
+        <v>107631100000000</v>
       </c>
       <c r="C492" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D492" t="n">
-        <v>5109663412.364995</v>
+        <v>7173023602.349014</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B493" t="n">
-        <v>93684900000000</v>
+        <v>116582500000000</v>
       </c>
       <c r="C493" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.664452562827114e-05</v>
       </c>
       <c r="D493" t="n">
-        <v>6242756392.373994</v>
+        <v>7769585409.05792</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B494" t="n">
-        <v>109002900000000</v>
+        <v>112763600000000</v>
       </c>
       <c r="C494" t="n">
         <v>6.663567333021644e-05</v>
       </c>
       <c r="D494" t="n">
-        <v>7263481636.44625</v>
+        <v>7514078413.139194</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B495" t="n">
-        <v>107631100000000</v>
+        <v>118911100000000</v>
       </c>
       <c r="C495" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D495" t="n">
-        <v>7173023602.349014</v>
+        <v>7927406666.666667</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B496" t="n">
-        <v>116582500000000</v>
+        <v>103837600000000</v>
       </c>
       <c r="C496" t="n">
-        <v>6.664452562827114e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D496" t="n">
-        <v>7769585409.05792</v>
+        <v>6922506666.666667</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B497" t="n">
-        <v>112763600000000</v>
+        <v>108136600000000</v>
       </c>
       <c r="C497" t="n">
-        <v>6.663567333021644e-05</v>
+        <v>6.666666666666667e-05</v>
       </c>
       <c r="D497" t="n">
-        <v>7514078413.139194</v>
+        <v>7209106666.666667</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B498" t="n">
-        <v>118911100000000</v>
+        <v>121569100000000</v>
       </c>
       <c r="C498" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D498" t="n">
-        <v>7927406666.666667</v>
+        <v>8104606666.666667</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="n">
-        <v>103837600000000</v>
+        <v>131926600000000</v>
       </c>
       <c r="C499" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D499" t="n">
-        <v>6922506666.666667</v>
+        <v>8795106666.666668</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B500" t="n">
-        <v>108136600000000</v>
+        <v>105203300000000</v>
       </c>
       <c r="C500" t="n">
         <v>6.666666666666667e-05</v>
       </c>
       <c r="D500" t="n">
-        <v>7209106666.666667</v>
+        <v>7013553333.333334</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B501" t="n">
-        <v>121569100000000</v>
+        <v>99551900000000</v>
       </c>
       <c r="C501" t="n">
-        <v>6.666666666666667e-05</v>
+        <v>6.665777896280495e-05</v>
       </c>
       <c r="D501" t="n">
-        <v>8104606666.666667</v>
+        <v>6635908545.527263</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Lebanon.xlsx
@@ -405,5880 +405,5886 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>29799</v>
+        <v>29830</v>
       </c>
       <c r="B2">
-        <v>23100000000</v>
+        <v>23590000000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>29830</v>
+        <v>29860</v>
       </c>
       <c r="B3">
-        <v>23590000000</v>
+        <v>24250000000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>29860</v>
+        <v>29891</v>
       </c>
       <c r="B4">
-        <v>24250000000</v>
+        <v>24640000000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>29891</v>
+        <v>29921</v>
       </c>
       <c r="B5">
-        <v>24640000000</v>
+        <v>25610000000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B6">
-        <v>25610000000</v>
+        <v>26270000000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B7">
-        <v>26270000000</v>
+        <v>26500000000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B8">
-        <v>26500000000</v>
+        <v>26680000000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B9">
-        <v>26680000000</v>
+        <v>27590000000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B10">
-        <v>27590000000</v>
+        <v>27940000000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B11">
-        <v>27940000000</v>
+        <v>28650000000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B12">
-        <v>28650000000</v>
+        <v>29310000000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B13">
-        <v>29310000000</v>
+        <v>30190000000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B14">
-        <v>30190000000</v>
+        <v>31450000000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B15">
-        <v>31450000000</v>
+        <v>31910000000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B16">
-        <v>31910000000</v>
+        <v>33970000000</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B17">
-        <v>33970000000</v>
+        <v>37080000000</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B18">
-        <v>37080000000</v>
+        <v>37040000000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B19">
-        <v>37040000000</v>
+        <v>37860000000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B20">
-        <v>37860000000</v>
+        <v>38280000000</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B21">
-        <v>38280000000</v>
+        <v>38870000000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B22">
-        <v>38870000000</v>
+        <v>39610000000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B23">
-        <v>39610000000</v>
+        <v>40670000000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B24">
-        <v>40670000000</v>
+        <v>41460000000</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B25">
-        <v>41460000000</v>
+        <v>42460000000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B26">
-        <v>42460000000</v>
+        <v>44420000000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B27">
-        <v>44420000000</v>
+        <v>45140000000</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B28">
-        <v>45140000000</v>
+        <v>45690000000</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B29">
-        <v>45690000000</v>
+        <v>47220000000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B30">
-        <v>47220000000</v>
+        <v>47110000000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B31">
-        <v>47110000000</v>
+        <v>47010000000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B32">
-        <v>47010000000</v>
+        <v>48800000000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B33">
-        <v>48800000000</v>
+        <v>49550000000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B34">
-        <v>49550000000</v>
+        <v>49830000000</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B35">
-        <v>49830000000</v>
+        <v>50500000000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B36">
-        <v>50500000000</v>
+        <v>51150000000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B37">
-        <v>51150000000</v>
+        <v>51340000000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B38">
-        <v>51340000000</v>
+        <v>52250000000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B39">
-        <v>52250000000</v>
+        <v>52320000000</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B40">
-        <v>52320000000</v>
+        <v>53020000000</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B41">
-        <v>53020000000</v>
+        <v>54980000000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B42">
-        <v>54980000000</v>
+        <v>56590000000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B43">
-        <v>56590000000</v>
+        <v>59360000000</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B44">
-        <v>59360000000</v>
+        <v>61900000000</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B45">
-        <v>61900000000</v>
+        <v>63320000000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B46">
-        <v>63320000000</v>
+        <v>66090000000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B47">
-        <v>66090000000</v>
+        <v>69030000000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B48">
-        <v>69030000000</v>
+        <v>70050000000</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>31229</v>
+        <v>31291</v>
       </c>
       <c r="B49">
-        <v>70050000000</v>
+        <v>73970000000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B50">
-        <v>73970000000</v>
+        <v>75470000000</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B51">
-        <v>75470000000</v>
+        <v>78030000000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B52">
-        <v>78030000000</v>
+        <v>80920000000</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B53">
-        <v>80920000000</v>
+        <v>78860000000</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B54">
-        <v>78860000000</v>
+        <v>85180000000</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B55">
-        <v>85180000000</v>
+        <v>87710000000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B56">
-        <v>87710000000</v>
+        <v>96900000000</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B57">
-        <v>96900000000</v>
+        <v>98740000000</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B58">
-        <v>98740000000</v>
+        <v>99830000000</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B59">
-        <v>99830000000</v>
+        <v>101880000000</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B60">
-        <v>101880000000</v>
+        <v>104550000000</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B61">
-        <v>104550000000</v>
+        <v>107790000000</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B62">
-        <v>107790000000</v>
+        <v>117670000000</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B63">
-        <v>117670000000</v>
+        <v>121450000000</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B64">
-        <v>121450000000</v>
+        <v>126860000000</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B65">
-        <v>126860000000</v>
+        <v>133570000000</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B66">
-        <v>133570000000</v>
+        <v>137500000000</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B67">
-        <v>137500000000</v>
+        <v>162600000000</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B68">
-        <v>162600000000</v>
+        <v>139230000000</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B69">
-        <v>139230000000</v>
+        <v>143420000000</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B70">
-        <v>143420000000</v>
+        <v>148010000000</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B71">
-        <v>148010000000</v>
+        <v>147600000000</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B72">
-        <v>147600000000</v>
+        <v>155120000000</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B73">
-        <v>155120000000</v>
+        <v>163040000000</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B74">
-        <v>163040000000</v>
+        <v>212160000000</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B75">
-        <v>212160000000</v>
+        <v>298980000000</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B76">
-        <v>298980000000</v>
+        <v>316350000000</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B77">
-        <v>316350000000</v>
+        <v>314340000000</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B78">
-        <v>314340000000</v>
+        <v>395600000000</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B79">
-        <v>395600000000</v>
+        <v>463110000000</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B80">
-        <v>463110000000</v>
+        <v>460020000000</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B81">
-        <v>460020000000</v>
+        <v>510860000000</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B82">
-        <v>510860000000</v>
+        <v>510940000000</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B83">
-        <v>510940000000</v>
+        <v>530500000000</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B84">
-        <v>530500000000</v>
+        <v>547820000000.0001</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B85">
-        <v>547820000000.0001</v>
+        <v>555840000000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B86">
-        <v>555840000000</v>
+        <v>602240000000</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B87">
-        <v>602240000000</v>
+        <v>674900000000</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B88">
-        <v>674900000000</v>
+        <v>705730000000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B89">
-        <v>705730000000</v>
+        <v>727370000000</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B90">
-        <v>727370000000</v>
+        <v>759570000000</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B91">
-        <v>759570000000</v>
+        <v>785070000000</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B92">
-        <v>785070000000</v>
+        <v>816340000000</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B93">
-        <v>816340000000</v>
+        <v>837430000000</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B94">
-        <v>837430000000</v>
+        <v>906160000000</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B95">
-        <v>906160000000</v>
+        <v>939290000000</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B96">
-        <v>939290000000</v>
+        <v>948040000000</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B97">
-        <v>948040000000</v>
+        <v>946560000000</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B98">
-        <v>946560000000</v>
+        <v>964770000000</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B99">
-        <v>964770000000</v>
+        <v>986240000000</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B100">
-        <v>986240000000</v>
+        <v>982530000000</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B101">
-        <v>982530000000</v>
+        <v>966580000000</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B102">
-        <v>966580000000</v>
+        <v>994070000000</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B103">
-        <v>994070000000</v>
+        <v>1048170000000</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B104">
-        <v>1048170000000</v>
+        <v>1088390000000</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B105">
-        <v>1088390000000</v>
+        <v>1109630000000</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B106">
-        <v>1109630000000</v>
+        <v>1289630000000</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B107">
-        <v>1289630000000</v>
+        <v>1289590000000</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B108">
-        <v>1289590000000</v>
+        <v>1268860000000</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B109">
-        <v>1268860000000</v>
+        <v>1276910000000</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B110">
-        <v>1276910000000</v>
+        <v>1314350000000</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B111">
-        <v>1314350000000</v>
+        <v>1386070000000</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B112">
-        <v>1386070000000</v>
+        <v>1377310000000</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B113">
-        <v>1377310000000</v>
+        <v>1472340000000</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B114">
-        <v>1472340000000</v>
+        <v>1632090000000</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B115">
-        <v>1632090000000</v>
+        <v>1866380000000</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B116">
-        <v>1866380000000</v>
+        <v>1811410000000</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B117">
-        <v>1811410000000</v>
+        <v>1813160000000</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B118">
-        <v>1813160000000</v>
+        <v>1917710000000</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B119">
-        <v>1917710000000</v>
+        <v>1995110000000</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B120">
-        <v>1995110000000</v>
+        <v>2151010000000</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B121">
-        <v>2151010000000</v>
+        <v>2118590000000</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B122">
-        <v>2118590000000</v>
+        <v>2026430000000</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B123">
-        <v>2026430000000</v>
+        <v>2038100000000</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B124">
-        <v>2038100000000</v>
+        <v>2078100000000</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B125">
-        <v>2078100000000</v>
+        <v>2154030000000</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B126">
-        <v>2154030000000</v>
+        <v>2238570000000</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B127">
-        <v>2238570000000</v>
+        <v>2286870000000</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B128">
-        <v>2286870000000</v>
+        <v>2317800000000</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B129">
-        <v>2317800000000</v>
+        <v>2390240000000</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B130">
-        <v>2390240000000</v>
+        <v>4297230000000</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B131">
-        <v>4297230000000</v>
+        <v>4458340000000</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B132">
-        <v>4458340000000</v>
+        <v>4393060000000</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B133">
-        <v>4393060000000</v>
+        <v>4154130000000</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B134">
-        <v>4154130000000</v>
+        <v>4276030000000</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B135">
-        <v>4276030000000</v>
+        <v>4229970000000</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B136">
-        <v>4229970000000</v>
+        <v>4120690000000</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B137">
-        <v>4120690000000</v>
+        <v>4263490000000</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B138">
-        <v>4263490000000</v>
+        <v>4378050000000</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B139">
-        <v>4378050000000</v>
+        <v>4298740000000</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B140">
-        <v>4298740000000</v>
+        <v>4512800000000</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B141">
-        <v>4512800000000</v>
+        <v>4706140000000</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B142">
-        <v>4706140000000</v>
+        <v>4943670000000</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B143">
-        <v>4943670000000</v>
+        <v>5018800000000</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B144">
-        <v>5018800000000</v>
+        <v>5308800000000</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B145">
-        <v>5308800000000</v>
+        <v>5805200000000</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B146">
-        <v>5805200000000</v>
+        <v>6206980000000</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B147">
-        <v>6206980000000</v>
+        <v>6679510000000</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B148">
-        <v>6679510000000</v>
+        <v>6956560000000</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B149">
-        <v>6956560000000</v>
+        <v>6985400000000</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B150">
-        <v>6985400000000</v>
+        <v>7236740000000</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B151">
-        <v>7236740000000</v>
+        <v>7445730000000</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B152">
-        <v>7445730000000</v>
+        <v>7697120000000</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B153">
-        <v>7697120000000</v>
+        <v>8151070000000</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B154">
-        <v>8151070000000</v>
+        <v>8431450000000.001</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B155">
-        <v>8431450000000.001</v>
+        <v>8707299999999.999</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B156">
-        <v>8707299999999.999</v>
+        <v>8586660000000</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B157">
-        <v>8586660000000</v>
+        <v>8695770000000</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B158">
-        <v>8695770000000</v>
+        <v>8872560000000</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B159">
-        <v>8872560000000</v>
+        <v>8959920000000</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B160">
-        <v>8959920000000</v>
+        <v>8992800000000</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B161">
-        <v>8992800000000</v>
+        <v>8391760000000</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B162">
-        <v>8391760000000</v>
+        <v>8629740000000</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B163">
-        <v>8629740000000</v>
+        <v>8596629999999.999</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B164">
-        <v>8596629999999.999</v>
+        <v>8368100000000</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B165">
-        <v>8368100000000</v>
+        <v>8119720000000</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B166">
-        <v>8119720000000</v>
+        <v>8511600000000</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B167">
-        <v>8511600000000</v>
+        <v>9176130000000</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B168">
-        <v>9176130000000</v>
+        <v>9663210000000</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B169">
-        <v>9663210000000</v>
+        <v>10092140000000</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B170">
-        <v>10092140000000</v>
+        <v>10366110000000</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B171">
-        <v>10366110000000</v>
+        <v>10512680000000</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B172">
-        <v>10512680000000</v>
+        <v>10490000000000</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B173">
-        <v>10490000000000</v>
+        <v>10924100000000</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B174">
-        <v>10924100000000</v>
+        <v>11336120000000</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B175">
-        <v>11336120000000</v>
+        <v>11719140000000</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B176">
-        <v>11719140000000</v>
+        <v>11986070000000</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B177">
-        <v>11986070000000</v>
+        <v>12386110000000</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B178">
-        <v>12386110000000</v>
+        <v>13273470000000</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B179">
-        <v>13273470000000</v>
+        <v>13572010000000</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B180">
-        <v>13572010000000</v>
+        <v>14001710000000</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B181">
-        <v>14001710000000</v>
+        <v>14327790000000</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B182">
-        <v>14327790000000</v>
+        <v>14657840000000</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B183">
-        <v>14657840000000</v>
+        <v>15119370000000</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B184">
-        <v>15119370000000</v>
+        <v>15307460000000</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B185">
-        <v>15307460000000</v>
+        <v>15441260000000</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B186">
-        <v>15441260000000</v>
+        <v>15543320000000</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B187">
-        <v>15543320000000</v>
+        <v>15473590000000</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B188">
-        <v>15473590000000</v>
+        <v>15405510000000</v>
+      </c>
+      <c r="C188">
+        <v>6.553450903550847E-05</v>
+      </c>
+      <c r="D188">
+        <v>1009592534.291616</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B189">
-        <v>15405510000000</v>
+        <v>14875010000000</v>
       </c>
       <c r="C189">
-        <v>6.553450903550847E-05</v>
+        <v>6.566317626526478E-05</v>
       </c>
       <c r="D189">
-        <v>1009592534.291616</v>
+        <v>976740403.5775763</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B190">
-        <v>14875010000000</v>
+        <v>14650810000000</v>
       </c>
       <c r="C190">
-        <v>6.566317626526478E-05</v>
+        <v>6.574923547401215E-05</v>
       </c>
       <c r="D190">
-        <v>976740403.5775763</v>
+        <v>963279556.575012</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B191">
-        <v>14650810000000</v>
+        <v>14549800000000</v>
       </c>
       <c r="C191">
-        <v>6.574923547401215E-05</v>
+        <v>6.581392806383931E-05</v>
       </c>
       <c r="D191">
-        <v>963279556.575012</v>
+        <v>957579490.5432491</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B192">
-        <v>14549800000000</v>
+        <v>14529860000000</v>
       </c>
       <c r="C192">
-        <v>6.581392806383931E-05</v>
+        <v>6.592203241347731E-05</v>
       </c>
       <c r="D192">
-        <v>957579490.5432491</v>
+        <v>957837901.8832874</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B193">
-        <v>14529860000000</v>
+        <v>14771350000000</v>
       </c>
       <c r="C193">
-        <v>6.592203241347731E-05</v>
+        <v>6.600877192982268E-05</v>
       </c>
       <c r="D193">
-        <v>957837901.8832874</v>
+        <v>975038673.2455863</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B194">
-        <v>14771350000000</v>
+        <v>14513120000000</v>
       </c>
       <c r="C194">
-        <v>6.600877192982268E-05</v>
+        <v>6.60957400087935E-05</v>
       </c>
       <c r="D194">
-        <v>975038673.2455863</v>
+        <v>959255406.2364211</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B195">
-        <v>14513120000000</v>
+        <v>13900660000000</v>
       </c>
       <c r="C195">
-        <v>6.60957400087935E-05</v>
+        <v>6.622662266225035E-05</v>
       </c>
       <c r="D195">
-        <v>959255406.2364211</v>
+        <v>920593764.5762368</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B196">
-        <v>13900660000000</v>
+        <v>14086370000000</v>
       </c>
       <c r="C196">
-        <v>6.622662266225035E-05</v>
+        <v>6.57621638155112E-05</v>
       </c>
       <c r="D196">
-        <v>920593764.5762368</v>
+        <v>926350171.5059025</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B197">
-        <v>14086370000000</v>
+        <v>14507300000000</v>
       </c>
       <c r="C197">
-        <v>6.57621638155112E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D197">
-        <v>926350171.5059025</v>
+        <v>962675771.604968</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B198">
-        <v>14507300000000</v>
+        <v>14959510000000</v>
       </c>
       <c r="C198">
-        <v>6.635802469136007E-05</v>
+        <v>6.641820520798443E-05</v>
       </c>
       <c r="D198">
-        <v>962675771.604968</v>
+        <v>993583804.9908953</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B199">
-        <v>14959510000000</v>
+        <v>15372520000000</v>
       </c>
       <c r="C199">
-        <v>6.641820520798443E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D199">
-        <v>993583804.9908953</v>
+        <v>1023474567.57336</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B200">
-        <v>15372520000000</v>
+        <v>15386490000000</v>
       </c>
       <c r="C200">
-        <v>6.657819066576983E-05</v>
+        <v>6.662239929171596E-05</v>
       </c>
       <c r="D200">
-        <v>1023474567.57336</v>
+        <v>1025084880.477995</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B201">
-        <v>15386490000000</v>
+        <v>15545300000000</v>
       </c>
       <c r="C201">
-        <v>6.662239929171596E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D201">
-        <v>1025084880.477995</v>
+        <v>1031555401.2346</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B202">
-        <v>15545300000000</v>
+        <v>16461650000000</v>
       </c>
       <c r="C202">
-        <v>6.635802469136007E-05</v>
+        <v>6.682384701114667E-05</v>
       </c>
       <c r="D202">
-        <v>1031555401.2346</v>
+        <v>1100030781.151042</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B203">
-        <v>16461650000000</v>
+        <v>16905730000000</v>
       </c>
       <c r="C203">
-        <v>6.682384701114667E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D203">
-        <v>1100030781.151042</v>
+        <v>1129299762.539145</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B204">
-        <v>16905730000000</v>
+        <v>16554250000000</v>
       </c>
       <c r="C204">
-        <v>6.679982245896187E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D204">
-        <v>1129299762.539145</v>
+        <v>1105085218.452186</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B205">
-        <v>16554250000000</v>
+        <v>16542340000000</v>
       </c>
       <c r="C205">
-        <v>6.675537813263578E-05</v>
+        <v>6.660028764245144E-05</v>
       </c>
       <c r="D205">
-        <v>1105085218.452186</v>
+        <v>1101724602.27923</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B206">
-        <v>16542340000000</v>
+        <v>16544890000000</v>
       </c>
       <c r="C206">
-        <v>6.660028764245144E-05</v>
+        <v>6.675582228313177E-05</v>
       </c>
       <c r="D206">
-        <v>1101724602.27923</v>
+        <v>1104467736.533964</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B207">
-        <v>16544890000000</v>
+        <v>16790140000000</v>
       </c>
       <c r="C207">
-        <v>6.675582228313177E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D207">
-        <v>1104467736.533964</v>
+        <v>1121578371.061114</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B208">
-        <v>16790140000000</v>
+        <v>16821930000000</v>
       </c>
       <c r="C208">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D208">
-        <v>1121578371.061114</v>
+        <v>1123701937.417084</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B209">
-        <v>16821930000000</v>
+        <v>17085340000000</v>
       </c>
       <c r="C209">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D209">
-        <v>1123701937.417084</v>
+        <v>1141297678.651</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B210">
-        <v>17085340000000</v>
+        <v>17367330000000</v>
       </c>
       <c r="C210">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D210">
-        <v>1141297678.651</v>
+        <v>1160134560.586202</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B211">
-        <v>17367330000000</v>
+        <v>17760410000000</v>
       </c>
       <c r="C211">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D211">
-        <v>1160134560.586202</v>
+        <v>1186392234.798371</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B212">
-        <v>17760410000000</v>
+        <v>18218130000000</v>
       </c>
       <c r="C212">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D212">
-        <v>1186392234.798371</v>
+        <v>1216967849.534287</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B213">
-        <v>18218130000000</v>
+        <v>18925270000000</v>
       </c>
       <c r="C213">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D213">
-        <v>1216967849.534287</v>
+        <v>1264204675.987917</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B214">
-        <v>18925270000000</v>
+        <v>19439920000000</v>
       </c>
       <c r="C214">
-        <v>6.679982245896187E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D214">
-        <v>1264204675.987917</v>
+        <v>1299448349.988501</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B215">
-        <v>19439920000000</v>
+        <v>19691480000000</v>
       </c>
       <c r="C215">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D215">
-        <v>1299448349.988501</v>
+        <v>1316263708.638285</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B216">
-        <v>19691480000000</v>
+        <v>20239650000000</v>
       </c>
       <c r="C216">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D216">
-        <v>1316263708.638285</v>
+        <v>1352905762.824372</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B217">
-        <v>20239650000000</v>
+        <v>20368740000000</v>
       </c>
       <c r="C217">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D217">
-        <v>1352905762.824372</v>
+        <v>1361534696.86834</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B218">
-        <v>20368740000000</v>
+        <v>20557380000000</v>
       </c>
       <c r="C218">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D218">
-        <v>1361534696.86834</v>
+        <v>1374144210.525898</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B219">
-        <v>20557380000000</v>
+        <v>20999490000000</v>
       </c>
       <c r="C219">
-        <v>6.68443260048653E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D219">
-        <v>1374144210.525898</v>
+        <v>1400896828.457574</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B220">
-        <v>20999490000000</v>
+        <v>20770370000000</v>
       </c>
       <c r="C220">
         <v>6.671099290780748E-05</v>
       </c>
       <c r="D220">
-        <v>1400896828.457574</v>
+        <v>1385612005.762537</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B221">
-        <v>20770370000000</v>
+        <v>20225160000000</v>
       </c>
       <c r="C221">
         <v>6.671099290780748E-05</v>
       </c>
       <c r="D221">
-        <v>1385612005.762537</v>
+        <v>1349240505.319272</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B222">
-        <v>20225160000000</v>
+        <v>20553180000000</v>
       </c>
       <c r="C222">
-        <v>6.671099290780748E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D222">
-        <v>1349240505.319272</v>
+        <v>1365674874.172475</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B223">
-        <v>20553180000000</v>
+        <v>20714510000000</v>
       </c>
       <c r="C223">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D223">
-        <v>1365674874.172475</v>
+        <v>1376394593.819276</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B224">
-        <v>20714510000000</v>
+        <v>20726210000000</v>
       </c>
       <c r="C224">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D224">
-        <v>1376394593.819276</v>
+        <v>1377172011.037819</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B225">
-        <v>20726210000000</v>
+        <v>20235110000000</v>
       </c>
       <c r="C225">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D225">
-        <v>1377172011.037819</v>
+        <v>1344540421.633839</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B226">
-        <v>20235110000000</v>
+        <v>19033140000000</v>
       </c>
       <c r="C226">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D226">
-        <v>1344540421.633839</v>
+        <v>1264674423.841328</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B227">
-        <v>19033140000000</v>
+        <v>19160840000000</v>
       </c>
       <c r="C227">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D227">
-        <v>1264674423.841328</v>
+        <v>1273159567.329188</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B228">
-        <v>19160840000000</v>
+        <v>19492530000000</v>
       </c>
       <c r="C228">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D228">
-        <v>1273159567.329188</v>
+        <v>1295199013.245308</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B229">
-        <v>19492530000000</v>
+        <v>19661540000000</v>
       </c>
       <c r="C229">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D229">
-        <v>1295199013.245308</v>
+        <v>1306429037.527871</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B230">
-        <v>19661540000000</v>
+        <v>19193810000000</v>
       </c>
       <c r="C230">
-        <v>6.644591611480437E-05</v>
+        <v>6.653404067195362E-05</v>
       </c>
       <c r="D230">
-        <v>1306429037.527871</v>
+        <v>1277041735.18975</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B231">
-        <v>19193810000000</v>
+        <v>18451720000000</v>
       </c>
       <c r="C231">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D231">
-        <v>1277041735.18975</v>
+        <v>1227667488.9475</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B232">
-        <v>18451720000000</v>
+        <v>17581800000000</v>
       </c>
       <c r="C232">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D232">
-        <v>1227667488.9475</v>
+        <v>1169788196.286154</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B233">
-        <v>17581800000000</v>
+        <v>17167240000000</v>
       </c>
       <c r="C233">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D233">
-        <v>1169788196.286154</v>
+        <v>1142205844.385189</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B234">
-        <v>17167240000000</v>
+        <v>17217820000000</v>
       </c>
       <c r="C234">
-        <v>6.653404067195362E-05</v>
+        <v>6.751906684610056E-05</v>
       </c>
       <c r="D234">
-        <v>1142205844.385189</v>
+        <v>1162531139.524127</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B235">
-        <v>17217820000000</v>
+        <v>17088960000000</v>
       </c>
       <c r="C235">
-        <v>6.751906684610056E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D235">
-        <v>1162531139.524127</v>
+        <v>1139264000</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B236">
-        <v>17088960000000</v>
+        <v>16213400000000</v>
       </c>
       <c r="C236">
-        <v>6.666666666666667E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D236">
-        <v>1139264000</v>
+        <v>1077314216.335769</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B237">
-        <v>16213400000000</v>
+        <v>16008060000000</v>
       </c>
       <c r="C237">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D237">
-        <v>1077314216.335769</v>
+        <v>1063670211.920755</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B238">
-        <v>16008060000000</v>
+        <v>16367250000000</v>
       </c>
       <c r="C238">
-        <v>6.644591611480437E-05</v>
+        <v>6.64019413192227E-05</v>
       </c>
       <c r="D238">
-        <v>1063670211.920755</v>
+        <v>1086817174.057048</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B239">
-        <v>16367250000000</v>
+        <v>16681350000000</v>
       </c>
       <c r="C239">
-        <v>6.64019413192227E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D239">
-        <v>1086817174.057048</v>
+        <v>1106941435.185219</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B240">
-        <v>16681350000000</v>
+        <v>17460680000000</v>
       </c>
       <c r="C240">
-        <v>6.635802469136007E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D240">
-        <v>1106941435.185219</v>
+        <v>1157890434.016234</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B241">
-        <v>17460680000000</v>
+        <v>17350220000000</v>
       </c>
       <c r="C241">
         <v>6.631416611588062E-05</v>
       </c>
       <c r="D241">
-        <v>1157890434.016234</v>
+        <v>1150565371.227074</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B242">
-        <v>17350220000000</v>
+        <v>17183870000000</v>
       </c>
       <c r="C242">
-        <v>6.631416611588062E-05</v>
+        <v>6.629225856184744E-05</v>
       </c>
       <c r="D242">
-        <v>1150565371.227074</v>
+        <v>1139157553.133173</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B243">
-        <v>17183870000000</v>
+        <v>16800510000000</v>
       </c>
       <c r="C243">
-        <v>6.629225856184744E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D243">
-        <v>1139157553.133173</v>
+        <v>1114111810.971514</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B244">
-        <v>16800510000000</v>
+        <v>16460310000000</v>
       </c>
       <c r="C244">
-        <v>6.631416611588062E-05</v>
+        <v>6.629225856184744E-05</v>
       </c>
       <c r="D244">
-        <v>1114111810.971514</v>
+        <v>1091191126.528163</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B245">
-        <v>16460310000000</v>
+        <v>15836230000000</v>
       </c>
       <c r="C245">
-        <v>6.629225856184744E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D245">
-        <v>1091191126.528163</v>
+        <v>1050166386.869292</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B246">
-        <v>15836230000000</v>
+        <v>16331330000000</v>
       </c>
       <c r="C246">
         <v>6.631416611588062E-05</v>
       </c>
       <c r="D246">
-        <v>1050166386.869292</v>
+        <v>1082998530.513265</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B247">
-        <v>16331330000000</v>
+        <v>16560930000000</v>
       </c>
       <c r="C247">
-        <v>6.631416611588062E-05</v>
+        <v>6.633608815429102E-05</v>
       </c>
       <c r="D247">
-        <v>1082998530.513265</v>
+        <v>1098587312.397043</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B248">
-        <v>16560930000000</v>
+        <v>17116440000000</v>
       </c>
       <c r="C248">
-        <v>6.633608815429102E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D248">
-        <v>1098587312.397043</v>
+        <v>1135813148.148183</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B249">
-        <v>17116440000000</v>
+        <v>17600960000000</v>
       </c>
       <c r="C249">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D249">
-        <v>1135813148.148183</v>
+        <v>1167964938.271641</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B250">
-        <v>17600960000000</v>
+        <v>18140210000000</v>
       </c>
       <c r="C250">
-        <v>6.635802469136007E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D250">
-        <v>1167964938.271641</v>
+        <v>1202952899.316959</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B251">
-        <v>18140210000000</v>
+        <v>19021940000000</v>
       </c>
       <c r="C251">
-        <v>6.631416611588062E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D251">
-        <v>1202952899.316959</v>
+        <v>1271508758.604987</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B252">
-        <v>19021940000000</v>
+        <v>20582830000000</v>
       </c>
       <c r="C252">
-        <v>6.68443260048653E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D252">
-        <v>1271508758.604987</v>
+        <v>1373101026.152607</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B253">
-        <v>20582830000000</v>
+        <v>20934590000000</v>
       </c>
       <c r="C253">
-        <v>6.671099290780748E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D253">
-        <v>1373101026.152607</v>
+        <v>1399358558.738193</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B254">
-        <v>20934590000000</v>
+        <v>21549030000000</v>
       </c>
       <c r="C254">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D254">
-        <v>1399358558.738193</v>
+        <v>1440430386.408623</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B255">
-        <v>21549030000000</v>
+        <v>21575930000000</v>
       </c>
       <c r="C255">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D255">
-        <v>1440430386.408623</v>
+        <v>1442228498.778153</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B256">
-        <v>21575930000000</v>
+        <v>22200920000000</v>
       </c>
       <c r="C256">
-        <v>6.68443260048653E-05</v>
+        <v>6.655610834716019E-05</v>
       </c>
       <c r="D256">
-        <v>1442228498.778153</v>
+        <v>1477606836.926636</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B257">
-        <v>22200920000000</v>
+        <v>22763720000000</v>
       </c>
       <c r="C257">
         <v>6.655610834716019E-05</v>
       </c>
       <c r="D257">
-        <v>1477606836.926636</v>
+        <v>1515064614.704417</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B258">
-        <v>22763720000000</v>
+        <v>23226450000000</v>
       </c>
       <c r="C258">
-        <v>6.655610834716019E-05</v>
+        <v>6.718000223189676E-05</v>
       </c>
       <c r="D258">
-        <v>1515064614.704417</v>
+        <v>1560352962.839038</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B259">
-        <v>23226450000000</v>
+        <v>24061610000000</v>
       </c>
       <c r="C259">
-        <v>6.718000223189676E-05</v>
+        <v>6.655610834716019E-05</v>
       </c>
       <c r="D259">
-        <v>1560352962.839038</v>
+        <v>1601447122.167113</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B260">
-        <v>24061610000000</v>
+        <v>24346290000000</v>
       </c>
       <c r="C260">
-        <v>6.655610834716019E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D260">
-        <v>1601447122.167113</v>
+        <v>1614503919.365403</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B261">
-        <v>24346290000000</v>
+        <v>24800170000000</v>
       </c>
       <c r="C261">
-        <v>6.631416611588062E-05</v>
+        <v>6.691119261977329E-05</v>
       </c>
       <c r="D261">
-        <v>1614503919.365403</v>
+        <v>1659408951.873123</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B262">
-        <v>24800170000000</v>
+        <v>25511190000000</v>
       </c>
       <c r="C262">
-        <v>6.691119261977329E-05</v>
+        <v>6.624848684935425E-05</v>
       </c>
       <c r="D262">
-        <v>1659408951.873123</v>
+        <v>1690077735.226378</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B263">
-        <v>25511190000000</v>
+        <v>25840040000000</v>
       </c>
       <c r="C263">
-        <v>6.624848684935425E-05</v>
+        <v>6.618293755494739E-05</v>
       </c>
       <c r="D263">
-        <v>1690077735.226378</v>
+        <v>1710169753.737343</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B264">
-        <v>25840040000000</v>
+        <v>26234380000000</v>
       </c>
       <c r="C264">
-        <v>6.618293755494739E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D264">
-        <v>1710169753.737343</v>
+        <v>1739711033.267136</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B265">
-        <v>26234380000000</v>
+        <v>26321180000000</v>
       </c>
       <c r="C265">
-        <v>6.631416611588062E-05</v>
+        <v>6.622662266225035E-05</v>
       </c>
       <c r="D265">
-        <v>1739711033.267136</v>
+        <v>1743162855.88517</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B266">
-        <v>26321180000000</v>
+        <v>26458570000000</v>
       </c>
       <c r="C266">
-        <v>6.622662266225035E-05</v>
+        <v>6.624848684935425E-05</v>
       </c>
       <c r="D266">
-        <v>1743162855.88517</v>
+        <v>1752840226.697719</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B267">
-        <v>26458570000000</v>
+        <v>26313170000000</v>
       </c>
       <c r="C267">
-        <v>6.624848684935425E-05</v>
+        <v>6.622662266225035E-05</v>
       </c>
       <c r="D267">
-        <v>1752840226.697719</v>
+        <v>1742632380.637646</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B268">
-        <v>26313170000000</v>
+        <v>26249910000000</v>
       </c>
       <c r="C268">
-        <v>6.622662266225035E-05</v>
+        <v>6.624848684935425E-05</v>
       </c>
       <c r="D268">
-        <v>1742632380.637646</v>
+        <v>1739016817.431733</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B269">
-        <v>26249910000000</v>
+        <v>26467610000000</v>
       </c>
       <c r="C269">
-        <v>6.624848684935425E-05</v>
+        <v>6.627036547775318E-05</v>
       </c>
       <c r="D269">
-        <v>1739016817.431733</v>
+        <v>1754018188.022635</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B270">
-        <v>26467610000000</v>
+        <v>26506600000000</v>
       </c>
       <c r="C270">
-        <v>6.627036547775318E-05</v>
+        <v>6.629225856184744E-05</v>
       </c>
       <c r="D270">
-        <v>1754018188.022635</v>
+        <v>1757182380.795465</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B271">
-        <v>26506600000000</v>
+        <v>26607700000000</v>
       </c>
       <c r="C271">
         <v>6.629225856184744E-05</v>
       </c>
       <c r="D271">
-        <v>1757182380.795465</v>
+        <v>1763884528.136068</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B272">
-        <v>26607700000000</v>
+        <v>26722350000000</v>
       </c>
       <c r="C272">
-        <v>6.629225856184744E-05</v>
+        <v>6.627036547775318E-05</v>
       </c>
       <c r="D272">
-        <v>1763884528.136068</v>
+        <v>1770899900.924438</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B273">
-        <v>26722350000000</v>
+        <v>26612570000000</v>
       </c>
       <c r="C273">
-        <v>6.627036547775318E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D273">
-        <v>1770899900.924438</v>
+        <v>1764790387.750501</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B274">
-        <v>26612570000000</v>
+        <v>25233460000000</v>
       </c>
       <c r="C274">
-        <v>6.631416611588062E-05</v>
+        <v>6.627036547775318E-05</v>
       </c>
       <c r="D274">
-        <v>1764790387.750501</v>
+        <v>1672230616.468266</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B275">
-        <v>25233460000000</v>
+        <v>24956870000000</v>
       </c>
       <c r="C275">
         <v>6.627036547775318E-05</v>
       </c>
       <c r="D275">
-        <v>1672230616.468266</v>
+        <v>1653900896.080774</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B276">
-        <v>24956870000000</v>
+        <v>25977980000000</v>
       </c>
       <c r="C276">
-        <v>6.627036547775318E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D276">
-        <v>1653900896.080774</v>
+        <v>1722708081.075024</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B277">
-        <v>25977980000000</v>
+        <v>26065820000000</v>
       </c>
       <c r="C277">
         <v>6.631416611588062E-05</v>
       </c>
       <c r="D277">
-        <v>1722708081.075024</v>
+        <v>1728533117.426643</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B278">
-        <v>26065820000000</v>
+        <v>23085570000000</v>
       </c>
       <c r="C278">
-        <v>6.631416611588062E-05</v>
+        <v>6.629225856184744E-05</v>
       </c>
       <c r="D278">
-        <v>1728533117.426643</v>
+        <v>1530394575.487628</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B279">
-        <v>23085570000000</v>
+        <v>17969100000000</v>
       </c>
       <c r="C279">
-        <v>6.629225856184744E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D279">
-        <v>1530394575.487628</v>
+        <v>1191605882.35287</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B280">
-        <v>17969100000000</v>
+        <v>18948790000000</v>
       </c>
       <c r="C280">
-        <v>6.631416611588062E-05</v>
+        <v>6.629225856184744E-05</v>
       </c>
       <c r="D280">
-        <v>1191605882.35287</v>
+        <v>1256158086.114149</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B281">
-        <v>18948790000000</v>
+        <v>20547460000000</v>
       </c>
       <c r="C281">
-        <v>6.629225856184744E-05</v>
+        <v>6.648994919374665E-05</v>
       </c>
       <c r="D281">
-        <v>1256158086.114149</v>
+        <v>1366199571.460541</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B282">
-        <v>20547460000000</v>
+        <v>21781700000000</v>
       </c>
       <c r="C282">
-        <v>6.648994919374665E-05</v>
+        <v>6.662239929171596E-05</v>
       </c>
       <c r="D282">
-        <v>1366199571.460541</v>
+        <v>1451149114.652369</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B283">
-        <v>21781700000000</v>
+        <v>22896430000000</v>
       </c>
       <c r="C283">
-        <v>6.662239929171596E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D283">
-        <v>1451149114.652369</v>
+        <v>1524402882.105452</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B284">
-        <v>22896430000000</v>
+        <v>23253720000000</v>
       </c>
       <c r="C284">
-        <v>6.657819066576983E-05</v>
+        <v>6.67775929007139E-05</v>
       </c>
       <c r="D284">
-        <v>1524402882.105452</v>
+        <v>1552827447.587189</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B285">
-        <v>23253720000000</v>
+        <v>23524610000000</v>
       </c>
       <c r="C285">
-        <v>6.67775929007139E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D285">
-        <v>1552827447.587189</v>
+        <v>1570394235.972785</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B286">
-        <v>23524610000000</v>
+        <v>23811020000000</v>
       </c>
       <c r="C286">
         <v>6.675537813263578E-05</v>
       </c>
       <c r="D286">
-        <v>1570394235.972785</v>
+        <v>1589513643.823753</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B287">
-        <v>23811020000000</v>
+        <v>24124680000000</v>
       </c>
       <c r="C287">
-        <v>6.675537813263578E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D287">
-        <v>1589513643.823753</v>
+        <v>1611524340.879268</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B288">
-        <v>24124680000000</v>
+        <v>24464500000000</v>
       </c>
       <c r="C288">
-        <v>6.679982245896187E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D288">
-        <v>1611524340.879268</v>
+        <v>1628802145.542726</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B289">
-        <v>24464500000000</v>
+        <v>24893160000000</v>
       </c>
       <c r="C289">
-        <v>6.657819066576983E-05</v>
+        <v>6.67775929007139E-05</v>
       </c>
       <c r="D289">
-        <v>1628802145.542726</v>
+        <v>1662305304.492335</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B290">
-        <v>24893160000000</v>
+        <v>25225730000000</v>
       </c>
       <c r="C290">
-        <v>6.67775929007139E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D290">
-        <v>1662305304.492335</v>
+        <v>1679483461.62323</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B291">
-        <v>25225730000000</v>
+        <v>25401630000000</v>
       </c>
       <c r="C291">
-        <v>6.657819066576983E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D291">
-        <v>1679483461.62323</v>
+        <v>1694567958.77675</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B292">
-        <v>25401630000000</v>
+        <v>25603820000000</v>
       </c>
       <c r="C292">
-        <v>6.671099290780748E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D292">
-        <v>1694567958.77675</v>
+        <v>1704656009.732051</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B293">
-        <v>25603820000000</v>
+        <v>25847660000000</v>
       </c>
       <c r="C293">
-        <v>6.657819066576983E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D293">
-        <v>1704656009.732051</v>
+        <v>1725470317.143805</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B294">
-        <v>25847660000000</v>
+        <v>26223500000000</v>
       </c>
       <c r="C294">
-        <v>6.675537813263578E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D294">
-        <v>1725470317.143805</v>
+        <v>1745913182.923815</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B295">
-        <v>26223500000000</v>
+        <v>23982370000000</v>
       </c>
       <c r="C295">
-        <v>6.657819066576983E-05</v>
+        <v>6.668882242160481E-05</v>
       </c>
       <c r="D295">
-        <v>1745913182.923815</v>
+        <v>1599356014.179223</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B296">
-        <v>23982370000000</v>
+        <v>23284920000000</v>
       </c>
       <c r="C296">
-        <v>6.668882242160481E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D296">
-        <v>1599356014.179223</v>
+        <v>1550267843.397197</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B297">
-        <v>23284920000000</v>
+        <v>23987690000000</v>
       </c>
       <c r="C297">
-        <v>6.657819066576983E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D297">
-        <v>1550267843.397197</v>
+        <v>1591775725.308691</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B298">
-        <v>23987690000000</v>
+        <v>24614720000000</v>
       </c>
       <c r="C298">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D298">
-        <v>1591775725.308691</v>
+        <v>1633384197.530915</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B299">
-        <v>24614720000000</v>
+        <v>24175580000000</v>
       </c>
       <c r="C299">
-        <v>6.635802469136007E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D299">
-        <v>1633384197.530915</v>
+        <v>1609566374.695572</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B300">
-        <v>24175580000000</v>
+        <v>23477280000000</v>
       </c>
       <c r="C300">
-        <v>6.657819066576983E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D300">
-        <v>1609566374.695572</v>
+        <v>1557905925.925974</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B301">
-        <v>23477280000000</v>
+        <v>23219250000000</v>
       </c>
       <c r="C301">
-        <v>6.635802469136007E-05</v>
+        <v>6.637997574152013E-05</v>
       </c>
       <c r="D301">
-        <v>1557905925.925974</v>
+        <v>1541293251.736291</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B302">
-        <v>23219250000000</v>
+        <v>23462820000000</v>
       </c>
       <c r="C302">
-        <v>6.637997574152013E-05</v>
+        <v>6.64019413192227E-05</v>
       </c>
       <c r="D302">
-        <v>1541293251.736291</v>
+        <v>1557976796.823485</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B303">
-        <v>23462820000000</v>
+        <v>23705520000000</v>
       </c>
       <c r="C303">
-        <v>6.64019413192227E-05</v>
+        <v>6.637997574152013E-05</v>
       </c>
       <c r="D303">
-        <v>1557976796.823485</v>
+        <v>1573571842.54012</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B304">
-        <v>23705520000000</v>
+        <v>24071860000000</v>
       </c>
       <c r="C304">
         <v>6.637997574152013E-05</v>
       </c>
       <c r="D304">
-        <v>1573571842.54012</v>
+        <v>1597889482.853269</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B305">
-        <v>24071860000000</v>
+        <v>24464060000000</v>
       </c>
       <c r="C305">
-        <v>6.637997574152013E-05</v>
+        <v>6.64019413192227E-05</v>
       </c>
       <c r="D305">
-        <v>1597889482.853269</v>
+        <v>1624461076.549943</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B306">
-        <v>24464060000000</v>
+        <v>24575480000000</v>
       </c>
       <c r="C306">
-        <v>6.64019413192227E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D306">
-        <v>1624461076.549943</v>
+        <v>1629702463.097502</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B307">
-        <v>24575480000000</v>
+        <v>24822990000000</v>
       </c>
       <c r="C307">
-        <v>6.631416611588062E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D307">
-        <v>1629702463.097502</v>
+        <v>1657068083.832637</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B308">
-        <v>24822990000000</v>
+        <v>24961820000000</v>
       </c>
       <c r="C308">
-        <v>6.675537813263578E-05</v>
+        <v>6.627036547775318E-05</v>
       </c>
       <c r="D308">
-        <v>1657068083.832637</v>
+        <v>1654228934.389889</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B309">
-        <v>24961820000000</v>
+        <v>25030240000000</v>
       </c>
       <c r="C309">
-        <v>6.627036547775318E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D309">
-        <v>1654228934.389889</v>
+        <v>1660957283.950669</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B310">
-        <v>25030240000000</v>
+        <v>24923710000000</v>
       </c>
       <c r="C310">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D310">
-        <v>1660957283.950669</v>
+        <v>1653888163.580298</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B311">
-        <v>24923710000000</v>
+        <v>24524980000000</v>
       </c>
       <c r="C311">
-        <v>6.635802469136007E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D311">
-        <v>1653888163.580298</v>
+        <v>1626353597.70865</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B312">
-        <v>24524980000000</v>
+        <v>24830670000000</v>
       </c>
       <c r="C312">
-        <v>6.631416611588062E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D312">
-        <v>1626353597.70865</v>
+        <v>1647714212.963014</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B313">
-        <v>24830670000000</v>
+        <v>24957840000000</v>
       </c>
       <c r="C313">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D313">
-        <v>1647714212.963014</v>
+        <v>1656152962.963014</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B314">
-        <v>24957840000000</v>
+        <v>25479600000000</v>
       </c>
       <c r="C314">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D314">
-        <v>1656152962.963014</v>
+        <v>1690775925.925978</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B315">
-        <v>25479600000000</v>
+        <v>25878110000000</v>
       </c>
       <c r="C315">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D315">
-        <v>1690775925.925978</v>
+        <v>1717220262.345732</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B316">
-        <v>25878110000000</v>
+        <v>26908910000000</v>
       </c>
       <c r="C316">
         <v>6.635802469136007E-05</v>
       </c>
       <c r="D316">
-        <v>1717220262.345732</v>
+        <v>1785622114.197586</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B317">
-        <v>26908910000000</v>
+        <v>27793650000000</v>
       </c>
       <c r="C317">
-        <v>6.635802469136007E-05</v>
+        <v>6.702293475840972E-05</v>
       </c>
       <c r="D317">
-        <v>1785622114.197586</v>
+        <v>1862811990.648074</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B318">
-        <v>27793650000000</v>
+        <v>29097550000000</v>
       </c>
       <c r="C318">
-        <v>6.702293475840972E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D318">
-        <v>1862811990.648074</v>
+        <v>1937262231.806771</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B319">
-        <v>29097550000000</v>
+        <v>30564230000000</v>
       </c>
       <c r="C319">
-        <v>6.657819066576983E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D319">
-        <v>1937262231.806771</v>
+        <v>2043045354.207684</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B320">
-        <v>30564230000000</v>
+        <v>32084790000000</v>
       </c>
       <c r="C320">
-        <v>6.68443260048653E-05</v>
+        <v>6.69335112297005E-05</v>
       </c>
       <c r="D320">
-        <v>2043045354.207684</v>
+        <v>2147547651.767582</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B321">
-        <v>32084790000000</v>
+        <v>33356930000000</v>
       </c>
       <c r="C321">
-        <v>6.69335112297005E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D321">
-        <v>2147547651.767582</v>
+        <v>2228237001.776019</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B322">
-        <v>33356930000000</v>
+        <v>34821360000000</v>
       </c>
       <c r="C322">
-        <v>6.679982245896187E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D322">
-        <v>2228237001.776019</v>
+        <v>2329162079.999503</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B323">
-        <v>34821360000000</v>
+        <v>35985470000000</v>
       </c>
       <c r="C323">
-        <v>6.688888888887462E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D323">
-        <v>2329162079.999503</v>
+        <v>2403823007.102298</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B324">
-        <v>35985470000000</v>
+        <v>37324710000000</v>
       </c>
       <c r="C324">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D324">
-        <v>2403823007.102298</v>
+        <v>2493284001.332239</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B325">
-        <v>37324710000000</v>
+        <v>38308190000000</v>
       </c>
       <c r="C325">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D325">
-        <v>2493284001.332239</v>
+        <v>2558980290.724178</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B326">
-        <v>38308190000000</v>
+        <v>39541860000000</v>
       </c>
       <c r="C326">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D326">
-        <v>2558980290.724178</v>
+        <v>2641389227.697126</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B327">
-        <v>39541860000000</v>
+        <v>40487280000000</v>
       </c>
       <c r="C327">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D327">
-        <v>2641389227.697126</v>
+        <v>2704543115.846278</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B328">
-        <v>40487280000000</v>
+        <v>41862090000000</v>
       </c>
       <c r="C328">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D328">
-        <v>2704543115.846278</v>
+        <v>2796380179.761083</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B329">
-        <v>41862090000000</v>
+        <v>42442800000000</v>
       </c>
       <c r="C329">
-        <v>6.679982245896187E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D329">
-        <v>2796380179.761083</v>
+        <v>2833285163.007834</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B330">
-        <v>42442800000000</v>
+        <v>43826040000000</v>
       </c>
       <c r="C330">
-        <v>6.675537813263578E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D330">
-        <v>2833285163.007834</v>
+        <v>2927571691.079361</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B331">
-        <v>43826040000000</v>
+        <v>45386060000000</v>
       </c>
       <c r="C331">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D331">
-        <v>2927571691.079361</v>
+        <v>3031780750.111791</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B332">
-        <v>45386060000000</v>
+        <v>46600160000000</v>
       </c>
       <c r="C332">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D332">
-        <v>3031780750.111791</v>
+        <v>3112882414.559216</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B333">
-        <v>46600160000000</v>
+        <v>47584650000000</v>
       </c>
       <c r="C333">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D333">
-        <v>3112882414.559216</v>
+        <v>3178646171.77184</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B334">
-        <v>47584650000000</v>
+        <v>48778830000000</v>
       </c>
       <c r="C334">
-        <v>6.679982245896187E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D334">
-        <v>3178646171.77184</v>
+        <v>3256249241.517558</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B335">
-        <v>48778830000000</v>
+        <v>50035990000000</v>
       </c>
       <c r="C335">
-        <v>6.675537813263578E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D335">
-        <v>3256249241.517558</v>
+        <v>3342395248.558391</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B336">
-        <v>50035990000000</v>
+        <v>51489410000000</v>
       </c>
       <c r="C336">
         <v>6.679982245896187E-05</v>
       </c>
       <c r="D336">
-        <v>3342395248.558391</v>
+        <v>3439483446.516695</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B337">
-        <v>51489410000000</v>
+        <v>52420350000000</v>
       </c>
       <c r="C337">
-        <v>6.679982245896187E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D337">
-        <v>3439483446.516695</v>
+        <v>3504002964.689141</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B338">
-        <v>52420350000000</v>
+        <v>53396860000000</v>
       </c>
       <c r="C338">
-        <v>6.68443260048653E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D338">
-        <v>3504002964.689141</v>
+        <v>3566900767.866043</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B339">
-        <v>53396860000000</v>
+        <v>54615810000000</v>
       </c>
       <c r="C339">
-        <v>6.679982245896187E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D339">
-        <v>3566900767.866043</v>
+        <v>3650757008.659782</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B340">
-        <v>54615810000000</v>
+        <v>55356080000000</v>
       </c>
       <c r="C340">
-        <v>6.68443260048653E-05</v>
+        <v>6.697819314641536E-05</v>
       </c>
       <c r="D340">
-        <v>3650757008.659782</v>
+        <v>3707650218.06842</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B341">
-        <v>55356080000000</v>
+        <v>56432090000000</v>
       </c>
       <c r="C341">
-        <v>6.697819314641536E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D341">
-        <v>3707650218.06842</v>
+        <v>3767145506.764934</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B342">
-        <v>56432090000000</v>
+        <v>57319560000000</v>
       </c>
       <c r="C342">
-        <v>6.675537813263578E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D342">
-        <v>3767145506.764934</v>
+        <v>3831487355.095437</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B343">
-        <v>57319560000000</v>
+        <v>57796560000000</v>
       </c>
       <c r="C343">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D343">
-        <v>3831487355.095437</v>
+        <v>3863372098.599758</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B344">
-        <v>57796560000000</v>
+        <v>58468430000000</v>
       </c>
       <c r="C344">
-        <v>6.68443260048653E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D344">
-        <v>3863372098.599758</v>
+        <v>3903082153.471546</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B345">
-        <v>58468430000000</v>
+        <v>59276770000000</v>
       </c>
       <c r="C345">
         <v>6.675537813263578E-05</v>
       </c>
       <c r="D345">
-        <v>3903082153.471546</v>
+        <v>3957043195.831281</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B346">
-        <v>59276770000000</v>
+        <v>59265310000000</v>
       </c>
       <c r="C346">
-        <v>6.675537813263578E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D346">
-        <v>3957043195.831281</v>
+        <v>3964190735.55471</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B347">
-        <v>59265310000000</v>
+        <v>59253590000000</v>
       </c>
       <c r="C347">
-        <v>6.688888888887462E-05</v>
+        <v>6.697819314641536E-05</v>
       </c>
       <c r="D347">
-        <v>3964190735.55471</v>
+        <v>3968698395.638506</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B348">
-        <v>59253590000000</v>
+        <v>59401860000000</v>
       </c>
       <c r="C348">
-        <v>6.697819314641536E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D348">
-        <v>3968698395.638506</v>
+        <v>3973324413.332486</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B349">
-        <v>59401860000000</v>
+        <v>55963380000000</v>
       </c>
       <c r="C349">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D349">
-        <v>3973324413.332486</v>
+        <v>3743328306.665868</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B350">
-        <v>55963380000000</v>
+        <v>55824410000000</v>
       </c>
       <c r="C350">
-        <v>6.688888888887462E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D350">
-        <v>3743328306.665868</v>
+        <v>3731545061.069263</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B351">
-        <v>55824410000000</v>
+        <v>55989420000000</v>
       </c>
       <c r="C351">
-        <v>6.68443260048653E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D351">
-        <v>3731545061.069263</v>
+        <v>3745070093.332534</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B352">
-        <v>55989420000000</v>
+        <v>56497980000000</v>
       </c>
       <c r="C352">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D352">
-        <v>3745070093.332534</v>
+        <v>3779087106.66586</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B353">
-        <v>56497980000000</v>
+        <v>56103250000000</v>
       </c>
       <c r="C353">
-        <v>6.688888888887462E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D353">
-        <v>3779087106.66586</v>
+        <v>3727831843.267898</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B354">
-        <v>56103250000000</v>
+        <v>55196860000000</v>
       </c>
       <c r="C354">
-        <v>6.644591611480437E-05</v>
+        <v>6.631416611588062E-05</v>
       </c>
       <c r="D354">
-        <v>3727831843.267898</v>
+        <v>3660333743.115006</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B355">
-        <v>55196860000000</v>
+        <v>55541890000000</v>
       </c>
       <c r="C355">
-        <v>6.631416611588062E-05</v>
+        <v>6.627036547775318E-05</v>
       </c>
       <c r="D355">
-        <v>3660333743.115006</v>
+        <v>3680781349.625165</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B356">
-        <v>55541890000000</v>
+        <v>56307070000000</v>
       </c>
       <c r="C356">
-        <v>6.627036547775318E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D356">
-        <v>3680781349.625165</v>
+        <v>3753804666.666667</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B357">
-        <v>56307070000000</v>
+        <v>56805410000000</v>
       </c>
       <c r="C357">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D357">
-        <v>3753804666.666667</v>
+        <v>3787027333.333333</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B358">
-        <v>56805410000000</v>
+        <v>57133730000000</v>
       </c>
       <c r="C358">
-        <v>6.666666666666667E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D358">
-        <v>3787027333.333333</v>
+        <v>3813983750.277917</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B359">
-        <v>57133730000000</v>
+        <v>57917370000000</v>
       </c>
       <c r="C359">
-        <v>6.675537813263578E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D359">
-        <v>3813983750.277917</v>
+        <v>3874028526.66584</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B360">
-        <v>57917370000000</v>
+        <v>58643000000000</v>
       </c>
       <c r="C360">
-        <v>6.688888888887462E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D360">
-        <v>3874028526.66584</v>
+        <v>3912132757.092554</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B361">
-        <v>58643000000000</v>
+        <v>58932610000000</v>
       </c>
       <c r="C361">
-        <v>6.671099290780748E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D361">
-        <v>3912132757.092554</v>
+        <v>3941936802.221381</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B362">
-        <v>58932610000000</v>
+        <v>59485810000000</v>
       </c>
       <c r="C362">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D362">
-        <v>3941936802.221381</v>
+        <v>3978939735.554707</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B363">
-        <v>59485810000000</v>
+        <v>60356990000000</v>
       </c>
       <c r="C363">
-        <v>6.688888888887462E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D363">
-        <v>3978939735.554707</v>
+        <v>4031836216.157337</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B364">
-        <v>60356990000000</v>
+        <v>60999030000000</v>
       </c>
       <c r="C364">
-        <v>6.679982245896187E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D364">
-        <v>4031836216.157337</v>
+        <v>4072013313.373994</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B365">
-        <v>60999030000000</v>
+        <v>61421480000000</v>
       </c>
       <c r="C365">
-        <v>6.675537813263578E-05</v>
+        <v>6.69335112297005E-05</v>
       </c>
       <c r="D365">
-        <v>4072013313.373994</v>
+        <v>4111155321.324825</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B366">
-        <v>61421480000000</v>
+        <v>61807340000000</v>
       </c>
       <c r="C366">
-        <v>6.69335112297005E-05</v>
+        <v>6.679982245896187E-05</v>
       </c>
       <c r="D366">
-        <v>4111155321.324825</v>
+        <v>4128719338.660692</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B367">
-        <v>61807340000000</v>
+        <v>62091550000000</v>
       </c>
       <c r="C367">
-        <v>6.679982245896187E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D367">
-        <v>4128719338.660692</v>
+        <v>4153234788.888003</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B368">
-        <v>62091550000000</v>
+        <v>62758720000000</v>
       </c>
       <c r="C368">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D368">
-        <v>4153234788.888003</v>
+        <v>4197861048.887993</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B369">
-        <v>62758720000000</v>
+        <v>63023640000000</v>
       </c>
       <c r="C369">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D369">
-        <v>4197861048.887993</v>
+        <v>4215581253.332434</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B370">
-        <v>63023640000000</v>
+        <v>63784670000000</v>
       </c>
       <c r="C370">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D370">
-        <v>4215581253.332434</v>
+        <v>4266485704.443534</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B371">
-        <v>63784670000000</v>
+        <v>64331000000000</v>
       </c>
       <c r="C371">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D371">
-        <v>4266485704.443534</v>
+        <v>4303029111.110193</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B372">
-        <v>64331000000000</v>
+        <v>65077030000000</v>
       </c>
       <c r="C372">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D372">
-        <v>4303029111.110193</v>
+        <v>4352930228.88796</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B373">
-        <v>65077030000000</v>
+        <v>65240180000000</v>
       </c>
       <c r="C373">
-        <v>6.688888888887462E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D373">
-        <v>4352930228.88796</v>
+        <v>4360935860.536093</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B374">
-        <v>65240180000000</v>
+        <v>65755649999999.99</v>
       </c>
       <c r="C374">
-        <v>6.68443260048653E-05</v>
+        <v>6.688888888887462E-05</v>
       </c>
       <c r="D374">
-        <v>4360935860.536093</v>
+        <v>4398322366.665728</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B375">
-        <v>65755649999999.99</v>
+        <v>65970179999999.99</v>
       </c>
       <c r="C375">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D375">
-        <v>4398322366.665728</v>
+        <v>4412672039.999058</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B376">
-        <v>65970179999999.99</v>
+        <v>66217750000000</v>
       </c>
       <c r="C376">
         <v>6.688888888887462E-05</v>
       </c>
       <c r="D376">
-        <v>4412672039.999058</v>
+        <v>4429231722.221277</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B377">
-        <v>66217750000000</v>
+        <v>66577300000000</v>
       </c>
       <c r="C377">
-        <v>6.688888888887462E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D377">
-        <v>4429231722.221277</v>
+        <v>4423789690.950165</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B378">
-        <v>66577300000000</v>
+        <v>66638700000000</v>
       </c>
       <c r="C378">
-        <v>6.644591611480437E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D378">
-        <v>4423789690.950165</v>
+        <v>4436684074.319036</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B379">
-        <v>66638700000000</v>
+        <v>66594399999999.99</v>
       </c>
       <c r="C379">
-        <v>6.657819066576983E-05</v>
+        <v>6.653404067195362E-05</v>
       </c>
       <c r="D379">
-        <v>4436684074.319036</v>
+        <v>4430794518.124348</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B380">
-        <v>66594399999999.99</v>
+        <v>66964800000000</v>
       </c>
       <c r="C380">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D380">
-        <v>4430794518.124348</v>
+        <v>4455438726.78924</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B381">
-        <v>66964800000000</v>
+        <v>67073300000000</v>
       </c>
       <c r="C381">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D381">
-        <v>4455438726.78924</v>
+        <v>4462657670.202147</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B382">
-        <v>67073300000000</v>
+        <v>67415200000000</v>
       </c>
       <c r="C382">
-        <v>6.653404067195362E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D382">
-        <v>4462657670.202147</v>
+        <v>4497334929.078423</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B383">
-        <v>67415200000000</v>
+        <v>67910000000000</v>
       </c>
       <c r="C383">
-        <v>6.671099290780748E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D383">
-        <v>4497334929.078423</v>
+        <v>4527333333.333334</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B384">
-        <v>67910000000000</v>
+        <v>68749399999999.99</v>
       </c>
       <c r="C384">
-        <v>6.666666666666667E-05</v>
+        <v>6.68443260048653E-05</v>
       </c>
       <c r="D384">
-        <v>4527333333.333334</v>
+        <v>4595507306.238886</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B385">
-        <v>68749399999999.99</v>
+        <v>68948500000000</v>
       </c>
       <c r="C385">
         <v>6.68443260048653E-05</v>
       </c>
       <c r="D385">
-        <v>4595507306.238886</v>
+        <v>4608816011.546455</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B386">
-        <v>68948500000000</v>
+        <v>69422000000000</v>
       </c>
       <c r="C386">
-        <v>6.68443260048653E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D386">
-        <v>4608816011.546455</v>
+        <v>4634291860.723841</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B387">
-        <v>69422000000000</v>
+        <v>69851800000000</v>
       </c>
       <c r="C387">
         <v>6.675537813263578E-05</v>
       </c>
       <c r="D387">
-        <v>4634291860.723841</v>
+        <v>4662983322.245248</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B388">
-        <v>69851800000000</v>
+        <v>70190100000000.01</v>
       </c>
       <c r="C388">
-        <v>6.675537813263578E-05</v>
+        <v>6.662239929171596E-05</v>
       </c>
       <c r="D388">
-        <v>4662983322.245248</v>
+        <v>4676232868.525473</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B389">
-        <v>70190100000000.01</v>
+        <v>71150500000000</v>
       </c>
       <c r="C389">
-        <v>6.662239929171596E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D389">
-        <v>4676232868.525473</v>
+        <v>4727660154.526388</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B390">
-        <v>71150500000000</v>
+        <v>70691500000000</v>
       </c>
       <c r="C390">
-        <v>6.644591611480437E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D390">
-        <v>4727660154.526388</v>
+        <v>4706512165.449268</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B391">
-        <v>70691500000000</v>
+        <v>71280600000000</v>
       </c>
       <c r="C391">
-        <v>6.657819066576983E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D391">
-        <v>4706512165.449268</v>
+        <v>4736304768.212924</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B392">
-        <v>71280600000000</v>
+        <v>71571300000000</v>
       </c>
       <c r="C392">
-        <v>6.644591611480437E-05</v>
+        <v>6.64019413192227E-05</v>
       </c>
       <c r="D392">
-        <v>4736304768.212924</v>
+        <v>4752473262.740483</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B393">
-        <v>71571300000000</v>
+        <v>72207200000000</v>
       </c>
       <c r="C393">
-        <v>6.64019413192227E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D393">
-        <v>4752473262.740483</v>
+        <v>4797873554.084902</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B394">
-        <v>72207200000000</v>
+        <v>72090500000000</v>
       </c>
       <c r="C394">
         <v>6.644591611480437E-05</v>
       </c>
       <c r="D394">
-        <v>4797873554.084902</v>
+        <v>4790119315.674304</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B395">
-        <v>72090500000000</v>
+        <v>72460400000000</v>
       </c>
       <c r="C395">
-        <v>6.644591611480437E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D395">
-        <v>4790119315.674304</v>
+        <v>4808329012.345827</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B396">
-        <v>72460400000000</v>
+        <v>73400300000000</v>
       </c>
       <c r="C396">
-        <v>6.635802469136007E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D396">
-        <v>4808329012.345827</v>
+        <v>4877150176.601475</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B397">
-        <v>73400300000000</v>
+        <v>73368000000000</v>
       </c>
       <c r="C397">
-        <v>6.644591611480437E-05</v>
+        <v>6.653404067195362E-05</v>
       </c>
       <c r="D397">
-        <v>4877150176.601475</v>
+        <v>4881469496.019894</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B398">
-        <v>73368000000000</v>
+        <v>73881800000000</v>
       </c>
       <c r="C398">
-        <v>6.653404067195362E-05</v>
+        <v>6.648994919374665E-05</v>
       </c>
       <c r="D398">
-        <v>4881469496.019894</v>
+        <v>4912397128.342551</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B399">
-        <v>73881800000000</v>
+        <v>74538100000000</v>
       </c>
       <c r="C399">
-        <v>6.648994919374665E-05</v>
+        <v>6.671099290780748E-05</v>
       </c>
       <c r="D399">
-        <v>4912397128.342551</v>
+        <v>4972510660.461445</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B400">
-        <v>74538100000000</v>
+        <v>75394600000000</v>
       </c>
       <c r="C400">
-        <v>6.671099290780748E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D400">
-        <v>4972510660.461445</v>
+        <v>5026306666.666667</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B401">
-        <v>75394600000000</v>
+        <v>75768200000000</v>
       </c>
       <c r="C401">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D401">
-        <v>5026306666.666667</v>
+        <v>5051213333.333334</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B402">
-        <v>75768200000000</v>
+        <v>76270100000000</v>
       </c>
       <c r="C402">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D402">
-        <v>5051213333.333334</v>
+        <v>5084673333.333334</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B403">
-        <v>76270100000000</v>
+        <v>76486000000000</v>
       </c>
       <c r="C403">
-        <v>6.666666666666667E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D403">
-        <v>5084673333.333334</v>
+        <v>5105851851.85278</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B404">
-        <v>76486000000000</v>
+        <v>77001500000000</v>
       </c>
       <c r="C404">
         <v>6.675537813263578E-05</v>
       </c>
       <c r="D404">
-        <v>5105851851.85278</v>
+        <v>5140264249.280154</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B405">
-        <v>77001500000000</v>
+        <v>77702300000000</v>
       </c>
       <c r="C405">
-        <v>6.675537813263578E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D405">
-        <v>5140264249.280154</v>
+        <v>5178432923.725613</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B406">
-        <v>77702300000000</v>
+        <v>77842000000000</v>
       </c>
       <c r="C406">
-        <v>6.664452562827114E-05</v>
+        <v>6.664009918524251E-05</v>
       </c>
       <c r="D406">
-        <v>5178432923.725613</v>
+        <v>5187398600.777648</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B407">
-        <v>77842000000000</v>
+        <v>78010600000000</v>
       </c>
       <c r="C407">
-        <v>6.664009918524251E-05</v>
+        <v>6.66312480630314E-05</v>
       </c>
       <c r="D407">
-        <v>5187398600.777648</v>
+        <v>5197943640.145917</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B408">
-        <v>78010600000000</v>
+        <v>78620200000000</v>
       </c>
       <c r="C408">
-        <v>6.66312480630314E-05</v>
+        <v>6.635802469136007E-05</v>
       </c>
       <c r="D408">
-        <v>5197943640.145917</v>
+        <v>5217081172.839667</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B409">
-        <v>78620200000000</v>
+        <v>78746000000000</v>
       </c>
       <c r="C409">
-        <v>6.635802469136007E-05</v>
+        <v>6.655610834716019E-05</v>
       </c>
       <c r="D409">
-        <v>5217081172.839667</v>
+        <v>5241027307.905476</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B410">
-        <v>78746000000000</v>
+        <v>78826400000000</v>
       </c>
       <c r="C410">
-        <v>6.655610834716019E-05</v>
+        <v>6.660028764245144E-05</v>
       </c>
       <c r="D410">
-        <v>5241027307.905476</v>
+        <v>5249860913.818933</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B411">
-        <v>78826400000000</v>
+        <v>79179500000000</v>
       </c>
       <c r="C411">
-        <v>6.660028764245144E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D411">
-        <v>5249860913.818933</v>
+        <v>5276880216.983695</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B412">
-        <v>79179500000000</v>
+        <v>79579600000000</v>
       </c>
       <c r="C412">
-        <v>6.664452562827114E-05</v>
+        <v>6.648994919374665E-05</v>
       </c>
       <c r="D412">
-        <v>5276880216.983695</v>
+        <v>5291243560.858681</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B413">
-        <v>79579600000000</v>
+        <v>79870500000000</v>
       </c>
       <c r="C413">
-        <v>6.648994919374665E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D413">
-        <v>5291243560.858681</v>
+        <v>5324700000</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B414">
-        <v>79870500000000</v>
+        <v>80272500000000</v>
       </c>
       <c r="C414">
-        <v>6.666666666666667E-05</v>
+        <v>6.66489526593307E-05</v>
       </c>
       <c r="D414">
-        <v>5324700000</v>
+        <v>5350078052.346124</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B415">
-        <v>80272500000000</v>
+        <v>80371400000000</v>
       </c>
       <c r="C415">
-        <v>6.66489526593307E-05</v>
+        <v>6.668882242160481E-05</v>
       </c>
       <c r="D415">
-        <v>5350078052.346124</v>
+        <v>5359874022.375769</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B416">
-        <v>80371400000000</v>
+        <v>81397500000000</v>
       </c>
       <c r="C416">
         <v>6.668882242160481E-05</v>
       </c>
       <c r="D416">
-        <v>5359874022.375769</v>
+        <v>5428303423.062578</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B417">
-        <v>81397500000000</v>
+        <v>81663900000000</v>
       </c>
       <c r="C417">
-        <v>6.668882242160481E-05</v>
+        <v>6.66932553399133E-05</v>
       </c>
       <c r="D417">
-        <v>5428303423.062578</v>
+        <v>5446431334.753145</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B418">
-        <v>81663900000000</v>
+        <v>81156300000000</v>
       </c>
       <c r="C418">
-        <v>6.66932553399133E-05</v>
+        <v>6.660028764245144E-05</v>
       </c>
       <c r="D418">
-        <v>5446431334.753145</v>
+        <v>5405032923.997082</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B419">
-        <v>81156300000000</v>
+        <v>81593400000000</v>
       </c>
       <c r="C419">
-        <v>6.660028764245144E-05</v>
+        <v>6.661355287035969E-05</v>
       </c>
       <c r="D419">
-        <v>5405032923.997082</v>
+        <v>5435226264.772407</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B420">
-        <v>81593400000000</v>
+        <v>82428000000000</v>
       </c>
       <c r="C420">
-        <v>6.661355287035969E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D420">
-        <v>5435226264.772407</v>
+        <v>5493374958.487134</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B421">
-        <v>82428000000000</v>
+        <v>82377400000000</v>
       </c>
       <c r="C421">
-        <v>6.664452562827114E-05</v>
+        <v>6.665780848614462E-05</v>
       </c>
       <c r="D421">
-        <v>5493374958.487134</v>
+        <v>5491096952.78653</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B422">
-        <v>82377400000000</v>
+        <v>82874600000000</v>
       </c>
       <c r="C422">
-        <v>6.665780848614462E-05</v>
+        <v>6.656935598017958E-05</v>
       </c>
       <c r="D422">
-        <v>5491096952.78653</v>
+        <v>5516908749.114991</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B423">
-        <v>82874600000000</v>
+        <v>82632700000000</v>
       </c>
       <c r="C423">
-        <v>6.656935598017958E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D423">
-        <v>5516908749.114991</v>
+        <v>5506285603.593776</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B424">
-        <v>82632700000000</v>
+        <v>82707600000000</v>
       </c>
       <c r="C424">
-        <v>6.663567333021644E-05</v>
+        <v>6.651198762567775E-05</v>
       </c>
       <c r="D424">
-        <v>5506285603.593776</v>
+        <v>5501046867.749505</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B425">
-        <v>82707600000000</v>
+        <v>82605300000000</v>
       </c>
       <c r="C425">
-        <v>6.651198762567775E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D425">
-        <v>5501046867.749505</v>
+        <v>5504459786.144528</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B426">
-        <v>82605300000000</v>
+        <v>83108700000000</v>
       </c>
       <c r="C426">
-        <v>6.663567333021644E-05</v>
+        <v>6.664009918524251E-05</v>
       </c>
       <c r="D426">
-        <v>5504459786.144528</v>
+        <v>5538372011.156564</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B427">
-        <v>83108700000000</v>
+        <v>83114600000000</v>
       </c>
       <c r="C427">
-        <v>6.664009918524251E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D427">
-        <v>5538372011.156564</v>
+        <v>5538397334.571608</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B428">
-        <v>83114600000000</v>
+        <v>83694400000000</v>
       </c>
       <c r="C428">
-        <v>6.663567333021644E-05</v>
+        <v>6.673317813988263E-05</v>
       </c>
       <c r="D428">
-        <v>5538397334.571608</v>
+        <v>5585193304.510593</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B429">
-        <v>83694400000000</v>
+        <v>83441700000000</v>
       </c>
       <c r="C429">
-        <v>6.673317813988263E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D429">
-        <v>5585193304.510593</v>
+        <v>5560932514.116512</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B430">
-        <v>83441700000000</v>
+        <v>82880400000000</v>
       </c>
       <c r="C430">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D430">
-        <v>5560932514.116512</v>
+        <v>5522791259.87767</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B431">
-        <v>82880400000000</v>
+        <v>78447700000000</v>
       </c>
       <c r="C431">
-        <v>6.663567333021644E-05</v>
+        <v>6.664009918524251E-05</v>
       </c>
       <c r="D431">
-        <v>5522791259.87767</v>
+        <v>5227762508.854149</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B432">
-        <v>78447700000000</v>
+        <v>79166200000000</v>
       </c>
       <c r="C432">
-        <v>6.664009918524251E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D432">
-        <v>5227762508.854149</v>
+        <v>5275293041.994581</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B433">
-        <v>79166200000000</v>
+        <v>79712000000000</v>
       </c>
       <c r="C433">
-        <v>6.663567333021644E-05</v>
+        <v>6.66489526593307E-05</v>
       </c>
       <c r="D433">
-        <v>5275293041.994581</v>
+        <v>5312721314.380569</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B434">
-        <v>79712000000000</v>
+        <v>80568000000000</v>
       </c>
       <c r="C434">
-        <v>6.66489526593307E-05</v>
+        <v>6.644591611480437E-05</v>
       </c>
       <c r="D434">
-        <v>5312721314.380569</v>
+        <v>5353414569.537559</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B435">
-        <v>80568000000000</v>
+        <v>80882000000000</v>
       </c>
       <c r="C435">
-        <v>6.644591611480437E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D435">
-        <v>5353414569.537559</v>
+        <v>5390342521.865827</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B436">
-        <v>80882000000000</v>
+        <v>80700400000000</v>
       </c>
       <c r="C436">
-        <v>6.664452562827114E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D436">
-        <v>5390342521.865827</v>
+        <v>5380026666.666667</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B437">
-        <v>80700400000000</v>
+        <v>81058300000000</v>
       </c>
       <c r="C437">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D437">
-        <v>5380026666.666667</v>
+        <v>5403886666.666667</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B438">
-        <v>81058300000000</v>
+        <v>81369200000000</v>
       </c>
       <c r="C438">
-        <v>6.666666666666667E-05</v>
+        <v>6.664009918524251E-05</v>
       </c>
       <c r="D438">
-        <v>5403886666.666667</v>
+        <v>5422451558.623835</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B439">
-        <v>81369200000000</v>
+        <v>80767800000000</v>
       </c>
       <c r="C439">
-        <v>6.664009918524251E-05</v>
+        <v>6.653404067195362E-05</v>
       </c>
       <c r="D439">
-        <v>5422451558.623835</v>
+        <v>5373808090.184216</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B440">
-        <v>80767800000000</v>
+        <v>80216200000000</v>
       </c>
       <c r="C440">
         <v>6.653404067195362E-05</v>
       </c>
       <c r="D440">
-        <v>5373808090.184216</v>
+        <v>5337107913.349566</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B441">
-        <v>80216200000000</v>
+        <v>79452900000000</v>
       </c>
       <c r="C441">
-        <v>6.653404067195362E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D441">
-        <v>5337107913.349566</v>
+        <v>5294397489.538354</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B442">
-        <v>79452900000000</v>
+        <v>78473400000000</v>
       </c>
       <c r="C442">
-        <v>6.663567333021644E-05</v>
+        <v>6.653404067195362E-05</v>
       </c>
       <c r="D442">
-        <v>5294397489.538354</v>
+        <v>5221152387.266485</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B443">
-        <v>78473400000000</v>
+        <v>77705900000000</v>
       </c>
       <c r="C443">
-        <v>6.653404067195362E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D443">
-        <v>5221152387.266485</v>
+        <v>5177984968.230466</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B444">
-        <v>77705900000000</v>
+        <v>76828000000000</v>
       </c>
       <c r="C444">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D444">
-        <v>5177984968.230466</v>
+        <v>5119485510.613869</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B445">
-        <v>76828000000000</v>
+        <v>75056000000000</v>
       </c>
       <c r="C445">
-        <v>6.663567333021644E-05</v>
+        <v>6.675537813263578E-05</v>
       </c>
       <c r="D445">
-        <v>5119485510.613869</v>
+        <v>5010391661.123111</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B446">
-        <v>75056000000000</v>
+        <v>75726000000000</v>
       </c>
       <c r="C446">
-        <v>6.675537813263578E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D446">
-        <v>5010391661.123111</v>
+        <v>5046052998.603971</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B447">
-        <v>75726000000000</v>
+        <v>75982700000000</v>
       </c>
       <c r="C447">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D447">
-        <v>5046052998.603971</v>
+        <v>5063830997.455237</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B448">
-        <v>75982700000000</v>
+        <v>75295800000000</v>
       </c>
       <c r="C448">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D448">
-        <v>5063830997.455237</v>
+        <v>5018052872.801178</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B449">
-        <v>75295800000000</v>
+        <v>74212800000000</v>
       </c>
       <c r="C449">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D449">
-        <v>5018052872.801178</v>
+        <v>4945219897.720687</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B450">
-        <v>74212800000000</v>
+        <v>74039300000000</v>
       </c>
       <c r="C450">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D450">
-        <v>4945219897.720687</v>
+        <v>4933658608.397894</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B451">
-        <v>74039300000000</v>
+        <v>73728700000000</v>
       </c>
       <c r="C451">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D451">
-        <v>4933658608.397894</v>
+        <v>4912961568.261529</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B452">
-        <v>73728700000000</v>
+        <v>73142500000000</v>
       </c>
       <c r="C452">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D452">
-        <v>4912961568.261529</v>
+        <v>4873899736.555356</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B453">
-        <v>73142500000000</v>
+        <v>70440500000000</v>
       </c>
       <c r="C453">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D453">
-        <v>4873899736.555356</v>
+        <v>4694473707.518233</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B454">
-        <v>70440500000000</v>
+        <v>69005000000000</v>
       </c>
       <c r="C454">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D454">
-        <v>4694473707.518233</v>
+        <v>4598805490.97885</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B455">
-        <v>69005000000000</v>
+        <v>66054100000000.01</v>
       </c>
       <c r="C455">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D455">
-        <v>4598805490.97885</v>
+        <v>4402144160.302385</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B456">
-        <v>66054100000000.01</v>
+        <v>63483800000000</v>
       </c>
       <c r="C456">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D456">
-        <v>4402144160.302385</v>
+        <v>4230847736.08004</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B457">
-        <v>63483800000000</v>
+        <v>61543000000000</v>
       </c>
       <c r="C457">
-        <v>6.664452562827114E-05</v>
+        <v>6.648994919374665E-05</v>
       </c>
       <c r="D457">
-        <v>4230847736.08004</v>
+        <v>4091990943.23075</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B458">
-        <v>61543000000000</v>
+        <v>59676600000000</v>
       </c>
       <c r="C458">
         <v>6.648994919374665E-05</v>
       </c>
       <c r="D458">
-        <v>4091990943.23075</v>
+        <v>3967894102.055542</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B459">
-        <v>59676600000000</v>
+        <v>59697000000000</v>
       </c>
       <c r="C459">
-        <v>6.648994919374665E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D459">
-        <v>3967894102.055542</v>
+        <v>3978478246.430902</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B460">
-        <v>59697000000000</v>
+        <v>58242600000000</v>
       </c>
       <c r="C460">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D460">
-        <v>3978478246.430902</v>
+        <v>3881034867.502464</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B461">
-        <v>58242600000000</v>
+        <v>58466700000000</v>
       </c>
       <c r="C461">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D461">
-        <v>3881034867.502464</v>
+        <v>3896485486.55044</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B462">
-        <v>58466700000000</v>
+        <v>58829200000000</v>
       </c>
       <c r="C462">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D462">
-        <v>3896485486.55044</v>
+        <v>3920123353.477969</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B463">
-        <v>58829200000000</v>
+        <v>59170300000000</v>
       </c>
       <c r="C463">
-        <v>6.663567333021644E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D463">
-        <v>3920123353.477969</v>
+        <v>3939451515.150801</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B464">
-        <v>59170300000000</v>
+        <v>60614400000000</v>
       </c>
       <c r="C464">
-        <v>6.657819066576983E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D464">
-        <v>3939451515.150801</v>
+        <v>4039081357.507071</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B465">
-        <v>60614400000000</v>
+        <v>61723000000000</v>
       </c>
       <c r="C465">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D465">
-        <v>4039081357.507071</v>
+        <v>4113500055.35378</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B466">
-        <v>61723000000000</v>
+        <v>63409900000000</v>
       </c>
       <c r="C466">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D466">
-        <v>4113500055.35378</v>
+        <v>4225361382.301692</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B467">
-        <v>63409900000000</v>
+        <v>65311500000000</v>
       </c>
       <c r="C467">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D467">
-        <v>4225361382.301692</v>
+        <v>4352075778.706431</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B468">
-        <v>65311500000000</v>
+        <v>67510300000000</v>
       </c>
       <c r="C468">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D468">
-        <v>4352075778.706431</v>
+        <v>4498594297.224911</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B469">
-        <v>67510300000000</v>
+        <v>69303200000000</v>
       </c>
       <c r="C469">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D469">
-        <v>4498594297.224911</v>
+        <v>4618065395.938656</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B470">
-        <v>69303200000000</v>
+        <v>71601700000000</v>
       </c>
       <c r="C470">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D470">
-        <v>4618065395.938656</v>
+        <v>4771861330.677782</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B471">
-        <v>71601700000000</v>
+        <v>72300400000000</v>
       </c>
       <c r="C471">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D471">
-        <v>4771861330.677782</v>
+        <v>4818425860.734255</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B472">
-        <v>72300400000000</v>
+        <v>73248200000000</v>
       </c>
       <c r="C472">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D472">
-        <v>4818425860.734255</v>
+        <v>4880943127.22636</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B473">
-        <v>73248200000000</v>
+        <v>74312300000000</v>
       </c>
       <c r="C473">
-        <v>6.663567333021644E-05</v>
+        <v>6.682206682206579E-05</v>
       </c>
       <c r="D473">
-        <v>4880943127.22636</v>
+        <v>4965701476.301399</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B474">
-        <v>74312300000000</v>
+        <v>75032100000000</v>
       </c>
       <c r="C474">
-        <v>6.682206682206579E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D474">
-        <v>4965701476.301399</v>
+        <v>4999814504.880133</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B475">
-        <v>75032100000000</v>
+        <v>74752200000000</v>
       </c>
       <c r="C475">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D475">
-        <v>4999814504.880133</v>
+        <v>4981163179.915006</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B476">
-        <v>74752200000000</v>
+        <v>75146500000000</v>
       </c>
       <c r="C476">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D476">
-        <v>4981163179.915006</v>
+        <v>5007437625.90911</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B477">
-        <v>75146500000000</v>
+        <v>75299900000000</v>
       </c>
       <c r="C477">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D477">
-        <v>5007437625.90911</v>
+        <v>5018326115.356254</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B478">
-        <v>75299900000000</v>
+        <v>75423200000000</v>
       </c>
       <c r="C478">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D478">
-        <v>5018326115.356254</v>
+        <v>5026543385.36622</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B479">
-        <v>75423200000000</v>
+        <v>75531400000000</v>
       </c>
       <c r="C479">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D479">
-        <v>5026543385.36622</v>
+        <v>5033085696.57391</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B480">
-        <v>75531400000000</v>
+        <v>79007900000000</v>
       </c>
       <c r="C480">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D480">
-        <v>5033085696.57391</v>
+        <v>5264744614.906407</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B481">
-        <v>79007900000000</v>
+        <v>75513400000000</v>
       </c>
       <c r="C481">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D481">
-        <v>5264744614.906407</v>
+        <v>5032554721.57789</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B482">
-        <v>75513400000000</v>
+        <v>73617900000000</v>
       </c>
       <c r="C482">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D482">
-        <v>5032554721.57789</v>
+        <v>4906230023.249502</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B483">
-        <v>73617900000000</v>
+        <v>71185600000000</v>
       </c>
       <c r="C483">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D483">
-        <v>4906230023.249502</v>
+        <v>4744130543.563858</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B484">
-        <v>71185600000000</v>
+        <v>77073100000000</v>
       </c>
       <c r="C484">
-        <v>6.664452562827114E-05</v>
+        <v>6.657819066576983E-05</v>
       </c>
       <c r="D484">
-        <v>4744130543.563858</v>
+        <v>5131387547.001945</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B485">
-        <v>77073100000000</v>
+        <v>79797700000000</v>
       </c>
       <c r="C485">
-        <v>6.657819066576983E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D485">
-        <v>5131387547.001945</v>
+        <v>5318079862.727092</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B486">
-        <v>79797700000000</v>
+        <v>74834600000000</v>
       </c>
       <c r="C486">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D486">
-        <v>5318079862.727092</v>
+        <v>4987316417.58142</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B487">
-        <v>74834600000000</v>
+        <v>79686600000000</v>
       </c>
       <c r="C487">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D487">
-        <v>4987316417.58142</v>
+        <v>5309970246.395625</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B488">
-        <v>79686600000000</v>
+        <v>76680600000000</v>
       </c>
       <c r="C488">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D488">
-        <v>5309970246.395625</v>
+        <v>5109663412.364995</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B489">
-        <v>76680600000000</v>
+        <v>93684900000000</v>
       </c>
       <c r="C489">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D489">
-        <v>5109663412.364995</v>
+        <v>6242756392.373994</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B490">
-        <v>93684900000000</v>
+        <v>109002900000000</v>
       </c>
       <c r="C490">
         <v>6.663567333021644E-05</v>
       </c>
       <c r="D490">
-        <v>6242756392.373994</v>
+        <v>7263481636.44625</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B491">
-        <v>109002900000000</v>
+        <v>107631100000000</v>
       </c>
       <c r="C491">
-        <v>6.663567333021644E-05</v>
+        <v>6.664452562827114E-05</v>
       </c>
       <c r="D491">
-        <v>7263481636.44625</v>
+        <v>7173023602.349014</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B492">
-        <v>107631100000000</v>
+        <v>116582500000000</v>
       </c>
       <c r="C492">
         <v>6.664452562827114E-05</v>
       </c>
       <c r="D492">
-        <v>7173023602.349014</v>
+        <v>7769585409.05792</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B493">
-        <v>116582500000000</v>
+        <v>112763600000000</v>
       </c>
       <c r="C493">
-        <v>6.664452562827114E-05</v>
+        <v>6.663567333021644E-05</v>
       </c>
       <c r="D493">
-        <v>7769585409.05792</v>
+        <v>7514078413.139194</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B494">
-        <v>112763600000000</v>
+        <v>118911100000000</v>
       </c>
       <c r="C494">
-        <v>6.663567333021644E-05</v>
+        <v>6.666666666666667E-05</v>
       </c>
       <c r="D494">
-        <v>7514078413.139194</v>
+        <v>7927406666.666667</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B495">
-        <v>118911100000000</v>
+        <v>103837600000000</v>
       </c>
       <c r="C495">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D495">
-        <v>7927406666.666667</v>
+        <v>6922506666.666667</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B496">
-        <v>103837600000000</v>
+        <v>108136600000000</v>
       </c>
       <c r="C496">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D496">
-        <v>6922506666.666667</v>
+        <v>7209106666.666667</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B497">
-        <v>108136600000000</v>
+        <v>121569100000000</v>
       </c>
       <c r="C497">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D497">
-        <v>7209106666.666667</v>
+        <v>8104606666.666667</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B498">
-        <v>121569100000000</v>
+        <v>131926600000000</v>
       </c>
       <c r="C498">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D498">
-        <v>8104606666.666667</v>
+        <v>8795106666.666668</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B499">
-        <v>131926600000000</v>
+        <v>105203300000000</v>
       </c>
       <c r="C499">
         <v>6.666666666666667E-05</v>
       </c>
       <c r="D499">
-        <v>8795106666.666668</v>
+        <v>7013553333.333334</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B500">
-        <v>105203300000000</v>
+        <v>99551900000000</v>
       </c>
       <c r="C500">
-        <v>6.666666666666667E-05</v>
+        <v>6.665777896280495E-05</v>
       </c>
       <c r="D500">
-        <v>7013553333.333334</v>
+        <v>6635908545.527263</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B501">
-        <v>99551900000000</v>
+        <v>101530700000000</v>
       </c>
       <c r="C501">
-        <v>6.665777896280495E-05</v>
+        <v>6.664445184938353E-05</v>
       </c>
       <c r="D501">
-        <v>6635908545.527263</v>
+        <v>6766457847.384205</v>
       </c>
     </row>
   </sheetData>
